--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -575,7 +575,7 @@
         <v>45281</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44382</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,14 +787,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 39728-2025</t>
+          <t>A 26089-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45891.34503472222</v>
+        <v>45467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -806,8 +806,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>36.2</v>
+        <v>40.1</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -816,10 +821,10 @@
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -834,12 +839,119 @@
         <v>15</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
         <v>19</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Gräddporing
+Smalfotad taggsvamp
+Torrmusseron
+Blanksvart spiklav
+Blågrå svartspik
+Dvärgbägarlav
+Kolflarnlav
+Mörk kolflarnlav
+Nordtagging
+Talltita
+Vaddporing
+Vedflamlav
+Vedskivlav
+Vitplätt
+Bårdlav
+Luddlav
+Stuplav
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26089-2024 artfynd.xlsx", "A 26089-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26089-2024 karta.png", "A 26089-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26089-2024 FSC-klagomål.docx", "A 26089-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26089-2024 FSC-klagomål mail.docx", "A 26089-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26089-2024 tillsynsbegäran.docx", "A 26089-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26089-2024 tillsynsbegäran mail.docx", "A 26089-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 26089-2024 prioriterade fågelarter.docx", "A 26089-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 39728-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45891.34503472222</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>15</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>19</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Blanksvart spiklav
 Blågrå svartspik
@@ -862,144 +974,32 @@
 Lavskrika</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 39728-2025 artfynd.xlsx", "A 39728-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 39728-2025 karta.png", "A 39728-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 39728-2025 FSC-klagomål.docx", "A 39728-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 39728-2025 FSC-klagomål mail.docx", "A 39728-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 39728-2025 tillsynsbegäran.docx", "A 39728-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 39728-2025 tillsynsbegäran mail.docx", "A 39728-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 39728-2025 prioriterade fågelarter.docx", "A 39728-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 26089-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>15</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>19</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Gräddporing
-Smalfotad taggsvamp
-Torrmusseron
-Blanksvart spiklav
-Blågrå svartspik
-Dvärgbägarlav
-Kolflarnlav
-Mörk kolflarnlav
-Nordtagging
-Talltita
-Vaddporing
-Vedflamlav
-Vedskivlav
-Vitplätt
-Bårdlav
-Luddlav
-Stuplav
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26089-2024 artfynd.xlsx", "A 26089-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26089-2024 karta.png", "A 26089-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26089-2024 FSC-klagomål.docx", "A 26089-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26089-2024 FSC-klagomål mail.docx", "A 26089-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26089-2024 tillsynsbegäran.docx", "A 26089-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26089-2024 tillsynsbegäran mail.docx", "A 26089-2024")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 26089-2024 prioriterade fågelarter.docx", "A 26089-2024")</f>
         <v/>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
         <v>45281</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45576</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45831</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1415,14 +1415,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 2256-2025</t>
+          <t>A 28351-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45671</v>
+        <v>45818</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,25 +1434,20 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>17.9</v>
+        <v>5.4</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
         <v>7</v>
       </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1464,15 +1459,113 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>9</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Blanksvart spiklav
+Dvärgbägarlav
+Garnlav
+Granticka
+Ullticka
+Vedflamlav
+Vedskivlav
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 28351-2025 artfynd.xlsx", "A 28351-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 28351-2025 karta.png", "A 28351-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 28351-2025 FSC-klagomål.docx", "A 28351-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 28351-2025 FSC-klagomål mail.docx", "A 28351-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 28351-2025 tillsynsbegäran.docx", "A 28351-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 28351-2025 tillsynsbegäran mail.docx", "A 28351-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 2256-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45671</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Månlåsbräken
 Nordlåsbräken
@@ -1485,121 +1578,28 @@
 Fjällummer</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 2256-2025 artfynd.xlsx", "A 2256-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 2256-2025 karta.png", "A 2256-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 2256-2025 FSC-klagomål.docx", "A 2256-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 2256-2025 FSC-klagomål mail.docx", "A 2256-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 2256-2025 tillsynsbegäran.docx", "A 2256-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 2256-2025 tillsynsbegäran mail.docx", "A 2256-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 28351-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45818</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>8</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Blanksvart spiklav
-Dvärgbägarlav
-Garnlav
-Granticka
-Ullticka
-Vedflamlav
-Vedskivlav
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 28351-2025 artfynd.xlsx", "A 28351-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 28351-2025 karta.png", "A 28351-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 28351-2025 FSC-klagomål.docx", "A 28351-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 28351-2025 FSC-klagomål mail.docx", "A 28351-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 28351-2025 tillsynsbegäran.docx", "A 28351-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 28351-2025 tillsynsbegäran mail.docx", "A 28351-2025")</f>
         <v/>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
         <v>45203</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45327</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45079</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1978,14 +1978,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 47035-2022</t>
+          <t>A 34430-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44851</v>
+        <v>45845</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,26 +1997,21 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>15.9</v>
+        <v>39.6</v>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
         <v>3</v>
       </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
@@ -2027,15 +2022,109 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
+        <v>4</v>
+      </c>
+      <c r="P16" t="n">
         <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>5</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Blanksvart spiklav
+Dvärgbägarlav
+Vedskivlav
+Plattlummer</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 34430-2025 artfynd.xlsx", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 34430-2025 karta.png", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 34430-2025 FSC-klagomål.docx", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 34430-2025 FSC-klagomål mail.docx", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 34430-2025 tillsynsbegäran.docx", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 34430-2025 tillsynsbegäran mail.docx", "A 34430-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 47035-2022</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Månlåsbräken
 Grönkulla
@@ -2044,131 +2133,42 @@
 Brudsporre</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 47035-2022 artfynd.xlsx", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 47035-2022 karta.png", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 47035-2022 FSC-klagomål.docx", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 47035-2022 FSC-klagomål mail.docx", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 47035-2022 tillsynsbegäran.docx", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 47035-2022 tillsynsbegäran mail.docx", "A 47035-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 34430-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>4</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Blanksvart spiklav
-Dvärgbägarlav
-Vedskivlav
-Plattlummer</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 34430-2025 artfynd.xlsx", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 34430-2025 karta.png", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 34430-2025 FSC-klagomål.docx", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 34430-2025 FSC-klagomål mail.docx", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 34430-2025 tillsynsbegäran.docx", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 34430-2025 tillsynsbegäran mail.docx", "A 34430-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 49079-2025</t>
+          <t>A 64803-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45937</v>
+        <v>45281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2180,23 +2180,18 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>24.7</v>
+        <v>43</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>4</v>
       </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2210,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2219,6 +2214,99 @@
         <v>4</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Gullmurkling
+Lunglav
+Rosenticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 64803-2023 artfynd.xlsx", "A 64803-2023")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 64803-2023 karta.png", "A 64803-2023")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 64803-2023 FSC-klagomål.docx", "A 64803-2023")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 64803-2023 FSC-klagomål mail.docx", "A 64803-2023")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 64803-2023 tillsynsbegäran.docx", "A 64803-2023")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 64803-2023 tillsynsbegäran mail.docx", "A 64803-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 49079-2025</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45937</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Plattlummer
 Spindelblomster
@@ -2226,130 +2314,42 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 49079-2025 artfynd.xlsx", "A 49079-2025")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 49079-2025 karta.png", "A 49079-2025")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 49079-2025 FSC-klagomål.docx", "A 49079-2025")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 49079-2025 FSC-klagomål mail.docx", "A 49079-2025")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 49079-2025 tillsynsbegäran.docx", "A 49079-2025")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 49079-2025 tillsynsbegäran mail.docx", "A 49079-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 64803-2023</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45281</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>43</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>4</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Gullmurkling
-Lunglav
-Rosenticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 64803-2023 artfynd.xlsx", "A 64803-2023")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 64803-2023 karta.png", "A 64803-2023")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 64803-2023 FSC-klagomål.docx", "A 64803-2023")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 64803-2023 FSC-klagomål mail.docx", "A 64803-2023")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 64803-2023 tillsynsbegäran.docx", "A 64803-2023")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 64803-2023 tillsynsbegäran mail.docx", "A 64803-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 10525-2024</t>
+          <t>A 15171-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45366</v>
+        <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2362,17 +2362,17 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>15.5</v>
+        <v>48</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>3</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2395,396 +2395,396 @@
         <v>3</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Lunglav
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 15171-2022 artfynd.xlsx", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 15171-2022 karta.png", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 15171-2022 FSC-klagomål.docx", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 15171-2022 FSC-klagomål mail.docx", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 15171-2022 tillsynsbegäran.docx", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 15171-2022 tillsynsbegäran mail.docx", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 15171-2022 prioriterade fågelarter.docx", "A 15171-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 26143-2024</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45467</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Blanksvart spiklav
+Knottrig blåslav
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26143-2024 artfynd.xlsx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26143-2024 karta.png", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26143-2024 FSC-klagomål.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26143-2024 FSC-klagomål mail.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26143-2024 tillsynsbegäran.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26143-2024 tillsynsbegäran mail.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 45031-2023</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Garnlav
+Granticka</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45031-2023 artfynd.xlsx", "A 45031-2023")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45031-2023 karta.png", "A 45031-2023")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45031-2023 FSC-klagomål.docx", "A 45031-2023")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45031-2023 FSC-klagomål mail.docx", "A 45031-2023")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45031-2023 tillsynsbegäran.docx", "A 45031-2023")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45031-2023 tillsynsbegäran mail.docx", "A 45031-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 1479-2026</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Garnlav
+Granticka</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1479-2026 artfynd.xlsx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1479-2026 karta.png", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1479-2026 FSC-klagomål.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1479-2026 FSC-klagomål mail.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1479-2026 tillsynsbegäran.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1479-2026 tillsynsbegäran mail.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 10525-2024</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Korallrot
 Spindelblomster
 Ögonpyrola</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 10525-2024 artfynd.xlsx", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 10525-2024 karta.png", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 10525-2024 FSC-klagomål.docx", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 10525-2024 FSC-klagomål mail.docx", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 10525-2024 tillsynsbegäran.docx", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 10525-2024 tillsynsbegäran mail.docx", "A 10525-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 26143-2024</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Blanksvart spiklav
-Knottrig blåslav
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26143-2024 artfynd.xlsx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26143-2024 karta.png", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26143-2024 FSC-klagomål.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26143-2024 FSC-klagomål mail.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26143-2024 tillsynsbegäran.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26143-2024 tillsynsbegäran mail.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 15171-2022</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>44658</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>48</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>3</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Lunglav
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 15171-2022 artfynd.xlsx", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 15171-2022 karta.png", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 15171-2022 FSC-klagomål.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 15171-2022 FSC-klagomål mail.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 15171-2022 tillsynsbegäran.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 15171-2022 tillsynsbegäran mail.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 15171-2022 prioriterade fågelarter.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 1479-2026</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>10</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>3</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Garnlav
-Granticka</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1479-2026 artfynd.xlsx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1479-2026 karta.png", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1479-2026 FSC-klagomål.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1479-2026 FSC-klagomål mail.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1479-2026 tillsynsbegäran.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1479-2026 tillsynsbegäran mail.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 45031-2023</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>3</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Garnlav
-Granticka</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45031-2023 artfynd.xlsx", "A 45031-2023")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45031-2023 karta.png", "A 45031-2023")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45031-2023 FSC-klagomål.docx", "A 45031-2023")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45031-2023 FSC-klagomål mail.docx", "A 45031-2023")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45031-2023 tillsynsbegäran.docx", "A 45031-2023")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45031-2023 tillsynsbegäran mail.docx", "A 45031-2023")</f>
         <v/>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
         <v>44280</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,14 +2881,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 1478-2026</t>
+          <t>A 45030-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>46033</v>
+        <v>45190</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2940,508 +2940,508 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
+          <t>Harticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45030-2023 artfynd.xlsx", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45030-2023 karta.png", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45030-2023 FSC-klagomål.docx", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45030-2023 FSC-klagomål mail.docx", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45030-2023 tillsynsbegäran.docx", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45030-2023 tillsynsbegäran mail.docx", "A 45030-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 17549-2023</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 17549-2023 artfynd.xlsx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 17549-2023 karta.png", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 17549-2023 FSC-klagomål.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 17549-2023 FSC-klagomål mail.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 17549-2023 tillsynsbegäran.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 17549-2023 tillsynsbegäran mail.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 17549-2023 prioriterade fågelarter.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 45032-2023</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
           <t>Gammelgransskål
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
+      <c r="S28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45032-2023 artfynd.xlsx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45032-2023 karta.png", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="V28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45032-2023 FSC-klagomål.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="W28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45032-2023 FSC-klagomål mail.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="X28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45032-2023 tillsynsbegäran.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="Y28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45032-2023 tillsynsbegäran mail.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="Z28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 45032-2023 prioriterade fågelarter.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>A 1474-2026</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B29" s="1" t="n">
         <v>46033</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="C29" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G29" t="n">
         <v>3.8</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>2</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>2</v>
       </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>2</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Harticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="S29">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1474-2026 artfynd.xlsx", "A 1474-2026")</f>
         <v/>
       </c>
-      <c r="T27">
+      <c r="T29">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1474-2026 karta.png", "A 1474-2026")</f>
         <v/>
       </c>
-      <c r="V27">
+      <c r="V29">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1474-2026 FSC-klagomål.docx", "A 1474-2026")</f>
         <v/>
       </c>
-      <c r="W27">
+      <c r="W29">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1474-2026 FSC-klagomål mail.docx", "A 1474-2026")</f>
         <v/>
       </c>
-      <c r="X27">
+      <c r="X29">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1474-2026 tillsynsbegäran.docx", "A 1474-2026")</f>
         <v/>
       </c>
-      <c r="Y27">
+      <c r="Y29">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1474-2026 tillsynsbegäran mail.docx", "A 1474-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 45032-2023</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A 1478-2026</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G28" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H28" t="n">
+      <c r="G30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>2</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>2</v>
       </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>2</v>
       </c>
-      <c r="R28" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45032-2023 artfynd.xlsx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45032-2023 karta.png", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45032-2023 FSC-klagomål.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45032-2023 FSC-klagomål mail.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45032-2023 tillsynsbegäran.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45032-2023 tillsynsbegäran mail.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 45032-2023 prioriterade fågelarter.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 45030-2023</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="S30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="T30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="V30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="W30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="X30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="Y30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="Z30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>A 45779-2024</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>2</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>2</v>
       </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2</v>
       </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Harticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45030-2023 artfynd.xlsx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45030-2023 karta.png", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45030-2023 FSC-klagomål.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45030-2023 FSC-klagomål mail.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45030-2023 tillsynsbegäran.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45030-2023 tillsynsbegäran mail.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A 45779-2024</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>45579</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45779-2024 artfynd.xlsx", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="T30">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45779-2024 karta.png", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="V30">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45779-2024 FSC-klagomål.docx", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="W30">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45779-2024 FSC-klagomål mail.docx", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="X30">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45779-2024 tillsynsbegäran.docx", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45779-2024 tillsynsbegäran mail.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>A 17549-2023</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>45034</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 17549-2023 artfynd.xlsx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 17549-2023 karta.png", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 17549-2023 FSC-klagomål.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 17549-2023 FSC-klagomål mail.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 17549-2023 tillsynsbegäran.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 17549-2023 tillsynsbegäran mail.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="Z31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 17549-2023 prioriterade fågelarter.docx", "A 17549-2023")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 30592-2023</t>
+          <t>A 45324-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45112</v>
+        <v>44841</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3453,13 +3453,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>19</v>
+        <v>23.2</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -3468,13 +3463,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3486,56 +3481,52 @@
         <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bergand</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45324-2022 artfynd.xlsx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45324-2022 karta.png", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45324-2022 FSC-klagomål.docx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45324-2022 FSC-klagomål mail.docx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45324-2022 tillsynsbegäran.docx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
-        <v/>
-      </c>
-      <c r="Z32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45324-2022 tillsynsbegäran mail.docx", "A 45324-2022")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 26503-2025</t>
+          <t>A 25279-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45807</v>
+        <v>45079</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3547,14 +3538,19 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>20</v>
+        <v>6.9</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3563,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3572,55 +3568,55 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Bergand</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25279-2023 artfynd.xlsx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25279-2023 karta.png", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25279-2023 FSC-klagomål.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25279-2023 FSC-klagomål mail.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25279-2023 tillsynsbegäran.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25279-2023 tillsynsbegäran mail.docx", "A 25279-2023")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 45324-2022</t>
+          <t>A 41375-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44841</v>
+        <v>45559</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3632,14 +3628,19 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>23.2</v>
+        <v>5.9</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3648,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3657,41 +3658,41 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Bergand</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45324-2022 artfynd.xlsx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45324-2022 karta.png", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45324-2022 FSC-klagomål.docx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45324-2022 FSC-klagomål mail.docx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45324-2022 tillsynsbegäran.docx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45324-2022 tillsynsbegäran mail.docx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
     </row>
@@ -3705,7 +3706,7 @@
         <v>45730</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3787,14 +3788,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 18921-2025</t>
+          <t>A 26503-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45764</v>
+        <v>45807</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3806,28 +3807,23 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -3839,52 +3835,52 @@
         <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Bergand</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 18921-2025 artfynd.xlsx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 18921-2025 karta.png", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 18921-2025 FSC-klagomål.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 18921-2025 FSC-klagomål mail.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 18921-2025 tillsynsbegäran.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 18921-2025 tillsynsbegäran mail.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 41375-2024</t>
+          <t>A 30592-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45559</v>
+        <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3898,21 +3894,21 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.9</v>
+        <v>19</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>1</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
@@ -3926,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3936,45 +3932,49 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
+        <v/>
+      </c>
+      <c r="Z37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 25279-2023</t>
+          <t>A 18921-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45079</v>
+        <v>45764</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3988,35 +3988,35 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.9</v>
+        <v>12.5</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -4026,31 +4026,31 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25279-2023 artfynd.xlsx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 18921-2025 artfynd.xlsx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25279-2023 karta.png", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 18921-2025 karta.png", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25279-2023 FSC-klagomål.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 18921-2025 FSC-klagomål.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25279-2023 FSC-klagomål mail.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 18921-2025 FSC-klagomål mail.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25279-2023 tillsynsbegäran.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 18921-2025 tillsynsbegäran.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25279-2023 tillsynsbegäran mail.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 18921-2025 tillsynsbegäran mail.docx", "A 18921-2025")</f>
         <v/>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
         <v>44520</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44642</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>44246</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44840</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44694</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44543</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>44489</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44246</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>44425</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>44369</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4999,14 +4999,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 30595-2025</t>
+          <t>A 46585-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45831</v>
+        <v>44445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5018,8 +5018,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>15.6</v>
+        <v>11.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5056,14 +5061,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 46585-2021</t>
+          <t>A 46910-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44445</v>
+        <v>45583</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5075,13 +5080,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>11.1</v>
+        <v>3.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5118,14 +5118,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 36779-2025</t>
+          <t>A 55124-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45873</v>
+        <v>45618</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>17.2</v>
+        <v>18.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5175,14 +5175,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 56785-2024</t>
+          <t>A 55422-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45625</v>
+        <v>44475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,8 +5194,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>11.2</v>
+        <v>4.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5232,14 +5237,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 55124-2024</t>
+          <t>A 55266-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45618</v>
+        <v>45621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5252,7 +5257,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>18.3</v>
+        <v>11.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5289,14 +5294,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 37442-2025</t>
+          <t>A 45072-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45877.54096064815</v>
+        <v>45187</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5309,7 +5314,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5346,14 +5351,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 52581-2022</t>
+          <t>A 58370-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44874</v>
+        <v>45250</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5366,7 +5371,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5403,14 +5408,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 54589-2021</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44473</v>
+        <v>44833</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5423,7 +5428,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.8</v>
+        <v>24.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5460,14 +5465,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 48376-2023</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45205</v>
+        <v>44833</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,13 +5484,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>18.3</v>
+        <v>23.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5522,14 +5522,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 35627-2025</t>
+          <t>A 3006-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45859</v>
+        <v>45315</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5579,14 +5579,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 17536-2023</t>
+          <t>A 526-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45034</v>
+        <v>45664</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>20.3</v>
+        <v>0.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5641,14 +5641,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 58989-2024</t>
+          <t>A 35627-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45636</v>
+        <v>45859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5660,13 +5660,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5703,14 +5698,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 42325-2025</t>
+          <t>A 58989-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45903</v>
+        <v>45636</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5722,8 +5717,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>11.3</v>
+        <v>3.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5760,14 +5760,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 390-2026</t>
+          <t>A 42518-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>46028.22915509259</v>
+        <v>45905</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>19.5</v>
+        <v>13.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5817,14 +5817,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 42331-2025</t>
+          <t>A 25928-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45903</v>
+        <v>45467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5874,14 +5874,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 42518-2025</t>
+          <t>A 42325-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45905</v>
+        <v>45903</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>13.3</v>
+        <v>11.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5931,14 +5931,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 42597-2025</t>
+          <t>A 42331-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45905</v>
+        <v>45903</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5988,14 +5988,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 42526-2025</t>
+          <t>A 42597-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
         <v>45905</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6045,14 +6045,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 26103-2024</t>
+          <t>A 42526-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45467</v>
+        <v>45905</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>17.2</v>
+        <v>12.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6102,14 +6102,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 20905-2025</t>
+          <t>A 23949-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45777</v>
+        <v>45455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6121,8 +6121,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>10.6</v>
+        <v>3.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6159,14 +6164,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 64826-2023</t>
+          <t>A 29667-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45281</v>
+        <v>45825</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6180,11 +6185,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.6</v>
+        <v>20.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6221,14 +6226,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 44943-2025</t>
+          <t>A 25275-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45918</v>
+        <v>45079</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6242,11 +6247,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>22.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6283,14 +6288,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 59887-2025</t>
+          <t>A 48376-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45993.32416666667</v>
+        <v>45205</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6302,8 +6307,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>18.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6340,14 +6350,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 50255-2023</t>
+          <t>A 44943-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45216</v>
+        <v>45918</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6359,8 +6369,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6397,14 +6412,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 46747-2025</t>
+          <t>A 50255-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45926</v>
+        <v>45216</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6417,7 +6432,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6454,14 +6469,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 35194-2024</t>
+          <t>A 31104-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45530</v>
+        <v>45832.60090277778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6474,7 +6489,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>20.1</v>
+        <v>4.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6511,14 +6526,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 60767-2025</t>
+          <t>A 46747-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45999.3869212963</v>
+        <v>45926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6531,7 +6546,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>11.3</v>
+        <v>19.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6568,14 +6583,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 60766-2025</t>
+          <t>A 54589-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45999.38688657407</v>
+        <v>44473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6588,7 +6603,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6625,14 +6640,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 526-2025</t>
+          <t>A 25559-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45664</v>
+        <v>44732</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6650,7 +6665,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.4</v>
+        <v>39</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6687,14 +6702,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 3006-2024</t>
+          <t>A 48992-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45315</v>
+        <v>45937.58351851852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6706,8 +6721,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>9.1</v>
+        <v>2.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6744,14 +6764,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 64832-2023</t>
+          <t>A 48987-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45281</v>
+        <v>45937.5759837963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6763,8 +6783,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>43.6</v>
+        <v>6.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6801,14 +6826,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 36623-2023</t>
+          <t>A 20789-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45153</v>
+        <v>44701</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6820,13 +6845,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>16.9</v>
+        <v>20.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6863,14 +6883,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 73880-2021</t>
+          <t>A 25270-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44552</v>
+        <v>45079</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6882,8 +6902,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>11.2</v>
+        <v>29</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6920,14 +6945,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 48987-2025</t>
+          <t>A 30617-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45937.5759837963</v>
+        <v>45831</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6941,11 +6966,11 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.5</v>
+        <v>39.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6982,14 +7007,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 48992-2025</t>
+          <t>A 30595-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45937.58351851852</v>
+        <v>45831</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7001,13 +7026,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>2.2</v>
+        <v>15.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7044,14 +7064,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 12447-2025</t>
+          <t>A 30606-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45730</v>
+        <v>45831</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7063,8 +7083,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>7.9</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7101,14 +7126,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 23949-2024</t>
+          <t>A 29674-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45455</v>
+        <v>45825</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7122,11 +7147,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.9</v>
+        <v>25.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7163,14 +7188,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 25440-2024</t>
+          <t>A 29662-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45463</v>
+        <v>45825</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7188,7 +7213,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>30.7</v>
+        <v>23.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7225,14 +7250,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25270-2023</t>
+          <t>A 26479-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45079</v>
+        <v>45468</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7244,13 +7269,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>29</v>
+        <v>6.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7294,7 +7314,7 @@
         <v>45079</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7349,14 +7369,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 55422-2021</t>
+          <t>A 36779-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44475</v>
+        <v>45873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7368,13 +7388,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>4.1</v>
+        <v>17.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7411,14 +7426,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 48940-2023</t>
+          <t>A 53246-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45205</v>
+        <v>45958.64807870371</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7430,8 +7445,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>13.5</v>
+        <v>36.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7468,14 +7488,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 6642-2026</t>
+          <t>A 37442-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46056.53643518518</v>
+        <v>45877.54096064815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7488,7 +7508,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>13.5</v>
+        <v>4.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7525,14 +7545,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 53246-2025</t>
+          <t>A 53822-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45958.64807870371</v>
+        <v>45614</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7544,13 +7564,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>36.7</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7587,14 +7602,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 38851-2025</t>
+          <t>A 34670-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45887.55271990741</v>
+        <v>45847</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7607,7 +7622,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>15.2</v>
+        <v>2.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7644,14 +7659,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 34670-2025</t>
+          <t>A 55570-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45847</v>
+        <v>45971.65667824074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7663,8 +7678,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>2.3</v>
+        <v>10.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7701,14 +7721,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 55570-2025</t>
+          <t>A 34426-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45971.65667824074</v>
+        <v>45845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7720,13 +7740,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>10.6</v>
+        <v>4.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7763,14 +7778,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 34426-2025</t>
+          <t>A 64816-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45845</v>
+        <v>45281</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7783,7 +7798,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.3</v>
+        <v>13.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7820,14 +7835,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 53822-2024</t>
+          <t>A 14375-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45614</v>
+        <v>44279</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7839,8 +7854,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1.6</v>
+        <v>60</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7884,7 +7904,7 @@
         <v>44735</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7939,14 +7959,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 26470-2024</t>
+          <t>A 17536-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45468</v>
+        <v>45034</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7958,8 +7978,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>6</v>
+        <v>20.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7996,14 +8021,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 10825-2025</t>
+          <t>A 390-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45722</v>
+        <v>46028.22915509259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8016,7 +8041,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>14.1</v>
+        <v>19.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8053,14 +8078,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 61729-2024</t>
+          <t>A 73880-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45649</v>
+        <v>44552</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8072,13 +8097,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>0.4</v>
+        <v>11.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8115,14 +8135,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 29649-2024</t>
+          <t>A 20905-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45484</v>
+        <v>45777</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8134,13 +8154,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>24</v>
+        <v>10.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8177,14 +8192,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 14375-2021</t>
+          <t>A 26472-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44279</v>
+        <v>45469</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8196,13 +8211,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>60</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8239,14 +8249,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 56754-2024</t>
+          <t>A 26486-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45625</v>
+        <v>45469</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8259,7 +8269,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>11.5</v>
+        <v>7.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8296,14 +8306,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 56800-2024</t>
+          <t>A 44218-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45625</v>
+        <v>45183</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8315,8 +8325,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8353,14 +8368,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 45072-2023</t>
+          <t>A 59887-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45187</v>
+        <v>45993.32416666667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8373,7 +8388,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8410,14 +8425,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 56782-2024</t>
+          <t>A 48940-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45625</v>
+        <v>45205</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8430,7 +8445,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.3</v>
+        <v>13.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8467,14 +8482,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 56794-2024</t>
+          <t>A 56754-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
         <v>45625</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8487,7 +8502,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>7.5</v>
+        <v>11.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8524,14 +8539,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 25928-2024</t>
+          <t>A 60767-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45467</v>
+        <v>45999.3869212963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8544,7 +8559,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>12</v>
+        <v>11.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8581,14 +8596,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 45924-2023</t>
+          <t>A 30870-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45189</v>
+        <v>45113</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8600,8 +8615,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>11.2</v>
+        <v>25.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8638,14 +8658,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 12409-2025</t>
+          <t>A 60766-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45730.43366898148</v>
+        <v>45999.38688657407</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8658,7 +8678,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8695,14 +8715,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 26811-2022</t>
+          <t>A 61729-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44735</v>
+        <v>45649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8720,7 +8740,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8757,14 +8777,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 44218-2023</t>
+          <t>A 64822-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45183</v>
+        <v>45281</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8774,11 +8794,6 @@
       <c r="E119" t="inlineStr">
         <is>
           <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -8819,14 +8834,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 64837-2023</t>
+          <t>A 26811-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45281</v>
+        <v>44735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8838,8 +8853,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8876,14 +8896,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 64840-2023</t>
+          <t>A 29649-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45281</v>
+        <v>45484</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8895,8 +8915,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8933,14 +8958,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 64816-2023</t>
+          <t>A 45924-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45281</v>
+        <v>45189</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8953,7 +8978,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>13.4</v>
+        <v>11.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8990,14 +9015,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 26479-2024</t>
+          <t>A 10825-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45468</v>
+        <v>45722</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9010,7 +9035,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>6.9</v>
+        <v>14.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9047,14 +9072,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 64809-2023</t>
+          <t>A 12447-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45281</v>
+        <v>45730</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9067,7 +9092,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>17.8</v>
+        <v>7.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9104,14 +9129,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 46910-2024</t>
+          <t>A 62801-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45583</v>
+        <v>45268</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9124,7 +9149,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.6</v>
+        <v>7.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9161,14 +9186,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 30870-2023</t>
+          <t>A 64809-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45113</v>
+        <v>45281</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9180,13 +9205,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>25.5</v>
+        <v>17.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9223,14 +9243,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 64822-2023</t>
+          <t>A 64826-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
         <v>45281</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9242,8 +9262,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9280,14 +9305,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 58370-2023</t>
+          <t>A 26470-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45250</v>
+        <v>45468</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9300,7 +9325,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9337,14 +9362,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 26472-2024</t>
+          <t>A 6642-2026</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45469</v>
+        <v>46056.53643518518</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9357,7 +9382,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>8.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9394,14 +9419,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 26486-2024</t>
+          <t>A 52581-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45469</v>
+        <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9414,7 +9439,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>7.1</v>
+        <v>3.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9451,14 +9476,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 55266-2024</t>
+          <t>A 25440-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45621</v>
+        <v>45463</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9470,8 +9495,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>11.3</v>
+        <v>30.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9508,14 +9538,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 20789-2022</t>
+          <t>A 38851-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44701</v>
+        <v>45887.55271990741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9528,7 +9558,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>20.3</v>
+        <v>15.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9565,14 +9595,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 26773-2022</t>
+          <t>A 26103-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44732</v>
+        <v>45467</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9584,13 +9614,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>34</v>
+        <v>17.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9627,14 +9652,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 62801-2023</t>
+          <t>A 64832-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45268</v>
+        <v>45281</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9647,7 +9672,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>7.1</v>
+        <v>43.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9684,14 +9709,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 41061-2024</t>
+          <t>A 12409-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45558</v>
+        <v>45730.43366898148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9704,7 +9729,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>23.1</v>
+        <v>4.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9741,14 +9766,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 42274-2022</t>
+          <t>A 26773-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44830</v>
+        <v>44732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9762,11 +9787,11 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>6.5</v>
+        <v>34</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9803,14 +9828,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 56276-2021</t>
+          <t>A 35194-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44479</v>
+        <v>45530</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9823,7 +9848,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9860,14 +9885,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 36623-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44833</v>
+        <v>45153</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9879,8 +9904,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>24.6</v>
+        <v>16.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9917,14 +9947,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 64837-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44833</v>
+        <v>45281</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9937,7 +9967,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>23.2</v>
+        <v>5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9974,14 +10004,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 29667-2025</t>
+          <t>A 64840-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45825</v>
+        <v>45281</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9993,13 +10023,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>20.1</v>
+        <v>3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10036,14 +10061,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 31104-2025</t>
+          <t>A 41061-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45832.60090277778</v>
+        <v>45558</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10056,7 +10081,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.3</v>
+        <v>23.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10093,14 +10118,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 25275-2023</t>
+          <t>A 56785-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45079</v>
+        <v>45625</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10112,13 +10137,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>22.7</v>
+        <v>11.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10155,14 +10175,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 25559-2022</t>
+          <t>A 56800-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44732</v>
+        <v>45625</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10174,13 +10194,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>39</v>
+        <v>3.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10217,14 +10232,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 30606-2025</t>
+          <t>A 56794-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45831</v>
+        <v>45625</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10236,13 +10251,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>70.40000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10279,14 +10289,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 30617-2025</t>
+          <t>A 56782-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45831</v>
+        <v>45625</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10298,13 +10308,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>39.8</v>
+        <v>4.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10341,14 +10346,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 29662-2025</t>
+          <t>A 42274-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45825</v>
+        <v>44830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10362,11 +10367,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>23.7</v>
+        <v>6.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10403,14 +10408,14 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 29674-2025</t>
+          <t>A 56276-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45825</v>
+        <v>44479</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10422,13 +10427,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>25.1</v>
+        <v>19.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -575,7 +575,7 @@
         <v>45281</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44382</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>45467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         <v>45891.34503472222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45281</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45576</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45831</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>45818</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45671</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45203</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45327</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45079</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>45845</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44851</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45937</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>45467</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>45190</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>46033</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>45366</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44280</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>45190</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>45034</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>45190</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>46033</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>46033</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>45579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44841</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>45079</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>45559</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>45730</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>45807</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>45764</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>44520</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44642</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>44246</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44840</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44694</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44543</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>44489</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44246</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>44425</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>44369</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>44445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45583</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>45618</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>44475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>45621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>45187</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>45250</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>44833</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>44833</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>45315</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>45664</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45636</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>45905</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>45467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>45903</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>45903</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>45905</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>45905</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>45455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>45825</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>45079</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>45205</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45918</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45216</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>45832.60090277778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>45926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44732</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>45937.58351851852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>45937.5759837963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44701</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>45079</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>45831</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>45831</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45831</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>45825</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>45825</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>45468</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>45079</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>45873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>45958.64807870371</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>45877.54096064815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>45614</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>45847</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45971.65667824074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>45845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>45281</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44279</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>44735</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>45034</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>46028.22915509259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44552</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>45777</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>45469</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>45469</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>45183</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>45993.32416666667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45205</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45625</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45999.3869212963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45113</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45999.38688657407</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45281</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>45484</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45189</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>45722</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>45730</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>45268</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>45281</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>45281</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>45468</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>46056.53643518518</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>45463</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45887.55271990741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>45467</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>45281</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>45730.43366898148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>45530</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>45153</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>45281</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>45281</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>45558</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>45625</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>45625</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>45625</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45625</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>44830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>44479</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -575,7 +575,7 @@
         <v>45281</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44382</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>45467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         <v>45891.34503472222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45281</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45576</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45831</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>45818</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45671</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45203</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45327</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45079</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>45845</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44851</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45937</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>45467</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>45190</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>46033</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>45366</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44280</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>45190</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>45034</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>45190</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>46033</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>46033</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>45579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44841</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>45079</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>45559</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>45730</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>45807</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>45764</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>44520</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44642</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>44246</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44840</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44694</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44543</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>44489</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44246</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>44425</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>44369</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>44445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45583</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>45618</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>44475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>45621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>45187</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>45250</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>44833</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>44833</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>45315</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>45664</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45636</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>45905</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>45467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>45903</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>45903</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>45905</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>45905</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>45455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>45825</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>45079</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>45205</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45918</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45216</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>45832.60090277778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>45926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44732</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>45937.58351851852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>45937.5759837963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44701</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>45079</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>45831</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>45831</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45831</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>45825</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>45825</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>45468</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>45079</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>45873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>45958.64807870371</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>45877.54096064815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>45614</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>45847</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45971.65667824074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>45845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>45281</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44279</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>44735</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>45034</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>46028.22915509259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44552</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>45777</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>45469</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>45469</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>45183</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>45993.32416666667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45205</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45625</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45999.3869212963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45113</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45999.38688657407</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45281</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>45484</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45189</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>45722</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>45730</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>45268</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>45281</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>45281</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>45468</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>46056.53643518518</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>45463</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45887.55271990741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>45467</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>45281</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>45730.43366898148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>45530</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>45153</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>45281</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>45281</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>45558</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>45625</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>45625</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>45625</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45625</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>44830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>44479</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -575,7 +575,7 @@
         <v>45281</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44382</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,14 +787,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 26089-2024</t>
+          <t>A 39728-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45467</v>
+        <v>45891.34503472222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -806,13 +806,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>40.1</v>
+        <v>36.2</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -821,10 +816,10 @@
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -839,12 +834,124 @@
         <v>15</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>19</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Blanksvart spiklav
+Blågrå svartspik
+Brunpudrad nållav
+Dvärgbägarlav
+Garnlav
+Granticka
+Gränsticka
+Harticka
+Kolflarnlav
+Kortskaftad ärgspik
+Skrovellav
+Tretåig hackspett
+Vedskivlav
+Vitgrynig nållav
+Vitplätt
+Luddlav
+Skinnlav
+Stuplav
+Lavskrika</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 39728-2025 artfynd.xlsx", "A 39728-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 39728-2025 karta.png", "A 39728-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 39728-2025 FSC-klagomål.docx", "A 39728-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 39728-2025 FSC-klagomål mail.docx", "A 39728-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 39728-2025 tillsynsbegäran.docx", "A 39728-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 39728-2025 tillsynsbegäran mail.docx", "A 39728-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 39728-2025 prioriterade fågelarter.docx", "A 39728-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 26089-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45467</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>15</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>19</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Gräddporing
@@ -867,139 +974,32 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26089-2024 artfynd.xlsx", "A 26089-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26089-2024 karta.png", "A 26089-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26089-2024 FSC-klagomål.docx", "A 26089-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26089-2024 FSC-klagomål mail.docx", "A 26089-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26089-2024 tillsynsbegäran.docx", "A 26089-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26089-2024 tillsynsbegäran mail.docx", "A 26089-2024")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 26089-2024 prioriterade fågelarter.docx", "A 26089-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 39728-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45891.34503472222</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>15</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>15</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>19</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Blanksvart spiklav
-Blågrå svartspik
-Brunpudrad nållav
-Dvärgbägarlav
-Garnlav
-Granticka
-Gränsticka
-Harticka
-Kolflarnlav
-Kortskaftad ärgspik
-Skrovellav
-Tretåig hackspett
-Vedskivlav
-Vitgrynig nållav
-Vitplätt
-Luddlav
-Skinnlav
-Stuplav
-Lavskrika</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 39728-2025 artfynd.xlsx", "A 39728-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 39728-2025 karta.png", "A 39728-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 39728-2025 FSC-klagomål.docx", "A 39728-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 39728-2025 FSC-klagomål mail.docx", "A 39728-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 39728-2025 tillsynsbegäran.docx", "A 39728-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 39728-2025 tillsynsbegäran mail.docx", "A 39728-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 39728-2025 prioriterade fågelarter.docx", "A 39728-2025")</f>
         <v/>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
         <v>45281</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45576</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45831</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1415,14 +1415,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 28351-2025</t>
+          <t>A 2256-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45818</v>
+        <v>45671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,20 +1434,25 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>5.4</v>
+        <v>17.9</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1459,15 +1464,108 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>9</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Månlåsbräken
+Nordlåsbräken
+Grönkulla
+Korallrot
+Spindelblomster
+Buskmus
+Brudsporre
+Fläcknycklar
+Fjällummer</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 2256-2025 artfynd.xlsx", "A 2256-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 2256-2025 karta.png", "A 2256-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 2256-2025 FSC-klagomål.docx", "A 2256-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 2256-2025 FSC-klagomål mail.docx", "A 2256-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 2256-2025 tillsynsbegäran.docx", "A 2256-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 2256-2025 tillsynsbegäran mail.docx", "A 2256-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 28351-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45818</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Blanksvart spiklav
@@ -1480,126 +1578,28 @@
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 28351-2025 artfynd.xlsx", "A 28351-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 28351-2025 karta.png", "A 28351-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 28351-2025 FSC-klagomål.docx", "A 28351-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 28351-2025 FSC-klagomål mail.docx", "A 28351-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 28351-2025 tillsynsbegäran.docx", "A 28351-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 28351-2025 tillsynsbegäran mail.docx", "A 28351-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 2256-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45671</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Månlåsbräken
-Nordlåsbräken
-Grönkulla
-Korallrot
-Spindelblomster
-Buskmus
-Brudsporre
-Fläcknycklar
-Fjällummer</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 2256-2025 artfynd.xlsx", "A 2256-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 2256-2025 karta.png", "A 2256-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 2256-2025 FSC-klagomål.docx", "A 2256-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 2256-2025 FSC-klagomål mail.docx", "A 2256-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 2256-2025 tillsynsbegäran.docx", "A 2256-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 2256-2025 tillsynsbegäran mail.docx", "A 2256-2025")</f>
         <v/>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
         <v>45203</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45327</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45079</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1978,14 +1978,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 34430-2025</t>
+          <t>A 47035-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45845</v>
+        <v>44851</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,40 +1997,134 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>39.6</v>
+        <v>15.9</v>
       </c>
       <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>4</v>
-      </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>5</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Månlåsbräken
+Grönkulla
+Spindelblomster
+Tibast
+Brudsporre</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 47035-2022 artfynd.xlsx", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 47035-2022 karta.png", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 47035-2022 FSC-klagomål.docx", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 47035-2022 FSC-klagomål mail.docx", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 47035-2022 tillsynsbegäran.docx", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 47035-2022 tillsynsbegäran mail.docx", "A 47035-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 34430-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Blanksvart spiklav
@@ -2039,122 +2133,28 @@
 Plattlummer</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 34430-2025 artfynd.xlsx", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 34430-2025 karta.png", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 34430-2025 FSC-klagomål.docx", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 34430-2025 FSC-klagomål mail.docx", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 34430-2025 tillsynsbegäran.docx", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 34430-2025 tillsynsbegäran mail.docx", "A 34430-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 47035-2022</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44851</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Månlåsbräken
-Grönkulla
-Spindelblomster
-Tibast
-Brudsporre</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 47035-2022 artfynd.xlsx", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 47035-2022 karta.png", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 47035-2022 FSC-klagomål.docx", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 47035-2022 FSC-klagomål mail.docx", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 47035-2022 tillsynsbegäran.docx", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 47035-2022 tillsynsbegäran mail.docx", "A 47035-2022")</f>
         <v/>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
         <v>45281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45937</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2342,14 +2342,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 15171-2022</t>
+          <t>A 26143-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44658</v>
+        <v>45467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>48</v>
+        <v>8.1</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2395,125 +2395,125 @@
         <v>3</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Blanksvart spiklav
+Knottrig blåslav
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26143-2024 artfynd.xlsx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26143-2024 karta.png", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26143-2024 FSC-klagomål.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26143-2024 FSC-klagomål mail.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26143-2024 tillsynsbegäran.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26143-2024 tillsynsbegäran mail.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 15171-2022</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>44658</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>48</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Lunglav
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 15171-2022 artfynd.xlsx", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 15171-2022 karta.png", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 15171-2022 FSC-klagomål.docx", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 15171-2022 FSC-klagomål mail.docx", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 15171-2022 tillsynsbegäran.docx", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 15171-2022 tillsynsbegäran mail.docx", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="Z20">
+      <c r="Z21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 15171-2022 prioriterade fågelarter.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 26143-2024</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Blanksvart spiklav
-Knottrig blåslav
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26143-2024 artfynd.xlsx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26143-2024 karta.png", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26143-2024 FSC-klagomål.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26143-2024 FSC-klagomål mail.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26143-2024 tillsynsbegäran.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26143-2024 tillsynsbegäran mail.docx", "A 26143-2024")</f>
         <v/>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
         <v>45190</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2612,14 +2612,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 1479-2026</t>
+          <t>A 10525-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46033</v>
+        <v>45366</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2631,22 +2631,17 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2661,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2670,121 +2665,126 @@
         <v>3</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Korallrot
+Spindelblomster
+Ögonpyrola</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 10525-2024 artfynd.xlsx", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 10525-2024 karta.png", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 10525-2024 FSC-klagomål.docx", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 10525-2024 FSC-klagomål mail.docx", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 10525-2024 tillsynsbegäran.docx", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 10525-2024 tillsynsbegäran mail.docx", "A 10525-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 1479-2026</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
 Granticka</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1479-2026 artfynd.xlsx", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1479-2026 karta.png", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1479-2026 FSC-klagomål.docx", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1479-2026 FSC-klagomål mail.docx", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1479-2026 tillsynsbegäran.docx", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1479-2026 tillsynsbegäran mail.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 10525-2024</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45366</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Korallrot
-Spindelblomster
-Ögonpyrola</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 10525-2024 artfynd.xlsx", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 10525-2024 karta.png", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 10525-2024 FSC-klagomål.docx", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 10525-2024 FSC-klagomål mail.docx", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 10525-2024 tillsynsbegäran.docx", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 10525-2024 tillsynsbegäran mail.docx", "A 10525-2024")</f>
         <v/>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
         <v>44280</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,14 +2881,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 45030-2023</t>
+          <t>A 45032-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>45190</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.8</v>
+        <v>6.3</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2940,494 +2940,494 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
+          <t>Gammelgransskål
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45032-2023 artfynd.xlsx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45032-2023 karta.png", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45032-2023 FSC-klagomål.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45032-2023 FSC-klagomål mail.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45032-2023 tillsynsbegäran.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45032-2023 tillsynsbegäran mail.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="Z26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 45032-2023 prioriterade fågelarter.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 1478-2026</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 1474-2026</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
           <t>Harticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1474-2026 artfynd.xlsx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1474-2026 karta.png", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="V28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1474-2026 FSC-klagomål.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="W28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1474-2026 FSC-klagomål mail.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="X28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1474-2026 tillsynsbegäran.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="Y28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1474-2026 tillsynsbegäran mail.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 45030-2023</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>Harticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S29">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45030-2023 artfynd.xlsx", "A 45030-2023")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T29">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45030-2023 karta.png", "A 45030-2023")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V29">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45030-2023 FSC-klagomål.docx", "A 45030-2023")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W29">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45030-2023 FSC-klagomål mail.docx", "A 45030-2023")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X29">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45030-2023 tillsynsbegäran.docx", "A 45030-2023")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y29">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45030-2023 tillsynsbegäran mail.docx", "A 45030-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A 45779-2024</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45779-2024 artfynd.xlsx", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="T30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45779-2024 karta.png", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="V30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45779-2024 FSC-klagomål.docx", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="W30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45779-2024 FSC-klagomål mail.docx", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="X30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45779-2024 tillsynsbegäran.docx", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="Y30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45779-2024 tillsynsbegäran mail.docx", "A 45779-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>A 17549-2023</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B31" s="1" t="n">
         <v>45034</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
+      <c r="C31" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
         <v>18.8</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H31" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>2</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>2</v>
       </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 17549-2023 artfynd.xlsx", "A 17549-2023")</f>
         <v/>
       </c>
-      <c r="T27">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 17549-2023 karta.png", "A 17549-2023")</f>
         <v/>
       </c>
-      <c r="V27">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 17549-2023 FSC-klagomål.docx", "A 17549-2023")</f>
         <v/>
       </c>
-      <c r="W27">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 17549-2023 FSC-klagomål mail.docx", "A 17549-2023")</f>
         <v/>
       </c>
-      <c r="X27">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 17549-2023 tillsynsbegäran.docx", "A 17549-2023")</f>
         <v/>
       </c>
-      <c r="Y27">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 17549-2023 tillsynsbegäran mail.docx", "A 17549-2023")</f>
         <v/>
       </c>
-      <c r="Z27">
+      <c r="Z31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 17549-2023 prioriterade fågelarter.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 45032-2023</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>2</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45032-2023 artfynd.xlsx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45032-2023 karta.png", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45032-2023 FSC-klagomål.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45032-2023 FSC-klagomål mail.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45032-2023 tillsynsbegäran.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45032-2023 tillsynsbegäran mail.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 45032-2023 prioriterade fågelarter.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 1474-2026</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Harticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1474-2026 artfynd.xlsx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1474-2026 karta.png", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1474-2026 FSC-klagomål.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1474-2026 FSC-klagomål mail.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1474-2026 tillsynsbegäran.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1474-2026 tillsynsbegäran mail.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A 1478-2026</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>A 45779-2024</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>45579</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45779-2024 artfynd.xlsx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45779-2024 karta.png", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45779-2024 FSC-klagomål.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45779-2024 FSC-klagomål mail.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45779-2024 tillsynsbegäran.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45779-2024 tillsynsbegäran mail.docx", "A 45779-2024")</f>
         <v/>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
         <v>44841</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3519,14 +3519,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 25279-2023</t>
+          <t>A 30592-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45079</v>
+        <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3540,21 +3540,21 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6.9</v>
+        <v>19</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
       </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>1</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3578,45 +3578,49 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25279-2023 artfynd.xlsx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25279-2023 karta.png", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25279-2023 FSC-klagomål.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25279-2023 FSC-klagomål mail.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25279-2023 tillsynsbegäran.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25279-2023 tillsynsbegäran mail.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
+        <v/>
+      </c>
+      <c r="Z33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41375-2024</t>
+          <t>A 12403-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45559</v>
+        <v>45730</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3628,23 +3632,18 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>5.9</v>
+        <v>10.1</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>1</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
@@ -3658,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3668,45 +3667,49 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
+        <v/>
+      </c>
+      <c r="Z34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 12403-2025</t>
+          <t>A 26503-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45730</v>
+        <v>45807</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3719,7 +3722,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>10.1</v>
+        <v>20</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3728,13 +3731,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3746,56 +3749,52 @@
         <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bergand</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
-        <v/>
-      </c>
-      <c r="Z35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 26503-2025</t>
+          <t>A 18921-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45807</v>
+        <v>45764</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3807,23 +3806,28 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -3835,52 +3839,52 @@
         <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Bergand</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 18921-2025 artfynd.xlsx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 18921-2025 karta.png", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 18921-2025 FSC-klagomål.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 18921-2025 FSC-klagomål mail.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 18921-2025 tillsynsbegäran.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 18921-2025 tillsynsbegäran mail.docx", "A 18921-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 30592-2023</t>
+          <t>A 41375-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45112</v>
+        <v>45559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3894,20 +3898,20 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>19</v>
+        <v>5.9</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3922,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3932,49 +3936,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
-        <v/>
-      </c>
-      <c r="Z37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 18921-2025</t>
+          <t>A 25279-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45764</v>
+        <v>45079</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3988,20 +3988,20 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>12.5</v>
+        <v>6.9</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -4026,31 +4026,31 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 18921-2025 artfynd.xlsx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25279-2023 artfynd.xlsx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 18921-2025 karta.png", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25279-2023 karta.png", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 18921-2025 FSC-klagomål.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25279-2023 FSC-klagomål.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 18921-2025 FSC-klagomål mail.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25279-2023 FSC-klagomål mail.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 18921-2025 tillsynsbegäran.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25279-2023 tillsynsbegäran.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 18921-2025 tillsynsbegäran mail.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25279-2023 tillsynsbegäran mail.docx", "A 25279-2023")</f>
         <v/>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
         <v>44520</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44642</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>44246</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44840</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44694</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44543</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>44489</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44246</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>44425</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>44369</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>44445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5061,14 +5061,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 46910-2024</t>
+          <t>A 56785-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45583</v>
+        <v>45625</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.6</v>
+        <v>11.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5125,7 +5125,7 @@
         <v>45618</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5175,14 +5175,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 55422-2021</t>
+          <t>A 48376-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44475</v>
+        <v>45205</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5196,11 +5196,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.1</v>
+        <v>18.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5237,14 +5237,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 55266-2024</t>
+          <t>A 26103-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45621</v>
+        <v>45467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>11.3</v>
+        <v>17.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5294,14 +5294,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 45072-2023</t>
+          <t>A 64826-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45187</v>
+        <v>45281</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5313,8 +5313,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>5.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5351,14 +5356,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 58370-2023</t>
+          <t>A 526-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45250</v>
+        <v>45664</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5370,8 +5375,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5408,14 +5418,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 36623-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44833</v>
+        <v>45153</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5427,8 +5437,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>24.6</v>
+        <v>16.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5465,14 +5480,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 64832-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44833</v>
+        <v>45281</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5485,7 +5500,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>23.2</v>
+        <v>43.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5522,14 +5537,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 3006-2024</t>
+          <t>A 35194-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45315</v>
+        <v>45530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5542,7 +5557,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>9.1</v>
+        <v>20.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5579,14 +5594,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 526-2025</t>
+          <t>A 73880-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45664</v>
+        <v>44552</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5598,13 +5613,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>0.4</v>
+        <v>11.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5641,14 +5651,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 35627-2025</t>
+          <t>A 23949-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45859</v>
+        <v>45455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5660,8 +5670,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5698,14 +5713,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 58989-2024</t>
+          <t>A 29667-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45636</v>
+        <v>45825</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5719,11 +5734,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.5</v>
+        <v>20.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5760,14 +5775,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 42518-2025</t>
+          <t>A 31104-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45905</v>
+        <v>45832.60090277778</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5780,7 +5795,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>13.3</v>
+        <v>4.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5817,14 +5832,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 25928-2024</t>
+          <t>A 25275-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45467</v>
+        <v>45079</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5836,8 +5851,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>12</v>
+        <v>22.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5874,14 +5894,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 42325-2025</t>
+          <t>A 55422-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45903</v>
+        <v>44475</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5893,8 +5913,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>11.3</v>
+        <v>4.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5931,14 +5956,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 42331-2025</t>
+          <t>A 48940-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45903</v>
+        <v>45205</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5951,7 +5976,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5988,14 +6013,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 42597-2025</t>
+          <t>A 25559-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45905</v>
+        <v>44732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6007,8 +6032,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>9.199999999999999</v>
+        <v>39</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6045,14 +6075,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 42526-2025</t>
+          <t>A 35627-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45905</v>
+        <v>45859</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6065,7 +6095,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6102,14 +6132,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 23949-2024</t>
+          <t>A 58989-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45455</v>
+        <v>45636</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6123,11 +6153,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6164,14 +6194,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 29667-2025</t>
+          <t>A 42325-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45825</v>
+        <v>45903</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6183,13 +6213,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>20.1</v>
+        <v>11.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6226,14 +6251,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 25275-2023</t>
+          <t>A 42331-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45079</v>
+        <v>45903</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6245,13 +6270,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>22.7</v>
+        <v>10</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6288,14 +6308,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 48376-2023</t>
+          <t>A 42518-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45205</v>
+        <v>45905</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6307,13 +6327,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>18.3</v>
+        <v>13.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6350,14 +6365,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 44943-2025</t>
+          <t>A 42597-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45918</v>
+        <v>45905</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6369,13 +6384,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6412,14 +6422,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 50255-2023</t>
+          <t>A 30606-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45216</v>
+        <v>45831</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6431,8 +6441,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>20</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6469,14 +6484,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 31104-2025</t>
+          <t>A 30617-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45832.60090277778</v>
+        <v>45831</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6488,8 +6503,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>4.3</v>
+        <v>39.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6526,14 +6546,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 46747-2025</t>
+          <t>A 29662-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45926</v>
+        <v>45825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6545,8 +6565,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>19.7</v>
+        <v>23.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6583,14 +6608,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 54589-2021</t>
+          <t>A 29674-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44473</v>
+        <v>45825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6602,8 +6627,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>4.8</v>
+        <v>25.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6640,14 +6670,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 25559-2022</t>
+          <t>A 42526-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44732</v>
+        <v>45905</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6659,13 +6689,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>39</v>
+        <v>12.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6702,14 +6727,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 48992-2025</t>
+          <t>A 53822-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45937.58351851852</v>
+        <v>45614</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6721,13 +6746,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6764,14 +6784,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 48987-2025</t>
+          <t>A 30595-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45937.5759837963</v>
+        <v>45831</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6783,13 +6803,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>6.5</v>
+        <v>15.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6826,14 +6841,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 20789-2022</t>
+          <t>A 28354-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44701</v>
+        <v>44735</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6845,8 +6860,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>20.3</v>
+        <v>0.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6883,14 +6903,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 25270-2023</t>
+          <t>A 10825-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45079</v>
+        <v>45722</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6902,13 +6922,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>29</v>
+        <v>14.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6945,14 +6960,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 30617-2025</t>
+          <t>A 36779-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45831</v>
+        <v>45873</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6964,13 +6979,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>39.8</v>
+        <v>17.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7007,14 +7017,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 30595-2025</t>
+          <t>A 37442-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45831</v>
+        <v>45877.54096064815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7027,7 +7037,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>15.6</v>
+        <v>4.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7064,14 +7074,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 30606-2025</t>
+          <t>A 61729-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45831</v>
+        <v>45649</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7085,11 +7095,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>70.40000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7126,14 +7136,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 29674-2025</t>
+          <t>A 44943-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45825</v>
+        <v>45918</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7147,11 +7157,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>25.1</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7188,14 +7198,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 29662-2025</t>
+          <t>A 29649-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45825</v>
+        <v>45484</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7213,7 +7223,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7250,14 +7260,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 26479-2024</t>
+          <t>A 50255-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45468</v>
+        <v>45216</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7270,7 +7280,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6.9</v>
+        <v>20</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7307,14 +7317,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 25239-2023</t>
+          <t>A 46747-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45079</v>
+        <v>45926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7326,13 +7336,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>7</v>
+        <v>19.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7369,14 +7374,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 36779-2025</t>
+          <t>A 45072-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45873</v>
+        <v>45187</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7389,7 +7394,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>17.2</v>
+        <v>2.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7426,14 +7431,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 53246-2025</t>
+          <t>A 48987-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45958.64807870371</v>
+        <v>45937.5759837963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7447,11 +7452,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>36.7</v>
+        <v>6.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7488,14 +7493,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 37442-2025</t>
+          <t>A 48992-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45877.54096064815</v>
+        <v>45937.58351851852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7507,8 +7512,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7545,14 +7555,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 53822-2024</t>
+          <t>A 52581-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45614</v>
+        <v>44874</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7565,7 +7575,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7602,14 +7612,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 34670-2025</t>
+          <t>A 54589-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45847</v>
+        <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7622,7 +7632,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7659,14 +7669,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 55570-2025</t>
+          <t>A 25270-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45971.65667824074</v>
+        <v>45079</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7684,7 +7694,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>10.6</v>
+        <v>29</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7721,14 +7731,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 34426-2025</t>
+          <t>A 25239-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45845</v>
+        <v>45079</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7740,8 +7750,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>4.3</v>
+        <v>7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7778,14 +7793,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 64816-2023</t>
+          <t>A 53246-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45281</v>
+        <v>45958.64807870371</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7797,8 +7812,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>13.4</v>
+        <v>36.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7835,14 +7855,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 14375-2021</t>
+          <t>A 3006-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44279</v>
+        <v>45315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7854,13 +7874,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>60</v>
+        <v>9.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7897,14 +7912,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 28354-2022</t>
+          <t>A 34670-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44735</v>
+        <v>45847</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7916,13 +7931,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7959,14 +7969,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 17536-2023</t>
+          <t>A 25440-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45034</v>
+        <v>45463</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7980,11 +7990,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>20.3</v>
+        <v>30.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8021,14 +8031,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 390-2026</t>
+          <t>A 55570-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46028.22915509259</v>
+        <v>45971.65667824074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8040,8 +8050,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>19.5</v>
+        <v>10.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8078,14 +8093,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 73880-2021</t>
+          <t>A 34426-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44552</v>
+        <v>45845</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8098,7 +8113,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>11.2</v>
+        <v>4.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8135,14 +8150,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 20905-2025</t>
+          <t>A 26470-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45777</v>
+        <v>45468</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8155,7 +8170,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>10.6</v>
+        <v>6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8192,14 +8207,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 26472-2024</t>
+          <t>A 17536-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45469</v>
+        <v>45034</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8211,8 +8226,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>8.199999999999999</v>
+        <v>20.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8249,14 +8269,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 26486-2024</t>
+          <t>A 390-2026</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45469</v>
+        <v>46028.22915509259</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8269,7 +8289,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>7.1</v>
+        <v>19.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8306,14 +8326,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 44218-2023</t>
+          <t>A 14375-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45183</v>
+        <v>44279</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8327,11 +8347,11 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8368,14 +8388,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 59887-2025</t>
+          <t>A 56754-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45993.32416666667</v>
+        <v>45625</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8388,7 +8408,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.2</v>
+        <v>11.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8425,14 +8445,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 48940-2023</t>
+          <t>A 56800-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45205</v>
+        <v>45625</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8445,7 +8465,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>13.5</v>
+        <v>3.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8482,14 +8502,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 56754-2024</t>
+          <t>A 20905-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45625</v>
+        <v>45777</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8502,7 +8522,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>11.5</v>
+        <v>10.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8539,14 +8559,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 60767-2025</t>
+          <t>A 59887-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45999.3869212963</v>
+        <v>45993.32416666667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8559,7 +8579,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>11.3</v>
+        <v>1.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8596,14 +8616,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 30870-2023</t>
+          <t>A 56782-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45113</v>
+        <v>45625</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8615,13 +8635,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>25.5</v>
+        <v>4.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8658,14 +8673,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 60766-2025</t>
+          <t>A 56794-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45999.38688657407</v>
+        <v>45625</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8678,7 +8693,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8715,14 +8730,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 61729-2024</t>
+          <t>A 25928-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45649</v>
+        <v>45467</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8734,13 +8749,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>0.4</v>
+        <v>12</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8777,14 +8787,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 64822-2023</t>
+          <t>A 60767-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45281</v>
+        <v>45999.3869212963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8797,7 +8807,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>5</v>
+        <v>11.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8834,14 +8844,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 26811-2022</t>
+          <t>A 60766-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44735</v>
+        <v>45999.38688657407</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8853,13 +8863,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8896,14 +8901,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 29649-2024</t>
+          <t>A 45924-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45484</v>
+        <v>45189</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8915,13 +8920,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>24</v>
+        <v>11.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8958,14 +8958,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 45924-2023</t>
+          <t>A 12409-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45189</v>
+        <v>45730.43366898148</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>11.2</v>
+        <v>4.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9015,14 +9015,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 10825-2025</t>
+          <t>A 26811-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45722</v>
+        <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9034,8 +9034,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>14.1</v>
+        <v>0.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9079,7 +9084,7 @@
         <v>45730</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9129,14 +9134,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 62801-2023</t>
+          <t>A 44218-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45268</v>
+        <v>45183</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9148,8 +9153,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9186,14 +9196,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 64809-2023</t>
+          <t>A 6642-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45281</v>
+        <v>46056.53643518518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9206,7 +9216,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>17.8</v>
+        <v>13.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9243,14 +9253,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 64826-2023</t>
+          <t>A 64837-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
         <v>45281</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9262,13 +9272,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9305,14 +9310,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 26470-2024</t>
+          <t>A 64840-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45468</v>
+        <v>45281</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9325,7 +9330,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9362,14 +9367,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 6642-2026</t>
+          <t>A 38851-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46056.53643518518</v>
+        <v>45887.55271990741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9382,7 +9387,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>13.5</v>
+        <v>15.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9419,14 +9424,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 52581-2022</t>
+          <t>A 64816-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44874</v>
+        <v>45281</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9439,7 +9444,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.4</v>
+        <v>13.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9476,14 +9481,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 25440-2024</t>
+          <t>A 26479-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45463</v>
+        <v>45468</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9495,13 +9500,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>30.7</v>
+        <v>6.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9538,14 +9538,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 38851-2025</t>
+          <t>A 64809-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45887.55271990741</v>
+        <v>45281</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>15.2</v>
+        <v>17.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9595,14 +9595,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 26103-2024</t>
+          <t>A 46910-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45467</v>
+        <v>45583</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>17.2</v>
+        <v>3.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9652,14 +9652,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 64832-2023</t>
+          <t>A 30870-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45281</v>
+        <v>45113</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9671,8 +9671,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>43.6</v>
+        <v>25.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9709,14 +9714,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 12409-2025</t>
+          <t>A 64822-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45730.43366898148</v>
+        <v>45281</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9729,7 +9734,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9766,14 +9771,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 26773-2022</t>
+          <t>A 58370-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44732</v>
+        <v>45250</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9785,13 +9790,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>34</v>
+        <v>1.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9828,14 +9828,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 35194-2024</t>
+          <t>A 26472-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45530</v>
+        <v>45469</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>20.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9885,14 +9885,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 36623-2023</t>
+          <t>A 26486-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45153</v>
+        <v>45469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9904,13 +9904,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>16.9</v>
+        <v>7.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9947,14 +9942,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 64837-2023</t>
+          <t>A 55266-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45281</v>
+        <v>45621</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9967,7 +9962,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>5</v>
+        <v>11.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -10004,14 +9999,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 64840-2023</t>
+          <t>A 20789-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45281</v>
+        <v>44701</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10024,7 +10019,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3</v>
+        <v>20.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10061,14 +10056,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 41061-2024</t>
+          <t>A 26773-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45558</v>
+        <v>44732</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10080,8 +10075,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>23.1</v>
+        <v>34</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10118,14 +10118,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 56785-2024</t>
+          <t>A 62801-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45625</v>
+        <v>45268</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>11.2</v>
+        <v>7.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10175,14 +10175,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 56800-2024</t>
+          <t>A 41061-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45625</v>
+        <v>45558</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.1</v>
+        <v>23.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10232,14 +10232,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 56794-2024</t>
+          <t>A 42274-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45625</v>
+        <v>44830</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10251,8 +10251,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10289,14 +10294,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 56782-2024</t>
+          <t>A 56276-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45625</v>
+        <v>44479</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10309,7 +10314,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.3</v>
+        <v>19.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10346,14 +10351,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 42274-2022</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44830</v>
+        <v>44833</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10365,13 +10370,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>6.5</v>
+        <v>24.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10408,14 +10408,14 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 56276-2021</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44479</v>
+        <v>44833</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>19.8</v>
+        <v>23.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -575,7 +575,7 @@
         <v>45281</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44382</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,14 +787,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 39728-2025</t>
+          <t>A 26089-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45891.34503472222</v>
+        <v>45467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -806,8 +806,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>36.2</v>
+        <v>40.1</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -816,10 +821,10 @@
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -834,12 +839,119 @@
         <v>15</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
         <v>19</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Gräddporing
+Smalfotad taggsvamp
+Torrmusseron
+Blanksvart spiklav
+Blågrå svartspik
+Dvärgbägarlav
+Kolflarnlav
+Mörk kolflarnlav
+Nordtagging
+Talltita
+Vaddporing
+Vedflamlav
+Vedskivlav
+Vitplätt
+Bårdlav
+Luddlav
+Stuplav
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26089-2024 artfynd.xlsx", "A 26089-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26089-2024 karta.png", "A 26089-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26089-2024 FSC-klagomål.docx", "A 26089-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26089-2024 FSC-klagomål mail.docx", "A 26089-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26089-2024 tillsynsbegäran.docx", "A 26089-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26089-2024 tillsynsbegäran mail.docx", "A 26089-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 26089-2024 prioriterade fågelarter.docx", "A 26089-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 39728-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45891.34503472222</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>15</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>19</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Blanksvart spiklav
 Blågrå svartspik
@@ -862,144 +974,32 @@
 Lavskrika</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 39728-2025 artfynd.xlsx", "A 39728-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 39728-2025 karta.png", "A 39728-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 39728-2025 FSC-klagomål.docx", "A 39728-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 39728-2025 FSC-klagomål mail.docx", "A 39728-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 39728-2025 tillsynsbegäran.docx", "A 39728-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 39728-2025 tillsynsbegäran mail.docx", "A 39728-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 39728-2025 prioriterade fågelarter.docx", "A 39728-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 26089-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>15</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>19</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Gräddporing
-Smalfotad taggsvamp
-Torrmusseron
-Blanksvart spiklav
-Blågrå svartspik
-Dvärgbägarlav
-Kolflarnlav
-Mörk kolflarnlav
-Nordtagging
-Talltita
-Vaddporing
-Vedflamlav
-Vedskivlav
-Vitplätt
-Bårdlav
-Luddlav
-Stuplav
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26089-2024 artfynd.xlsx", "A 26089-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26089-2024 karta.png", "A 26089-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26089-2024 FSC-klagomål.docx", "A 26089-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26089-2024 FSC-klagomål mail.docx", "A 26089-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26089-2024 tillsynsbegäran.docx", "A 26089-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26089-2024 tillsynsbegäran mail.docx", "A 26089-2024")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 26089-2024 prioriterade fågelarter.docx", "A 26089-2024")</f>
         <v/>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
         <v>45281</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45576</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45831</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1415,14 +1415,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 2256-2025</t>
+          <t>A 28351-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45671</v>
+        <v>45818</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,25 +1434,20 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>17.9</v>
+        <v>5.4</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
         <v>7</v>
       </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1464,15 +1459,113 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>9</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Blanksvart spiklav
+Dvärgbägarlav
+Garnlav
+Granticka
+Ullticka
+Vedflamlav
+Vedskivlav
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 28351-2025 artfynd.xlsx", "A 28351-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 28351-2025 karta.png", "A 28351-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 28351-2025 FSC-klagomål.docx", "A 28351-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 28351-2025 FSC-klagomål mail.docx", "A 28351-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 28351-2025 tillsynsbegäran.docx", "A 28351-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 28351-2025 tillsynsbegäran mail.docx", "A 28351-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 2256-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45671</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Månlåsbräken
 Nordlåsbräken
@@ -1485,121 +1578,28 @@
 Fjällummer</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 2256-2025 artfynd.xlsx", "A 2256-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 2256-2025 karta.png", "A 2256-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 2256-2025 FSC-klagomål.docx", "A 2256-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 2256-2025 FSC-klagomål mail.docx", "A 2256-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 2256-2025 tillsynsbegäran.docx", "A 2256-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 2256-2025 tillsynsbegäran mail.docx", "A 2256-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 28351-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45818</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>8</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Blanksvart spiklav
-Dvärgbägarlav
-Garnlav
-Granticka
-Ullticka
-Vedflamlav
-Vedskivlav
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 28351-2025 artfynd.xlsx", "A 28351-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 28351-2025 karta.png", "A 28351-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 28351-2025 FSC-klagomål.docx", "A 28351-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 28351-2025 FSC-klagomål mail.docx", "A 28351-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 28351-2025 tillsynsbegäran.docx", "A 28351-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 28351-2025 tillsynsbegäran mail.docx", "A 28351-2025")</f>
         <v/>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
         <v>45203</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45327</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45079</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1978,14 +1978,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 47035-2022</t>
+          <t>A 34430-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44851</v>
+        <v>45845</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,26 +1997,21 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>15.9</v>
+        <v>39.6</v>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
         <v>3</v>
       </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
@@ -2027,15 +2022,109 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
+        <v>4</v>
+      </c>
+      <c r="P16" t="n">
         <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>5</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Blanksvart spiklav
+Dvärgbägarlav
+Vedskivlav
+Plattlummer</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 34430-2025 artfynd.xlsx", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 34430-2025 karta.png", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 34430-2025 FSC-klagomål.docx", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 34430-2025 FSC-klagomål mail.docx", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 34430-2025 tillsynsbegäran.docx", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 34430-2025 tillsynsbegäran mail.docx", "A 34430-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 47035-2022</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Månlåsbräken
 Grönkulla
@@ -2044,117 +2133,28 @@
 Brudsporre</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 47035-2022 artfynd.xlsx", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 47035-2022 karta.png", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 47035-2022 FSC-klagomål.docx", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 47035-2022 FSC-klagomål mail.docx", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 47035-2022 tillsynsbegäran.docx", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 47035-2022 tillsynsbegäran mail.docx", "A 47035-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 34430-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>4</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Blanksvart spiklav
-Dvärgbägarlav
-Vedskivlav
-Plattlummer</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 34430-2025 artfynd.xlsx", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 34430-2025 karta.png", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 34430-2025 FSC-klagomål.docx", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 34430-2025 FSC-klagomål mail.docx", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 34430-2025 tillsynsbegäran.docx", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 34430-2025 tillsynsbegäran mail.docx", "A 34430-2025")</f>
         <v/>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
         <v>45281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45937</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2342,14 +2342,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 26143-2024</t>
+          <t>A 15171-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45467</v>
+        <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>8.1</v>
+        <v>48</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2395,125 +2395,125 @@
         <v>3</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Lunglav
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 15171-2022 artfynd.xlsx", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 15171-2022 karta.png", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 15171-2022 FSC-klagomål.docx", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 15171-2022 FSC-klagomål mail.docx", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 15171-2022 tillsynsbegäran.docx", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 15171-2022 tillsynsbegäran mail.docx", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 15171-2022 prioriterade fågelarter.docx", "A 15171-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 26143-2024</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45467</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Blanksvart spiklav
 Knottrig blåslav
 Vedticka</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26143-2024 artfynd.xlsx", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26143-2024 karta.png", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26143-2024 FSC-klagomål.docx", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26143-2024 FSC-klagomål mail.docx", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26143-2024 tillsynsbegäran.docx", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26143-2024 tillsynsbegäran mail.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 15171-2022</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>44658</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>48</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>3</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Lunglav
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 15171-2022 artfynd.xlsx", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 15171-2022 karta.png", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 15171-2022 FSC-klagomål.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 15171-2022 FSC-klagomål mail.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 15171-2022 tillsynsbegäran.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 15171-2022 tillsynsbegäran mail.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 15171-2022 prioriterade fågelarter.docx", "A 15171-2022")</f>
         <v/>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
         <v>45190</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2612,14 +2612,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 10525-2024</t>
+          <t>A 1479-2026</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45366</v>
+        <v>46033</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2631,18 +2631,23 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>3</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
@@ -2656,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2665,126 +2670,121 @@
         <v>3</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Garnlav
+Granticka</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1479-2026 artfynd.xlsx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1479-2026 karta.png", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1479-2026 FSC-klagomål.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1479-2026 FSC-klagomål mail.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1479-2026 tillsynsbegäran.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1479-2026 tillsynsbegäran mail.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 10525-2024</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Korallrot
 Spindelblomster
 Ögonpyrola</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 10525-2024 artfynd.xlsx", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 10525-2024 karta.png", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 10525-2024 FSC-klagomål.docx", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 10525-2024 FSC-klagomål mail.docx", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 10525-2024 tillsynsbegäran.docx", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 10525-2024 tillsynsbegäran mail.docx", "A 10525-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 1479-2026</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>10</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>3</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Garnlav
-Granticka</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1479-2026 artfynd.xlsx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1479-2026 karta.png", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1479-2026 FSC-klagomål.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1479-2026 FSC-klagomål mail.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1479-2026 tillsynsbegäran.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1479-2026 tillsynsbegäran mail.docx", "A 1479-2026")</f>
         <v/>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
         <v>44280</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,14 +2881,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 45032-2023</t>
+          <t>A 45030-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>45190</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2940,508 +2940,508 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
+          <t>Harticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45030-2023 artfynd.xlsx", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45030-2023 karta.png", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45030-2023 FSC-klagomål.docx", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45030-2023 FSC-klagomål mail.docx", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45030-2023 tillsynsbegäran.docx", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45030-2023 tillsynsbegäran mail.docx", "A 45030-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 17549-2023</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 17549-2023 artfynd.xlsx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 17549-2023 karta.png", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 17549-2023 FSC-klagomål.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 17549-2023 FSC-klagomål mail.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 17549-2023 tillsynsbegäran.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 17549-2023 tillsynsbegäran mail.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 17549-2023 prioriterade fågelarter.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 45032-2023</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
           <t>Gammelgransskål
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45032-2023 artfynd.xlsx", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45032-2023 karta.png", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45032-2023 FSC-klagomål.docx", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45032-2023 FSC-klagomål mail.docx", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45032-2023 tillsynsbegäran.docx", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45032-2023 tillsynsbegäran mail.docx", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="Z26">
+      <c r="Z28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 45032-2023 prioriterade fågelarter.docx", "A 45032-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 1474-2026</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>Harticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1474-2026 artfynd.xlsx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1474-2026 karta.png", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1474-2026 FSC-klagomål.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1474-2026 FSC-klagomål mail.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1474-2026 tillsynsbegäran.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1474-2026 tillsynsbegäran mail.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>A 1478-2026</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B30" s="1" t="n">
         <v>46033</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="C30" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G30" t="n">
         <v>6.2</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>2</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>2</v>
       </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>2</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
         <v/>
       </c>
-      <c r="T27">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
         <v/>
       </c>
-      <c r="V27">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
         <v/>
       </c>
-      <c r="W27">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
         <v/>
       </c>
-      <c r="X27">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
         <v/>
       </c>
-      <c r="Y27">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
         <v/>
       </c>
-      <c r="Z27">
+      <c r="Z30">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 1474-2026</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>A 45779-2024</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>2</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>2</v>
       </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2</v>
       </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>Harticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1474-2026 artfynd.xlsx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1474-2026 karta.png", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1474-2026 FSC-klagomål.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1474-2026 FSC-klagomål mail.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1474-2026 tillsynsbegäran.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1474-2026 tillsynsbegäran mail.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 45030-2023</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Harticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45030-2023 artfynd.xlsx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45030-2023 karta.png", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45030-2023 FSC-klagomål.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45030-2023 FSC-klagomål mail.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45030-2023 tillsynsbegäran.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45030-2023 tillsynsbegäran mail.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A 45779-2024</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>45579</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45779-2024 artfynd.xlsx", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="T30">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45779-2024 karta.png", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="V30">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45779-2024 FSC-klagomål.docx", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="W30">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45779-2024 FSC-klagomål mail.docx", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="X30">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45779-2024 tillsynsbegäran.docx", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45779-2024 tillsynsbegäran mail.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>A 17549-2023</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>45034</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 17549-2023 artfynd.xlsx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 17549-2023 karta.png", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 17549-2023 FSC-klagomål.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 17549-2023 FSC-klagomål mail.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 17549-2023 tillsynsbegäran.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 17549-2023 tillsynsbegäran mail.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="Z31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 17549-2023 prioriterade fågelarter.docx", "A 17549-2023")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 45324-2022</t>
+          <t>A 18921-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44841</v>
+        <v>45764</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3453,23 +3453,28 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>23.2</v>
+        <v>12.5</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3481,52 +3486,52 @@
         <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Bergand</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45324-2022 artfynd.xlsx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 18921-2025 artfynd.xlsx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45324-2022 karta.png", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 18921-2025 karta.png", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45324-2022 FSC-klagomål.docx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 18921-2025 FSC-klagomål.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45324-2022 FSC-klagomål mail.docx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 18921-2025 FSC-klagomål mail.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45324-2022 tillsynsbegäran.docx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 18921-2025 tillsynsbegäran.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45324-2022 tillsynsbegäran mail.docx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 18921-2025 tillsynsbegäran mail.docx", "A 18921-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 30592-2023</t>
+          <t>A 45324-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45112</v>
+        <v>44841</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3538,13 +3543,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>19</v>
+        <v>23.2</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>1</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3571,56 +3571,52 @@
         <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bergand</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45324-2022 artfynd.xlsx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45324-2022 karta.png", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45324-2022 FSC-klagomål.docx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45324-2022 FSC-klagomål mail.docx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45324-2022 tillsynsbegäran.docx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
-        <v/>
-      </c>
-      <c r="Z33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45324-2022 tillsynsbegäran mail.docx", "A 45324-2022")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 12403-2025</t>
+          <t>A 41375-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45730</v>
+        <v>45559</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3632,17 +3628,22 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>10.1</v>
+        <v>5.9</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3657,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3667,49 +3668,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
-        <v/>
-      </c>
-      <c r="Z34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 26503-2025</t>
+          <t>A 25279-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45807</v>
+        <v>45079</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3721,14 +3718,19 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>20</v>
+        <v>6.9</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3746,55 +3748,55 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Bergand</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25279-2023 artfynd.xlsx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25279-2023 karta.png", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25279-2023 FSC-klagomål.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25279-2023 FSC-klagomål mail.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25279-2023 tillsynsbegäran.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25279-2023 tillsynsbegäran mail.docx", "A 25279-2023")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 18921-2025</t>
+          <t>A 12403-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45764</v>
+        <v>45730</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3806,16 +3808,11 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>12.5</v>
+        <v>10.1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3846,45 +3843,49 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 18921-2025 artfynd.xlsx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 18921-2025 karta.png", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 18921-2025 FSC-klagomål.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 18921-2025 FSC-klagomål mail.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 18921-2025 tillsynsbegäran.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 18921-2025 tillsynsbegäran mail.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
+        <v/>
+      </c>
+      <c r="Z36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 41375-2024</t>
+          <t>A 26503-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45559</v>
+        <v>45807</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3896,29 +3897,24 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>5.9</v>
+        <v>20</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>1</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
@@ -3926,55 +3922,55 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Bergand</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 25279-2023</t>
+          <t>A 30592-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45079</v>
+        <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3988,21 +3984,21 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.9</v>
+        <v>19</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
       </c>
       <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
@@ -4016,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -4026,31 +4022,35 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25279-2023 artfynd.xlsx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25279-2023 karta.png", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25279-2023 FSC-klagomål.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25279-2023 FSC-klagomål mail.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25279-2023 tillsynsbegäran.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25279-2023 tillsynsbegäran mail.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
+        <v/>
+      </c>
+      <c r="Z38">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
         <v/>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
         <v>44520</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44642</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>44246</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44840</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44694</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44543</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>44489</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44246</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>44425</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>44369</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>44445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45625</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5118,14 +5118,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 55124-2024</t>
+          <t>A 35627-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45618</v>
+        <v>45859</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>18.3</v>
+        <v>8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5175,14 +5175,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 48376-2023</t>
+          <t>A 56800-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45205</v>
+        <v>45625</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,13 +5194,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>18.3</v>
+        <v>3.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5237,14 +5232,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 26103-2024</t>
+          <t>A 46910-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45467</v>
+        <v>45583</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5257,7 +5252,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>17.2</v>
+        <v>3.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5294,14 +5289,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 64826-2023</t>
+          <t>A 56794-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45281</v>
+        <v>45625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5313,13 +5308,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5356,14 +5346,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 526-2025</t>
+          <t>A 55266-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45664</v>
+        <v>45621</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5375,13 +5365,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>0.4</v>
+        <v>11.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5418,14 +5403,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 36623-2023</t>
+          <t>A 55124-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45153</v>
+        <v>45618</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5437,13 +5422,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>16.9</v>
+        <v>18.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5480,14 +5460,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 64832-2023</t>
+          <t>A 58989-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45281</v>
+        <v>45636</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5499,8 +5479,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>43.6</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5537,14 +5522,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 35194-2024</t>
+          <t>A 55422-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45530</v>
+        <v>44475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5556,8 +5541,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>20.1</v>
+        <v>4.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5594,14 +5584,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 73880-2021</t>
+          <t>A 42518-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44552</v>
+        <v>45905</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5614,7 +5604,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>11.2</v>
+        <v>13.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5651,14 +5641,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 23949-2024</t>
+          <t>A 56782-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45455</v>
+        <v>45625</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5670,13 +5660,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5713,14 +5698,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 29667-2025</t>
+          <t>A 42325-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45825</v>
+        <v>45903</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5732,13 +5717,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>20.1</v>
+        <v>11.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5775,14 +5755,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31104-2025</t>
+          <t>A 42331-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45832.60090277778</v>
+        <v>45903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5795,7 +5775,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.3</v>
+        <v>10</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5832,14 +5812,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 25275-2023</t>
+          <t>A 42597-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45079</v>
+        <v>45905</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5851,13 +5831,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>22.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5894,14 +5869,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 55422-2021</t>
+          <t>A 42526-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44475</v>
+        <v>45905</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5913,13 +5888,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>4.1</v>
+        <v>12.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5956,14 +5926,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 48940-2023</t>
+          <t>A 42274-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45205</v>
+        <v>44830</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5975,8 +5945,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>13.5</v>
+        <v>6.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6013,14 +5988,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 25559-2022</t>
+          <t>A 45072-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44732</v>
+        <v>45187</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6032,13 +6007,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>39</v>
+        <v>2.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6075,14 +6045,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 35627-2025</t>
+          <t>A 56276-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45859</v>
+        <v>44479</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6095,7 +6065,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>8</v>
+        <v>19.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6132,14 +6102,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 58989-2024</t>
+          <t>A 58370-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45636</v>
+        <v>45250</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6151,13 +6121,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6194,14 +6159,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 42325-2025</t>
+          <t>A 44943-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45903</v>
+        <v>45918</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6213,8 +6178,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>11.3</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6251,14 +6221,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 42331-2025</t>
+          <t>A 3006-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45903</v>
+        <v>45315</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6271,7 +6241,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6308,14 +6278,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 42518-2025</t>
+          <t>A 526-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45905</v>
+        <v>45664</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6327,8 +6297,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>13.3</v>
+        <v>0.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6365,14 +6340,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 42597-2025</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45905</v>
+        <v>44833</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6385,7 +6360,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>9.199999999999999</v>
+        <v>24.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6422,14 +6397,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 30606-2025</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45831</v>
+        <v>44833</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6441,13 +6416,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>70.40000000000001</v>
+        <v>23.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6484,14 +6454,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 30617-2025</t>
+          <t>A 50255-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45831</v>
+        <v>45216</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6503,13 +6473,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>39.8</v>
+        <v>20</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6546,14 +6511,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 29662-2025</t>
+          <t>A 25928-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45825</v>
+        <v>45467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6565,13 +6530,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>23.7</v>
+        <v>12</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6608,14 +6568,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 29674-2025</t>
+          <t>A 23949-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45825</v>
+        <v>45455</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6629,11 +6589,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>25.1</v>
+        <v>3.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6670,14 +6630,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 42526-2025</t>
+          <t>A 46747-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45905</v>
+        <v>45926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6690,7 +6650,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>12.5</v>
+        <v>19.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6727,14 +6687,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 53822-2024</t>
+          <t>A 29667-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45614</v>
+        <v>45825</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6746,8 +6706,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1.6</v>
+        <v>20.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6784,14 +6749,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 30595-2025</t>
+          <t>A 48376-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45831</v>
+        <v>45205</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6803,8 +6768,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>15.6</v>
+        <v>18.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6841,14 +6811,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 28354-2022</t>
+          <t>A 25275-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44735</v>
+        <v>45079</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6866,7 +6836,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.3</v>
+        <v>22.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6903,14 +6873,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 10825-2025</t>
+          <t>A 31104-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45722</v>
+        <v>45832.60090277778</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6923,7 +6893,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>14.1</v>
+        <v>4.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6960,14 +6930,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 36779-2025</t>
+          <t>A 25559-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45873</v>
+        <v>44732</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6979,8 +6949,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>17.2</v>
+        <v>39</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7017,14 +6992,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 37442-2025</t>
+          <t>A 54589-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45877.54096064815</v>
+        <v>44473</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7037,7 +7012,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7074,14 +7049,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 61729-2024</t>
+          <t>A 48992-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45649</v>
+        <v>45937.58351851852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7095,11 +7070,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7136,14 +7111,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 44943-2025</t>
+          <t>A 48987-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45918</v>
+        <v>45937.5759837963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7161,7 +7136,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7198,14 +7173,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 29649-2024</t>
+          <t>A 30617-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45484</v>
+        <v>45831</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7223,7 +7198,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>24</v>
+        <v>39.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7260,14 +7235,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 50255-2023</t>
+          <t>A 30595-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45216</v>
+        <v>45831</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7280,7 +7255,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>20</v>
+        <v>15.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7317,14 +7292,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 46747-2025</t>
+          <t>A 30606-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45926</v>
+        <v>45831</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7336,8 +7311,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>19.7</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7374,14 +7354,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 45072-2023</t>
+          <t>A 29674-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45187</v>
+        <v>45825</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7393,8 +7373,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>2.1</v>
+        <v>25.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7431,14 +7416,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 48987-2025</t>
+          <t>A 29662-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45937.5759837963</v>
+        <v>45825</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7452,11 +7437,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6.5</v>
+        <v>23.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7493,14 +7478,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 48992-2025</t>
+          <t>A 20789-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45937.58351851852</v>
+        <v>44701</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7512,13 +7497,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>2.2</v>
+        <v>20.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7555,14 +7535,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 52581-2022</t>
+          <t>A 36779-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44874</v>
+        <v>45873</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7575,7 +7555,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.4</v>
+        <v>17.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7612,14 +7592,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 54589-2021</t>
+          <t>A 26479-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44473</v>
+        <v>45468</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7632,7 +7612,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.8</v>
+        <v>6.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7669,14 +7649,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 25270-2023</t>
+          <t>A 37442-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45079</v>
+        <v>45877.54096064815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7688,13 +7668,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>29</v>
+        <v>4.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7731,14 +7706,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 25239-2023</t>
+          <t>A 25270-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
         <v>45079</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7756,7 +7731,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7793,14 +7768,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 53246-2025</t>
+          <t>A 25239-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45958.64807870371</v>
+        <v>45079</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7818,7 +7793,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>36.7</v>
+        <v>7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7855,14 +7830,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 3006-2024</t>
+          <t>A 53822-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45315</v>
+        <v>45614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7875,7 +7850,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>9.1</v>
+        <v>1.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7912,14 +7887,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 34670-2025</t>
+          <t>A 53246-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45847</v>
+        <v>45958.64807870371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7931,8 +7906,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>2.3</v>
+        <v>36.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7969,14 +7949,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 25440-2024</t>
+          <t>A 64816-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45463</v>
+        <v>45281</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7988,13 +7968,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>30.7</v>
+        <v>13.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8031,14 +8006,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 55570-2025</t>
+          <t>A 14375-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45971.65667824074</v>
+        <v>44279</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8056,7 +8031,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>10.6</v>
+        <v>60</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8093,14 +8068,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 34426-2025</t>
+          <t>A 28354-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45845</v>
+        <v>44735</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8112,8 +8087,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>4.3</v>
+        <v>0.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8150,14 +8130,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 26470-2024</t>
+          <t>A 34670-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45468</v>
+        <v>45847</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8170,7 +8150,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8207,14 +8187,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 17536-2023</t>
+          <t>A 55570-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45034</v>
+        <v>45971.65667824074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8232,7 +8212,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>20.3</v>
+        <v>10.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8269,14 +8249,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 390-2026</t>
+          <t>A 34426-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46028.22915509259</v>
+        <v>45845</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8289,7 +8269,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>19.5</v>
+        <v>4.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8326,14 +8306,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 14375-2021</t>
+          <t>A 73880-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44279</v>
+        <v>44552</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8345,13 +8325,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>60</v>
+        <v>11.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8388,14 +8363,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 56754-2024</t>
+          <t>A 17536-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45625</v>
+        <v>45034</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8407,8 +8382,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>11.5</v>
+        <v>20.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8445,14 +8425,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 56800-2024</t>
+          <t>A 26472-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45625</v>
+        <v>45469</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8465,7 +8445,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8502,14 +8482,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 20905-2025</t>
+          <t>A 26486-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45777</v>
+        <v>45469</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8522,7 +8502,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>10.6</v>
+        <v>7.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8559,14 +8539,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 59887-2025</t>
+          <t>A 390-2026</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45993.32416666667</v>
+        <v>46028.22915509259</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8579,7 +8559,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>19.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8616,14 +8596,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 56782-2024</t>
+          <t>A 20905-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45625</v>
+        <v>45777</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8636,7 +8616,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.3</v>
+        <v>10.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8673,14 +8653,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 56794-2024</t>
+          <t>A 44218-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45625</v>
+        <v>45183</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8692,8 +8672,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8730,14 +8715,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 25928-2024</t>
+          <t>A 48940-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45467</v>
+        <v>45205</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8750,7 +8735,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8787,14 +8772,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 60767-2025</t>
+          <t>A 56754-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45999.3869212963</v>
+        <v>45625</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8807,7 +8792,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8844,14 +8829,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 60766-2025</t>
+          <t>A 59887-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45999.38688657407</v>
+        <v>45993.32416666667</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8864,7 +8849,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8901,14 +8886,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 45924-2023</t>
+          <t>A 30870-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45189</v>
+        <v>45113</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8920,8 +8905,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>11.2</v>
+        <v>25.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8958,14 +8948,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 12409-2025</t>
+          <t>A 60767-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45730.43366898148</v>
+        <v>45999.3869212963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8978,7 +8968,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.1</v>
+        <v>11.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9015,14 +9005,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 26811-2022</t>
+          <t>A 60766-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44735</v>
+        <v>45999.38688657407</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9034,13 +9024,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9077,14 +9062,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 12447-2025</t>
+          <t>A 61729-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45730</v>
+        <v>45649</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9096,8 +9081,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>7.9</v>
+        <v>0.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9134,14 +9124,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 44218-2023</t>
+          <t>A 64822-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45183</v>
+        <v>45281</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9151,11 +9141,6 @@
       <c r="E125" t="inlineStr">
         <is>
           <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -9196,14 +9181,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 6642-2026</t>
+          <t>A 26811-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46056.53643518518</v>
+        <v>44735</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9215,8 +9200,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>13.5</v>
+        <v>0.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9253,14 +9243,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 64837-2023</t>
+          <t>A 29649-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45281</v>
+        <v>45484</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9272,8 +9262,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9310,14 +9305,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 64840-2023</t>
+          <t>A 45924-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45281</v>
+        <v>45189</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9330,7 +9325,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3</v>
+        <v>11.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9367,14 +9362,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 38851-2025</t>
+          <t>A 10825-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45887.55271990741</v>
+        <v>45722</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9387,7 +9382,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>15.2</v>
+        <v>14.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9424,14 +9419,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 64816-2023</t>
+          <t>A 62801-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45281</v>
+        <v>45268</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9444,7 +9439,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>13.4</v>
+        <v>7.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9481,14 +9476,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 26479-2024</t>
+          <t>A 12447-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45468</v>
+        <v>45730</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9501,7 +9496,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9545,7 +9540,7 @@
         <v>45281</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9595,14 +9590,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 46910-2024</t>
+          <t>A 64826-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45583</v>
+        <v>45281</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9614,8 +9609,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>3.6</v>
+        <v>5.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9652,14 +9652,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 30870-2023</t>
+          <t>A 26470-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45113</v>
+        <v>45468</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9671,13 +9671,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>25.5</v>
+        <v>6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9714,14 +9709,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 64822-2023</t>
+          <t>A 52581-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45281</v>
+        <v>44874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9734,7 +9729,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9771,14 +9766,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 58370-2023</t>
+          <t>A 25440-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45250</v>
+        <v>45463</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9790,8 +9785,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>1.7</v>
+        <v>30.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9828,14 +9828,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 26472-2024</t>
+          <t>A 6642-2026</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45469</v>
+        <v>46056.53643518518</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>8.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9885,14 +9885,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 26486-2024</t>
+          <t>A 38851-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45469</v>
+        <v>45887.55271990741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>7.1</v>
+        <v>15.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9942,14 +9942,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 55266-2024</t>
+          <t>A 26103-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45621</v>
+        <v>45467</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>11.3</v>
+        <v>17.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9999,14 +9999,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 20789-2022</t>
+          <t>A 64832-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44701</v>
+        <v>45281</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>20.3</v>
+        <v>43.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10056,14 +10056,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 26773-2022</t>
+          <t>A 12409-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44732</v>
+        <v>45730.43366898148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10075,13 +10075,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>34</v>
+        <v>4.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10118,14 +10113,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 62801-2023</t>
+          <t>A 26773-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45268</v>
+        <v>44732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10137,8 +10132,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>7.1</v>
+        <v>34</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10175,14 +10175,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 41061-2024</t>
+          <t>A 35194-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45558</v>
+        <v>45530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>23.1</v>
+        <v>20.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10232,14 +10232,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 42274-2022</t>
+          <t>A 36623-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44830</v>
+        <v>45153</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10253,11 +10253,11 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>6.5</v>
+        <v>16.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10294,14 +10294,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 56276-2021</t>
+          <t>A 64837-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44479</v>
+        <v>45281</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>19.8</v>
+        <v>5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10351,14 +10351,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 64840-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44833</v>
+        <v>45281</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>24.6</v>
+        <v>3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10408,14 +10408,14 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 41061-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44833</v>
+        <v>45558</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -575,7 +575,7 @@
         <v>45281</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44382</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>45467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         <v>45891.34503472222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45281</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45576</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45831</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>45818</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45671</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45203</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45327</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45079</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1978,14 +1978,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 34430-2025</t>
+          <t>A 47035-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45845</v>
+        <v>44851</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,40 +1997,134 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>39.6</v>
+        <v>15.9</v>
       </c>
       <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>4</v>
-      </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>5</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Månlåsbräken
+Grönkulla
+Spindelblomster
+Tibast
+Brudsporre</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 47035-2022 artfynd.xlsx", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 47035-2022 karta.png", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 47035-2022 FSC-klagomål.docx", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 47035-2022 FSC-klagomål mail.docx", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 47035-2022 tillsynsbegäran.docx", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 47035-2022 tillsynsbegäran mail.docx", "A 47035-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 34430-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Blanksvart spiklav
@@ -2039,122 +2133,28 @@
 Plattlummer</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 34430-2025 artfynd.xlsx", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 34430-2025 karta.png", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 34430-2025 FSC-klagomål.docx", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 34430-2025 FSC-klagomål mail.docx", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 34430-2025 tillsynsbegäran.docx", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 34430-2025 tillsynsbegäran mail.docx", "A 34430-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 47035-2022</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44851</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Månlåsbräken
-Grönkulla
-Spindelblomster
-Tibast
-Brudsporre</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 47035-2022 artfynd.xlsx", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 47035-2022 karta.png", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 47035-2022 FSC-klagomål.docx", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 47035-2022 FSC-klagomål mail.docx", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 47035-2022 tillsynsbegäran.docx", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 47035-2022 tillsynsbegäran mail.docx", "A 47035-2022")</f>
         <v/>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
         <v>45281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45937</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2342,14 +2342,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 15171-2022</t>
+          <t>A 26143-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44658</v>
+        <v>45467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>48</v>
+        <v>8.1</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2395,396 +2395,396 @@
         <v>3</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Blanksvart spiklav
+Knottrig blåslav
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26143-2024 artfynd.xlsx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26143-2024 karta.png", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26143-2024 FSC-klagomål.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26143-2024 FSC-klagomål mail.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26143-2024 tillsynsbegäran.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26143-2024 tillsynsbegäran mail.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 10525-2024</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Korallrot
+Spindelblomster
+Ögonpyrola</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 10525-2024 artfynd.xlsx", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 10525-2024 karta.png", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 10525-2024 FSC-klagomål.docx", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 10525-2024 FSC-klagomål mail.docx", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 10525-2024 tillsynsbegäran.docx", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 10525-2024 tillsynsbegäran mail.docx", "A 10525-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 15171-2022</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44658</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>48</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Lunglav
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 15171-2022 artfynd.xlsx", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 15171-2022 karta.png", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 15171-2022 FSC-klagomål.docx", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 15171-2022 FSC-klagomål mail.docx", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 15171-2022 tillsynsbegäran.docx", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 15171-2022 tillsynsbegäran mail.docx", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="Z20">
+      <c r="Z22">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 15171-2022 prioriterade fågelarter.docx", "A 15171-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 26143-2024</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 45031-2023</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>3</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Blanksvart spiklav
-Knottrig blåslav
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26143-2024 artfynd.xlsx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26143-2024 karta.png", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26143-2024 FSC-klagomål.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26143-2024 FSC-klagomål mail.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26143-2024 tillsynsbegäran.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26143-2024 tillsynsbegäran mail.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 45031-2023</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>3</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>3</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
 Granticka</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45031-2023 artfynd.xlsx", "A 45031-2023")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45031-2023 karta.png", "A 45031-2023")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45031-2023 FSC-klagomål.docx", "A 45031-2023")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45031-2023 FSC-klagomål mail.docx", "A 45031-2023")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45031-2023 tillsynsbegäran.docx", "A 45031-2023")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45031-2023 tillsynsbegäran mail.docx", "A 45031-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 1479-2026</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>46033</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="C24" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="G24" t="n">
         <v>10</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>3</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>3</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>3</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
 Granticka</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1479-2026 artfynd.xlsx", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1479-2026 karta.png", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1479-2026 FSC-klagomål.docx", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1479-2026 FSC-klagomål mail.docx", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1479-2026 tillsynsbegäran.docx", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1479-2026 tillsynsbegäran mail.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 10525-2024</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45366</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Korallrot
-Spindelblomster
-Ögonpyrola</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 10525-2024 artfynd.xlsx", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 10525-2024 karta.png", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 10525-2024 FSC-klagomål.docx", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 10525-2024 FSC-klagomål mail.docx", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 10525-2024 tillsynsbegäran.docx", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 10525-2024 tillsynsbegäran mail.docx", "A 10525-2024")</f>
         <v/>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
         <v>44280</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,14 +2881,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 45030-2023</t>
+          <t>A 17549-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45190</v>
+        <v>45034</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2900,16 +2900,11 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>3.8</v>
+        <v>18.8</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2940,508 +2935,513 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
+          <t>Granticka
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 17549-2023 artfynd.xlsx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 17549-2023 karta.png", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 17549-2023 FSC-klagomål.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 17549-2023 FSC-klagomål mail.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 17549-2023 tillsynsbegäran.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 17549-2023 tillsynsbegäran mail.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="Z26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 17549-2023 prioriterade fågelarter.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 45032-2023</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45032-2023 artfynd.xlsx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45032-2023 karta.png", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45032-2023 FSC-klagomål.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45032-2023 FSC-klagomål mail.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45032-2023 tillsynsbegäran.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45032-2023 tillsynsbegäran mail.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 45032-2023 prioriterade fågelarter.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 45030-2023</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
           <t>Harticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45030-2023 artfynd.xlsx", "A 45030-2023")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45030-2023 karta.png", "A 45030-2023")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45030-2023 FSC-klagomål.docx", "A 45030-2023")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45030-2023 FSC-klagomål mail.docx", "A 45030-2023")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45030-2023 tillsynsbegäran.docx", "A 45030-2023")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45030-2023 tillsynsbegäran mail.docx", "A 45030-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 17549-2023</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>45034</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="H27" t="n">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 45779-2024</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45779-2024 artfynd.xlsx", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45779-2024 karta.png", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45779-2024 FSC-klagomål.docx", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45779-2024 FSC-klagomål mail.docx", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45779-2024 tillsynsbegäran.docx", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45779-2024 tillsynsbegäran mail.docx", "A 45779-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A 1478-2026</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>2</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>2</v>
       </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>2</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 17549-2023 artfynd.xlsx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 17549-2023 karta.png", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 17549-2023 FSC-klagomål.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 17549-2023 FSC-klagomål mail.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 17549-2023 tillsynsbegäran.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 17549-2023 tillsynsbegäran mail.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 17549-2023 prioriterade fågelarter.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 45032-2023</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>2</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45032-2023 artfynd.xlsx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45032-2023 karta.png", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45032-2023 FSC-klagomål.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45032-2023 FSC-klagomål mail.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45032-2023 tillsynsbegäran.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45032-2023 tillsynsbegäran mail.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 45032-2023 prioriterade fågelarter.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
+      <c r="S30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="T30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="V30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="W30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="X30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="Y30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="Z30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>A 1474-2026</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B31" s="1" t="n">
         <v>46033</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
+      <c r="C31" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G31" t="n">
         <v>3.8</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>2</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>2</v>
       </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2</v>
       </c>
-      <c r="R29" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Harticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S29">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1474-2026 artfynd.xlsx", "A 1474-2026")</f>
         <v/>
       </c>
-      <c r="T29">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1474-2026 karta.png", "A 1474-2026")</f>
         <v/>
       </c>
-      <c r="V29">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1474-2026 FSC-klagomål.docx", "A 1474-2026")</f>
         <v/>
       </c>
-      <c r="W29">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1474-2026 FSC-klagomål mail.docx", "A 1474-2026")</f>
         <v/>
       </c>
-      <c r="X29">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1474-2026 tillsynsbegäran.docx", "A 1474-2026")</f>
         <v/>
       </c>
-      <c r="Y29">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1474-2026 tillsynsbegäran mail.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A 1478-2026</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>A 45779-2024</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>45579</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45779-2024 artfynd.xlsx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45779-2024 karta.png", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45779-2024 FSC-klagomål.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45779-2024 FSC-klagomål mail.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45779-2024 tillsynsbegäran.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45779-2024 tillsynsbegäran mail.docx", "A 45779-2024")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 18921-2025</t>
+          <t>A 45324-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45764</v>
+        <v>44841</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3453,28 +3453,23 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>12.5</v>
+        <v>23.2</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3486,52 +3481,52 @@
         <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Bergand</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 18921-2025 artfynd.xlsx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45324-2022 artfynd.xlsx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 18921-2025 karta.png", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45324-2022 karta.png", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 18921-2025 FSC-klagomål.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45324-2022 FSC-klagomål.docx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 18921-2025 FSC-klagomål mail.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45324-2022 FSC-klagomål mail.docx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 18921-2025 tillsynsbegäran.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45324-2022 tillsynsbegäran.docx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 18921-2025 tillsynsbegäran mail.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45324-2022 tillsynsbegäran mail.docx", "A 45324-2022")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 45324-2022</t>
+          <t>A 25279-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44841</v>
+        <v>45079</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3543,14 +3538,19 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>23.2</v>
+        <v>6.9</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3568,55 +3568,55 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Bergand</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45324-2022 artfynd.xlsx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25279-2023 artfynd.xlsx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45324-2022 karta.png", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25279-2023 karta.png", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45324-2022 FSC-klagomål.docx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25279-2023 FSC-klagomål.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45324-2022 FSC-klagomål mail.docx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25279-2023 FSC-klagomål mail.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45324-2022 tillsynsbegäran.docx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25279-2023 tillsynsbegäran.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45324-2022 tillsynsbegäran mail.docx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25279-2023 tillsynsbegäran mail.docx", "A 25279-2023")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41375-2024</t>
+          <t>A 18921-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45559</v>
+        <v>45764</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3630,35 +3630,35 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5.9</v>
+        <v>12.5</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3668,45 +3668,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 18921-2025 artfynd.xlsx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 18921-2025 karta.png", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 18921-2025 FSC-klagomål.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 18921-2025 FSC-klagomål mail.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 18921-2025 tillsynsbegäran.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 18921-2025 tillsynsbegäran mail.docx", "A 18921-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 25279-2023</t>
+          <t>A 30592-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45079</v>
+        <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3720,21 +3720,21 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>6.9</v>
+        <v>19</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>1</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3758,45 +3758,49 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25279-2023 artfynd.xlsx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25279-2023 karta.png", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25279-2023 FSC-klagomål.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25279-2023 FSC-klagomål mail.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25279-2023 tillsynsbegäran.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25279-2023 tillsynsbegäran mail.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
+        <v/>
+      </c>
+      <c r="Z35">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12403-2025</t>
+          <t>A 41375-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45730</v>
+        <v>45559</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3808,17 +3812,22 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>10.1</v>
+        <v>5.9</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3833,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3843,49 +3852,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
-        <v/>
-      </c>
-      <c r="Z36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 26503-2025</t>
+          <t>A 12403-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45807</v>
+        <v>45730</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3898,7 +3903,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>20</v>
+        <v>10.1</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -3907,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -3925,52 +3930,56 @@
         <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Bergand</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
+        <v/>
+      </c>
+      <c r="Z37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 30592-2023</t>
+          <t>A 26503-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45112</v>
+        <v>45807</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3982,13 +3991,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -3997,13 +4001,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -4015,42 +4019,38 @@
         <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bergand</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
-        <v/>
-      </c>
-      <c r="Z38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
         <v>44520</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44642</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>44246</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4409,14 +4409,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 44751-2022</t>
+          <t>A 19620-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44840</v>
+        <v>44694</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4430,11 +4430,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>26.1</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4471,14 +4471,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 56278-2021</t>
+          <t>A 44751-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44479</v>
+        <v>44840</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4490,8 +4490,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>26.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4528,14 +4533,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 52573-2022</t>
+          <t>A 72279-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44874</v>
+        <v>44543</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4548,7 +4553,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>7.7</v>
+        <v>0.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4585,14 +4590,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 19620-2022</t>
+          <t>A 58879-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44694</v>
+        <v>44489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4604,13 +4609,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4647,14 +4647,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 72279-2021</t>
+          <t>A 56278-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44543</v>
+        <v>44479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4704,14 +4704,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 27092-2022</t>
+          <t>A 8727-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44741</v>
+        <v>44246</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4723,8 +4723,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>15.6</v>
+        <v>12.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4761,14 +4766,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 58879-2021</t>
+          <t>A 27092-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44489</v>
+        <v>44741</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4781,7 +4786,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>8</v>
+        <v>15.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4818,14 +4823,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 8727-2021</t>
+          <t>A 41799-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44246</v>
+        <v>44425</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4837,13 +4842,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>12.9</v>
+        <v>11.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4880,14 +4880,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 41799-2021</t>
+          <t>A 52573-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44425</v>
+        <v>44874</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>11.3</v>
+        <v>7.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>44369</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4999,14 +4999,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 46585-2021</t>
+          <t>A 26103-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44445</v>
+        <v>45467</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5018,13 +5018,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>11.1</v>
+        <v>17.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5061,14 +5056,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 56785-2024</t>
+          <t>A 46585-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45625</v>
+        <v>44445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5080,8 +5075,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5118,14 +5118,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 35627-2025</t>
+          <t>A 56785-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45859</v>
+        <v>45625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>8</v>
+        <v>11.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5175,14 +5175,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 56800-2024</t>
+          <t>A 55124-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45625</v>
+        <v>45618</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.1</v>
+        <v>18.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5232,14 +5232,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 46910-2024</t>
+          <t>A 64826-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45583</v>
+        <v>45281</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5251,8 +5251,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>3.6</v>
+        <v>5.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5289,14 +5294,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 56794-2024</t>
+          <t>A 48376-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45625</v>
+        <v>45205</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,8 +5313,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>7.5</v>
+        <v>18.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5346,14 +5356,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 55266-2024</t>
+          <t>A 35194-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45621</v>
+        <v>45530</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5366,7 +5376,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>11.3</v>
+        <v>20.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5403,14 +5413,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 55124-2024</t>
+          <t>A 526-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45618</v>
+        <v>45664</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,8 +5432,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>18.3</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5460,14 +5475,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 58989-2024</t>
+          <t>A 64832-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45636</v>
+        <v>45281</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,13 +5494,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>3.5</v>
+        <v>43.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5522,14 +5532,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 55422-2021</t>
+          <t>A 36623-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44475</v>
+        <v>45153</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5547,7 +5557,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.1</v>
+        <v>16.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5584,14 +5594,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 42518-2025</t>
+          <t>A 3006-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45905</v>
+        <v>45315</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5604,7 +5614,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>13.3</v>
+        <v>9.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5641,14 +5651,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 56782-2024</t>
+          <t>A 73880-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45625</v>
+        <v>44552</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5661,7 +5671,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.3</v>
+        <v>11.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5698,14 +5708,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 42325-2025</t>
+          <t>A 25440-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45903</v>
+        <v>45463</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5717,8 +5727,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>11.3</v>
+        <v>30.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5755,14 +5770,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 42331-2025</t>
+          <t>A 46910-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45903</v>
+        <v>45583</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5775,7 +5790,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5812,14 +5827,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 42597-2025</t>
+          <t>A 30870-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45905</v>
+        <v>45113</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5831,8 +5846,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>9.199999999999999</v>
+        <v>25.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5869,14 +5889,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 42526-2025</t>
+          <t>A 23949-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45905</v>
+        <v>45455</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5888,8 +5908,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>12.5</v>
+        <v>3.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5926,14 +5951,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 42274-2022</t>
+          <t>A 64822-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44830</v>
+        <v>45281</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5945,13 +5970,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5988,14 +6008,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 45072-2023</t>
+          <t>A 58370-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45187</v>
+        <v>45250</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6008,7 +6028,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6045,14 +6065,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 56276-2021</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44479</v>
+        <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6065,7 +6085,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>19.8</v>
+        <v>24.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6102,14 +6122,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 58370-2023</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45250</v>
+        <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6122,7 +6142,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>23.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6159,14 +6179,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 44943-2025</t>
+          <t>A 55422-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45918</v>
+        <v>44475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6184,7 +6204,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6221,14 +6241,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3006-2024</t>
+          <t>A 48940-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45315</v>
+        <v>45205</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6241,7 +6261,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>9.1</v>
+        <v>13.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6278,14 +6298,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 526-2025</t>
+          <t>A 26470-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45664</v>
+        <v>45468</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6297,13 +6317,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6340,14 +6355,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 29667-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44833</v>
+        <v>45825</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6359,8 +6374,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>24.6</v>
+        <v>20.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6397,14 +6417,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 14375-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44833</v>
+        <v>44279</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6416,8 +6436,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>23.2</v>
+        <v>60</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6454,14 +6479,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 50255-2023</t>
+          <t>A 56754-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45216</v>
+        <v>45625</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6474,7 +6499,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6511,14 +6536,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 25928-2024</t>
+          <t>A 56800-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45467</v>
+        <v>45625</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6531,7 +6556,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>12</v>
+        <v>3.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6568,14 +6593,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 23949-2024</t>
+          <t>A 31104-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45455</v>
+        <v>45832.60090277778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6587,13 +6612,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6630,14 +6650,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 46747-2025</t>
+          <t>A 25275-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45926</v>
+        <v>45079</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6649,8 +6669,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>19.7</v>
+        <v>22.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6687,14 +6712,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 29667-2025</t>
+          <t>A 53822-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45825</v>
+        <v>45614</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6706,13 +6731,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>20.1</v>
+        <v>1.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6749,14 +6769,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 48376-2023</t>
+          <t>A 56782-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45205</v>
+        <v>45625</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6768,13 +6788,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>18.3</v>
+        <v>4.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6811,14 +6826,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 25275-2023</t>
+          <t>A 56794-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45079</v>
+        <v>45625</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6830,13 +6845,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>22.7</v>
+        <v>7.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6873,14 +6883,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 31104-2025</t>
+          <t>A 25928-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45832.60090277778</v>
+        <v>45467</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6893,7 +6903,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.3</v>
+        <v>12</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6930,14 +6940,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 25559-2022</t>
+          <t>A 28354-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44732</v>
+        <v>44735</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6955,7 +6965,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>39</v>
+        <v>0.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6992,14 +7002,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 54589-2021</t>
+          <t>A 25559-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44473</v>
+        <v>44732</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7011,8 +7021,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>4.8</v>
+        <v>39</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7049,14 +7064,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 48992-2025</t>
+          <t>A 45924-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45937.58351851852</v>
+        <v>45189</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7068,13 +7083,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>2.2</v>
+        <v>11.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7111,14 +7121,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 48987-2025</t>
+          <t>A 12409-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45937.5759837963</v>
+        <v>45730.43366898148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7130,13 +7140,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>6.5</v>
+        <v>4.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7173,14 +7178,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 30617-2025</t>
+          <t>A 10825-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45831</v>
+        <v>45722</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7192,13 +7197,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>39.8</v>
+        <v>14.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7235,14 +7235,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 30595-2025</t>
+          <t>A 61729-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45831</v>
+        <v>45649</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7254,8 +7254,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>15.6</v>
+        <v>0.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7299,7 +7304,7 @@
         <v>45831</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7354,14 +7359,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 29674-2025</t>
+          <t>A 30617-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45825</v>
+        <v>45831</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7379,7 +7384,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>25.1</v>
+        <v>39.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7423,7 +7428,7 @@
         <v>45825</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7478,14 +7483,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 20789-2022</t>
+          <t>A 29674-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44701</v>
+        <v>45825</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7497,8 +7502,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>20.3</v>
+        <v>25.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7535,14 +7545,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 36779-2025</t>
+          <t>A 30595-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45873</v>
+        <v>45831</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7555,7 +7565,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>17.2</v>
+        <v>15.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7592,14 +7602,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 26479-2024</t>
+          <t>A 26811-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45468</v>
+        <v>44735</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7611,8 +7621,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>6.9</v>
+        <v>0.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7649,14 +7664,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 37442-2025</t>
+          <t>A 29649-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45877.54096064815</v>
+        <v>45484</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7668,8 +7683,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>4.6</v>
+        <v>24</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7706,14 +7726,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 25270-2023</t>
+          <t>A 36779-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45079</v>
+        <v>45873</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7725,13 +7745,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>29</v>
+        <v>17.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7768,14 +7783,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 25239-2023</t>
+          <t>A 37442-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45079</v>
+        <v>45877.54096064815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7787,13 +7802,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7830,14 +7840,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 53822-2024</t>
+          <t>A 44218-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45614</v>
+        <v>45183</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7849,8 +7859,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7887,14 +7902,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 53246-2025</t>
+          <t>A 45072-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45958.64807870371</v>
+        <v>45187</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7906,13 +7921,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>36.7</v>
+        <v>2.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7949,14 +7959,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 64816-2023</t>
+          <t>A 64837-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
         <v>45281</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7969,7 +7979,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>13.4</v>
+        <v>5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8006,14 +8016,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 14375-2021</t>
+          <t>A 64840-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44279</v>
+        <v>45281</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8025,13 +8035,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8068,14 +8073,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 28354-2022</t>
+          <t>A 64816-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44735</v>
+        <v>45281</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8087,13 +8092,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>0.3</v>
+        <v>13.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8130,14 +8130,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 34670-2025</t>
+          <t>A 52581-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45847</v>
+        <v>44874</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8150,7 +8150,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8187,14 +8187,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 55570-2025</t>
+          <t>A 26479-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45971.65667824074</v>
+        <v>45468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8206,13 +8206,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>10.6</v>
+        <v>6.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8249,14 +8244,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 34426-2025</t>
+          <t>A 26472-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45845</v>
+        <v>45469</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8269,7 +8264,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8306,14 +8301,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 73880-2021</t>
+          <t>A 26486-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44552</v>
+        <v>45469</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8326,7 +8321,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>11.2</v>
+        <v>7.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8363,14 +8358,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 17536-2023</t>
+          <t>A 54589-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45034</v>
+        <v>44473</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8382,13 +8377,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>20.3</v>
+        <v>4.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8425,14 +8415,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 26472-2024</t>
+          <t>A 64809-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45469</v>
+        <v>45281</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8445,7 +8435,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>8.199999999999999</v>
+        <v>17.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8482,14 +8472,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 26486-2024</t>
+          <t>A 55266-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45469</v>
+        <v>45621</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8502,7 +8492,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>7.1</v>
+        <v>11.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8539,14 +8529,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 390-2026</t>
+          <t>A 20789-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46028.22915509259</v>
+        <v>44701</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8559,7 +8549,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>19.5</v>
+        <v>20.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8596,14 +8586,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 20905-2025</t>
+          <t>A 26773-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45777</v>
+        <v>44732</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8615,8 +8605,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>10.6</v>
+        <v>34</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8653,14 +8648,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 44218-2023</t>
+          <t>A 62801-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45183</v>
+        <v>45268</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8672,13 +8667,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>5</v>
+        <v>7.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8715,14 +8705,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 48940-2023</t>
+          <t>A 35627-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45205</v>
+        <v>45859</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8735,7 +8725,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8772,14 +8762,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 56754-2024</t>
+          <t>A 41061-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45625</v>
+        <v>45558</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8792,7 +8782,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>11.5</v>
+        <v>23.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8829,14 +8819,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 59887-2025</t>
+          <t>A 58989-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45993.32416666667</v>
+        <v>45636</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8848,8 +8838,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8886,14 +8881,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 30870-2023</t>
+          <t>A 42325-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45113</v>
+        <v>45903</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8905,13 +8900,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>25.5</v>
+        <v>11.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8948,14 +8938,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 60767-2025</t>
+          <t>A 42331-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45999.3869212963</v>
+        <v>45903</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8968,7 +8958,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>11.3</v>
+        <v>10</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9005,14 +8995,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 60766-2025</t>
+          <t>A 42274-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45999.38688657407</v>
+        <v>44830</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9024,8 +9014,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9062,14 +9057,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 61729-2024</t>
+          <t>A 42518-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45649</v>
+        <v>45905</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9081,13 +9076,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>0.4</v>
+        <v>13.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9124,14 +9114,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 64822-2023</t>
+          <t>A 42597-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45281</v>
+        <v>45905</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9144,7 +9134,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9181,14 +9171,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 26811-2022</t>
+          <t>A 42526-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44735</v>
+        <v>45905</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9200,13 +9190,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>0.5</v>
+        <v>12.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9243,14 +9228,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 29649-2024</t>
+          <t>A 44943-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45484</v>
+        <v>45918</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9264,11 +9249,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9305,14 +9290,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 45924-2023</t>
+          <t>A 50255-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45189</v>
+        <v>45216</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9325,7 +9310,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>11.2</v>
+        <v>20</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9362,14 +9347,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 10825-2025</t>
+          <t>A 46747-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45722</v>
+        <v>45926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9382,7 +9367,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>14.1</v>
+        <v>19.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9419,14 +9404,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 62801-2023</t>
+          <t>A 48987-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45268</v>
+        <v>45937.5759837963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9438,8 +9423,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9476,14 +9466,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 12447-2025</t>
+          <t>A 48992-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45730</v>
+        <v>45937.58351851852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9495,8 +9485,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>7.9</v>
+        <v>2.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9533,14 +9528,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 64809-2023</t>
+          <t>A 56276-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45281</v>
+        <v>44479</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9553,7 +9548,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>17.8</v>
+        <v>19.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9590,14 +9585,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 64826-2023</t>
+          <t>A 25270-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45281</v>
+        <v>45079</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9611,11 +9606,11 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5.6</v>
+        <v>29</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9652,14 +9647,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 26470-2024</t>
+          <t>A 25239-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45468</v>
+        <v>45079</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9671,8 +9666,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9709,14 +9709,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 52581-2022</t>
+          <t>A 53246-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44874</v>
+        <v>45958.64807870371</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9728,8 +9728,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>3.4</v>
+        <v>36.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9766,14 +9771,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 25440-2024</t>
+          <t>A 34670-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45463</v>
+        <v>45847</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9785,13 +9790,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>30.7</v>
+        <v>2.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9828,14 +9828,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 6642-2026</t>
+          <t>A 55570-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46056.53643518518</v>
+        <v>45971.65667824074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9847,8 +9847,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>13.5</v>
+        <v>10.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9885,14 +9890,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 38851-2025</t>
+          <t>A 34426-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45887.55271990741</v>
+        <v>45845</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9905,7 +9910,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>15.2</v>
+        <v>4.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9942,14 +9947,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 26103-2024</t>
+          <t>A 17536-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45467</v>
+        <v>45034</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9961,8 +9966,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>17.2</v>
+        <v>20.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9999,14 +10009,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 64832-2023</t>
+          <t>A 390-2026</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45281</v>
+        <v>46028.22915509259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10019,7 +10029,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>43.6</v>
+        <v>19.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10056,14 +10066,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 12409-2025</t>
+          <t>A 20905-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45730.43366898148</v>
+        <v>45777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10076,7 +10086,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.1</v>
+        <v>10.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10113,14 +10123,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 26773-2022</t>
+          <t>A 59887-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44732</v>
+        <v>45993.32416666667</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10132,13 +10142,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>34</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10175,14 +10180,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 35194-2024</t>
+          <t>A 60767-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45530</v>
+        <v>45999.3869212963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10195,7 +10200,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>20.1</v>
+        <v>11.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10232,14 +10237,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 36623-2023</t>
+          <t>A 60766-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45153</v>
+        <v>45999.38688657407</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10251,13 +10256,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>16.9</v>
+        <v>5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10294,14 +10294,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 64837-2023</t>
+          <t>A 12447-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45281</v>
+        <v>45730</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5</v>
+        <v>7.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10351,14 +10351,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 64840-2023</t>
+          <t>A 6642-2026</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45281</v>
+        <v>46056.53643518518</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3</v>
+        <v>13.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10408,14 +10408,14 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 41061-2024</t>
+          <t>A 38851-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45558</v>
+        <v>45887.55271990741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>23.1</v>
+        <v>15.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -575,7 +575,7 @@
         <v>45281</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44382</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>45467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         <v>45891.34503472222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45281</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45576</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45831</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>45818</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45671</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45203</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45327</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45079</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1978,14 +1978,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 47035-2022</t>
+          <t>A 34430-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44851</v>
+        <v>45845</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,26 +1997,21 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>15.9</v>
+        <v>39.6</v>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
         <v>3</v>
       </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
@@ -2027,15 +2022,109 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
+        <v>4</v>
+      </c>
+      <c r="P16" t="n">
         <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>5</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Blanksvart spiklav
+Dvärgbägarlav
+Vedskivlav
+Plattlummer</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 34430-2025 artfynd.xlsx", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 34430-2025 karta.png", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 34430-2025 FSC-klagomål.docx", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 34430-2025 FSC-klagomål mail.docx", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 34430-2025 tillsynsbegäran.docx", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 34430-2025 tillsynsbegäran mail.docx", "A 34430-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 47035-2022</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Månlåsbräken
 Grönkulla
@@ -2044,117 +2133,28 @@
 Brudsporre</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 47035-2022 artfynd.xlsx", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 47035-2022 karta.png", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 47035-2022 FSC-klagomål.docx", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 47035-2022 FSC-klagomål mail.docx", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 47035-2022 tillsynsbegäran.docx", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 47035-2022 tillsynsbegäran mail.docx", "A 47035-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 34430-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>4</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Blanksvart spiklav
-Dvärgbägarlav
-Vedskivlav
-Plattlummer</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 34430-2025 artfynd.xlsx", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 34430-2025 karta.png", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 34430-2025 FSC-klagomål.docx", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 34430-2025 FSC-klagomål mail.docx", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 34430-2025 tillsynsbegäran.docx", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 34430-2025 tillsynsbegäran mail.docx", "A 34430-2025")</f>
         <v/>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
         <v>45281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45937</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2342,14 +2342,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 26143-2024</t>
+          <t>A 15171-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45467</v>
+        <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>8.1</v>
+        <v>48</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2395,396 +2395,396 @@
         <v>3</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Lunglav
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 15171-2022 artfynd.xlsx", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 15171-2022 karta.png", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 15171-2022 FSC-klagomål.docx", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 15171-2022 FSC-klagomål mail.docx", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 15171-2022 tillsynsbegäran.docx", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 15171-2022 tillsynsbegäran mail.docx", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 15171-2022 prioriterade fågelarter.docx", "A 15171-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 26143-2024</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45467</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Blanksvart spiklav
 Knottrig blåslav
 Vedticka</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26143-2024 artfynd.xlsx", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26143-2024 karta.png", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26143-2024 FSC-klagomål.docx", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26143-2024 FSC-klagomål mail.docx", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26143-2024 tillsynsbegäran.docx", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26143-2024 tillsynsbegäran mail.docx", "A 26143-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 45031-2023</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Garnlav
+Granticka</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45031-2023 artfynd.xlsx", "A 45031-2023")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45031-2023 karta.png", "A 45031-2023")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45031-2023 FSC-klagomål.docx", "A 45031-2023")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45031-2023 FSC-klagomål mail.docx", "A 45031-2023")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45031-2023 tillsynsbegäran.docx", "A 45031-2023")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45031-2023 tillsynsbegäran mail.docx", "A 45031-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 1479-2026</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Garnlav
+Granticka</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1479-2026 artfynd.xlsx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1479-2026 karta.png", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1479-2026 FSC-klagomål.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1479-2026 FSC-klagomål mail.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1479-2026 tillsynsbegäran.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1479-2026 tillsynsbegäran mail.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 10525-2024</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>45366</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="C24" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>15.5</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>2</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I24" t="n">
         <v>3</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>3</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Korallrot
 Spindelblomster
 Ögonpyrola</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 10525-2024 artfynd.xlsx", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 10525-2024 karta.png", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 10525-2024 FSC-klagomål.docx", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 10525-2024 FSC-klagomål mail.docx", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 10525-2024 tillsynsbegäran.docx", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 10525-2024 tillsynsbegäran mail.docx", "A 10525-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 15171-2022</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>44658</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>48</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>3</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Lunglav
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 15171-2022 artfynd.xlsx", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 15171-2022 karta.png", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 15171-2022 FSC-klagomål.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 15171-2022 FSC-klagomål mail.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 15171-2022 tillsynsbegäran.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 15171-2022 tillsynsbegäran mail.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 15171-2022 prioriterade fågelarter.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 45031-2023</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>3</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Garnlav
-Granticka</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45031-2023 artfynd.xlsx", "A 45031-2023")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45031-2023 karta.png", "A 45031-2023")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45031-2023 FSC-klagomål.docx", "A 45031-2023")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45031-2023 FSC-klagomål mail.docx", "A 45031-2023")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45031-2023 tillsynsbegäran.docx", "A 45031-2023")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45031-2023 tillsynsbegäran mail.docx", "A 45031-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 1479-2026</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>10</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>3</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Garnlav
-Granticka</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1479-2026 artfynd.xlsx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1479-2026 karta.png", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1479-2026 FSC-klagomål.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1479-2026 FSC-klagomål mail.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1479-2026 tillsynsbegäran.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1479-2026 tillsynsbegäran mail.docx", "A 1479-2026")</f>
         <v/>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
         <v>44280</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,14 +2881,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 17549-2023</t>
+          <t>A 45030-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45034</v>
+        <v>45190</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2900,11 +2900,16 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>18.8</v>
+        <v>3.8</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2935,499 +2940,494 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
+          <t>Harticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45030-2023 artfynd.xlsx", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45030-2023 karta.png", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45030-2023 FSC-klagomål.docx", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45030-2023 FSC-klagomål mail.docx", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45030-2023 tillsynsbegäran.docx", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45030-2023 tillsynsbegäran mail.docx", "A 45030-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 17549-2023</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
           <t>Granticka
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 17549-2023 artfynd.xlsx", "A 17549-2023")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 17549-2023 karta.png", "A 17549-2023")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 17549-2023 FSC-klagomål.docx", "A 17549-2023")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 17549-2023 FSC-klagomål mail.docx", "A 17549-2023")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 17549-2023 tillsynsbegäran.docx", "A 17549-2023")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 17549-2023 tillsynsbegäran mail.docx", "A 17549-2023")</f>
         <v/>
       </c>
-      <c r="Z26">
+      <c r="Z27">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 17549-2023 prioriterade fågelarter.docx", "A 17549-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>A 45032-2023</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B28" s="1" t="n">
         <v>45190</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="C28" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G28" t="n">
         <v>6.3</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>2</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>2</v>
       </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>2</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
+      <c r="R28" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45032-2023 artfynd.xlsx", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="T27">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45032-2023 karta.png", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="V27">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45032-2023 FSC-klagomål.docx", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="W27">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45032-2023 FSC-klagomål mail.docx", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="X27">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45032-2023 tillsynsbegäran.docx", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="Y27">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45032-2023 tillsynsbegäran mail.docx", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="Z27">
+      <c r="Z28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 45032-2023 prioriterade fågelarter.docx", "A 45032-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 45030-2023</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 45779-2024</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45779-2024 artfynd.xlsx", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45779-2024 karta.png", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45779-2024 FSC-klagomål.docx", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45779-2024 FSC-klagomål mail.docx", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45779-2024 tillsynsbegäran.docx", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45779-2024 tillsynsbegäran mail.docx", "A 45779-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A 1474-2026</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G30" t="n">
         <v>3.8</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>2</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>2</v>
       </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>2</v>
       </c>
-      <c r="R28" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Harticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45030-2023 artfynd.xlsx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45030-2023 karta.png", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45030-2023 FSC-klagomål.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45030-2023 FSC-klagomål mail.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45030-2023 tillsynsbegäran.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45030-2023 tillsynsbegäran mail.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 45779-2024</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>45579</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="S30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1474-2026 artfynd.xlsx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="T30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1474-2026 karta.png", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="V30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1474-2026 FSC-klagomål.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="W30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1474-2026 FSC-klagomål mail.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="X30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1474-2026 tillsynsbegäran.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="Y30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1474-2026 tillsynsbegäran mail.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>A 1478-2026</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>2</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>2</v>
       </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2</v>
       </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45779-2024 artfynd.xlsx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45779-2024 karta.png", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45779-2024 FSC-klagomål.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45779-2024 FSC-klagomål mail.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45779-2024 tillsynsbegäran.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45779-2024 tillsynsbegäran mail.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A 1478-2026</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
         <v/>
       </c>
-      <c r="T30">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
         <v/>
       </c>
-      <c r="V30">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
         <v/>
       </c>
-      <c r="W30">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
         <v/>
       </c>
-      <c r="X30">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
         <v/>
       </c>
-      <c r="Z30">
+      <c r="Z31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>A 1474-2026</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>Harticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1474-2026 artfynd.xlsx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1474-2026 karta.png", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1474-2026 FSC-klagomål.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1474-2026 FSC-klagomål mail.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1474-2026 tillsynsbegäran.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1474-2026 tillsynsbegäran mail.docx", "A 1474-2026")</f>
         <v/>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
         <v>44841</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>45079</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3609,14 +3609,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 18921-2025</t>
+          <t>A 26503-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45764</v>
+        <v>45807</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3628,28 +3628,23 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3661,52 +3656,52 @@
         <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Bergand</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 18921-2025 artfynd.xlsx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 18921-2025 karta.png", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 18921-2025 FSC-klagomål.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 18921-2025 FSC-klagomål mail.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 18921-2025 tillsynsbegäran.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 18921-2025 tillsynsbegäran mail.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 30592-2023</t>
+          <t>A 41375-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45112</v>
+        <v>45559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3720,20 +3715,20 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>19</v>
+        <v>5.9</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3748,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3758,49 +3753,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
-        <v/>
-      </c>
-      <c r="Z35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 41375-2024</t>
+          <t>A 12403-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45559</v>
+        <v>45730</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3812,23 +3803,18 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>5.9</v>
+        <v>10.1</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
       </c>
       <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>1</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
@@ -3842,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3852,45 +3838,49 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
+        <v/>
+      </c>
+      <c r="Z36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12403-2025</t>
+          <t>A 30592-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45730</v>
+        <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3902,8 +3892,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>10.1</v>
+        <v>19</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -3941,45 +3936,45 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="Z37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 26503-2025</t>
+          <t>A 18921-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45807</v>
+        <v>45764</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3991,23 +3986,28 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -4019,38 +4019,38 @@
         <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Bergand</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 18921-2025 artfynd.xlsx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 18921-2025 karta.png", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 18921-2025 FSC-klagomål.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 18921-2025 FSC-klagomål mail.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 18921-2025 tillsynsbegäran.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 18921-2025 tillsynsbegäran mail.docx", "A 18921-2025")</f>
         <v/>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
         <v>44520</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44642</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>44246</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4409,14 +4409,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 19620-2022</t>
+          <t>A 44751-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44694</v>
+        <v>44840</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4430,11 +4430,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>26.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4471,14 +4471,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 44751-2022</t>
+          <t>A 52573-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44840</v>
+        <v>44874</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4490,13 +4490,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>26.1</v>
+        <v>7.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4533,14 +4528,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 72279-2021</t>
+          <t>A 56278-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44543</v>
+        <v>44479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4553,7 +4548,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4590,14 +4585,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 58879-2021</t>
+          <t>A 19620-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44489</v>
+        <v>44694</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4609,8 +4604,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>8</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4647,14 +4647,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 56278-2021</t>
+          <t>A 72279-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44479</v>
+        <v>44543</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4704,14 +4704,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 8727-2021</t>
+          <t>A 27092-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44246</v>
+        <v>44741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4723,13 +4723,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>12.9</v>
+        <v>15.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4766,14 +4761,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 27092-2022</t>
+          <t>A 58879-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44741</v>
+        <v>44489</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4786,7 +4781,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>15.6</v>
+        <v>8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4823,14 +4818,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 41799-2021</t>
+          <t>A 8727-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4842,8 +4837,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>11.3</v>
+        <v>12.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4880,14 +4880,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 52573-2022</t>
+          <t>A 41799-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44874</v>
+        <v>44425</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>7.7</v>
+        <v>11.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>44369</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4999,14 +4999,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 26103-2024</t>
+          <t>A 46585-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45467</v>
+        <v>44445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5018,8 +5018,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>17.2</v>
+        <v>11.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5056,14 +5061,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 46585-2021</t>
+          <t>A 46910-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44445</v>
+        <v>45583</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5075,13 +5080,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>11.1</v>
+        <v>3.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5118,14 +5118,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 56785-2024</t>
+          <t>A 55266-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45625</v>
+        <v>45621</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>45618</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5232,14 +5232,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 64826-2023</t>
+          <t>A 55422-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45281</v>
+        <v>44475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5294,14 +5294,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48376-2023</t>
+          <t>A 45072-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45205</v>
+        <v>45187</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5313,13 +5313,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>18.3</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5356,14 +5351,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 35194-2024</t>
+          <t>A 38851-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45530</v>
+        <v>45887.55271990741</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5376,7 +5371,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>20.1</v>
+        <v>15.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5413,14 +5408,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 526-2025</t>
+          <t>A 58370-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45664</v>
+        <v>45250</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5432,13 +5427,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5475,14 +5465,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 64832-2023</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45281</v>
+        <v>44833</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5495,7 +5485,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>43.6</v>
+        <v>24.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5532,14 +5522,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 36623-2023</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45153</v>
+        <v>44833</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5551,13 +5541,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>16.9</v>
+        <v>23.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5601,7 +5586,7 @@
         <v>45315</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5651,14 +5636,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 73880-2021</t>
+          <t>A 526-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44552</v>
+        <v>45664</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5670,8 +5655,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>11.2</v>
+        <v>0.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5708,14 +5698,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 25440-2024</t>
+          <t>A 29667-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45463</v>
+        <v>45825</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5733,7 +5723,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>30.7</v>
+        <v>20.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5770,14 +5760,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 46910-2024</t>
+          <t>A 25275-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45583</v>
+        <v>45079</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5789,8 +5779,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>3.6</v>
+        <v>22.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5827,14 +5822,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 30870-2023</t>
+          <t>A 25928-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45113</v>
+        <v>45467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5846,13 +5841,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>25.5</v>
+        <v>12</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5889,14 +5879,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 23949-2024</t>
+          <t>A 31104-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45455</v>
+        <v>45832.60090277778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5908,13 +5898,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5951,14 +5936,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 64822-2023</t>
+          <t>A 23949-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45281</v>
+        <v>45455</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5970,8 +5955,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6008,14 +5998,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 58370-2023</t>
+          <t>A 35627-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45250</v>
+        <v>45859</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6028,7 +6018,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6065,14 +6055,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 25559-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44833</v>
+        <v>44732</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6084,8 +6074,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>24.6</v>
+        <v>39</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6122,14 +6117,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 48376-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44833</v>
+        <v>45205</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6141,8 +6136,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>23.2</v>
+        <v>18.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6179,14 +6179,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 55422-2021</t>
+          <t>A 58989-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44475</v>
+        <v>45636</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6241,14 +6241,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 48940-2023</t>
+          <t>A 42518-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45205</v>
+        <v>45905</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6298,14 +6298,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 26470-2024</t>
+          <t>A 42325-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45468</v>
+        <v>45903</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6</v>
+        <v>11.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6355,14 +6355,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 29667-2025</t>
+          <t>A 42331-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45825</v>
+        <v>45903</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6374,13 +6374,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>20.1</v>
+        <v>10</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6417,14 +6412,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 14375-2021</t>
+          <t>A 42597-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44279</v>
+        <v>45905</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6436,13 +6431,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>60</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6479,14 +6469,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 56754-2024</t>
+          <t>A 42526-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45625</v>
+        <v>45905</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6499,7 +6489,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6536,14 +6526,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 56800-2024</t>
+          <t>A 30617-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45625</v>
+        <v>45831</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6555,8 +6545,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>3.1</v>
+        <v>39.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6593,14 +6588,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 31104-2025</t>
+          <t>A 30595-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45832.60090277778</v>
+        <v>45831</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6613,7 +6608,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.3</v>
+        <v>15.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6650,14 +6645,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 25275-2023</t>
+          <t>A 30606-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45079</v>
+        <v>45831</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6671,11 +6666,11 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>22.7</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6712,14 +6707,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 53822-2024</t>
+          <t>A 29674-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45614</v>
+        <v>45825</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6731,8 +6726,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1.6</v>
+        <v>25.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6769,14 +6769,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 56782-2024</t>
+          <t>A 29662-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45625</v>
+        <v>45825</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6788,8 +6788,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>4.3</v>
+        <v>23.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6826,14 +6831,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 56794-2024</t>
+          <t>A 54589-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45625</v>
+        <v>44473</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6846,7 +6851,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>7.5</v>
+        <v>4.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6883,14 +6888,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 25928-2024</t>
+          <t>A 36779-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45467</v>
+        <v>45873</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6903,7 +6908,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>12</v>
+        <v>17.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6940,14 +6945,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 28354-2022</t>
+          <t>A 37442-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44735</v>
+        <v>45877.54096064815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6959,13 +6964,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>0.3</v>
+        <v>4.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7002,14 +7002,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 25559-2022</t>
+          <t>A 20789-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44732</v>
+        <v>44701</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7021,13 +7021,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>39</v>
+        <v>20.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7064,14 +7059,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 45924-2023</t>
+          <t>A 44943-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45189</v>
+        <v>45918</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7083,8 +7078,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>11.2</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7121,14 +7121,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 12409-2025</t>
+          <t>A 26479-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45730.43366898148</v>
+        <v>45468</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.1</v>
+        <v>6.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7178,14 +7178,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 10825-2025</t>
+          <t>A 50255-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45722</v>
+        <v>45216</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>14.1</v>
+        <v>20</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7235,14 +7235,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 61729-2024</t>
+          <t>A 46747-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45649</v>
+        <v>45926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7254,13 +7254,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>0.4</v>
+        <v>19.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7297,14 +7292,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 30606-2025</t>
+          <t>A 53822-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45831</v>
+        <v>45614</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7316,13 +7311,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>70.40000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7359,14 +7349,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 30617-2025</t>
+          <t>A 48992-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45831</v>
+        <v>45937.58351851852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7380,11 +7370,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>39.8</v>
+        <v>2.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7421,14 +7411,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 29662-2025</t>
+          <t>A 48987-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45825</v>
+        <v>45937.5759837963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7442,11 +7432,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>23.7</v>
+        <v>6.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7483,14 +7473,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 29674-2025</t>
+          <t>A 64816-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45825</v>
+        <v>45281</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7502,13 +7492,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>25.1</v>
+        <v>13.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7545,14 +7530,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 30595-2025</t>
+          <t>A 14375-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45831</v>
+        <v>44279</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7564,8 +7549,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>15.6</v>
+        <v>60</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7602,14 +7592,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 26811-2022</t>
+          <t>A 28354-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
         <v>44735</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7627,7 +7617,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7664,14 +7654,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 29649-2024</t>
+          <t>A 25270-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45484</v>
+        <v>45079</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7685,11 +7675,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7726,14 +7716,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 36779-2025</t>
+          <t>A 73880-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45873</v>
+        <v>44552</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7746,7 +7736,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>17.2</v>
+        <v>11.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7783,14 +7773,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 37442-2025</t>
+          <t>A 26472-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45877.54096064815</v>
+        <v>45469</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7803,7 +7793,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7840,14 +7830,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 44218-2023</t>
+          <t>A 26486-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45183</v>
+        <v>45469</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7859,13 +7849,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>5</v>
+        <v>7.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7902,14 +7887,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 45072-2023</t>
+          <t>A 25239-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45187</v>
+        <v>45079</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7921,8 +7906,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7959,14 +7949,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 64837-2023</t>
+          <t>A 53246-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45281</v>
+        <v>45958.64807870371</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7978,8 +7968,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>5</v>
+        <v>36.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8016,14 +8011,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 64840-2023</t>
+          <t>A 44218-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45281</v>
+        <v>45183</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8035,8 +8030,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8073,14 +8073,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 64816-2023</t>
+          <t>A 48940-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45281</v>
+        <v>45205</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8093,7 +8093,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8130,14 +8130,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 52581-2022</t>
+          <t>A 56754-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44874</v>
+        <v>45625</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8150,7 +8150,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.4</v>
+        <v>11.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8187,14 +8187,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 26479-2024</t>
+          <t>A 30870-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45468</v>
+        <v>45113</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8206,8 +8206,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>6.9</v>
+        <v>25.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8244,14 +8249,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 26472-2024</t>
+          <t>A 34670-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45469</v>
+        <v>45847</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8264,7 +8269,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>8.199999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8301,14 +8306,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 26486-2024</t>
+          <t>A 61729-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45469</v>
+        <v>45649</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8320,8 +8325,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>7.1</v>
+        <v>0.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8358,14 +8368,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 54589-2021</t>
+          <t>A 55570-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44473</v>
+        <v>45971.65667824074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8377,8 +8387,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>4.8</v>
+        <v>10.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8415,14 +8430,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 64809-2023</t>
+          <t>A 64822-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
         <v>45281</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8435,7 +8450,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>17.8</v>
+        <v>5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8472,14 +8487,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 55266-2024</t>
+          <t>A 34426-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45621</v>
+        <v>45845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8492,7 +8507,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>11.3</v>
+        <v>4.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8529,14 +8544,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 20789-2022</t>
+          <t>A 26811-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44701</v>
+        <v>44735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8548,8 +8563,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>20.3</v>
+        <v>0.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8586,14 +8606,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 26773-2022</t>
+          <t>A 29649-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44732</v>
+        <v>45484</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8607,11 +8627,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8648,14 +8668,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 62801-2023</t>
+          <t>A 45924-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45268</v>
+        <v>45189</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8668,7 +8688,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>7.1</v>
+        <v>11.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8705,14 +8725,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 35627-2025</t>
+          <t>A 10825-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45859</v>
+        <v>45722</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8725,7 +8745,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>8</v>
+        <v>14.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8762,14 +8782,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 41061-2024</t>
+          <t>A 17536-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45558</v>
+        <v>45034</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8781,8 +8801,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>23.1</v>
+        <v>20.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8819,14 +8844,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 58989-2024</t>
+          <t>A 390-2026</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45636</v>
+        <v>46028.22915509259</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8838,13 +8863,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>3.5</v>
+        <v>19.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8881,14 +8901,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 42325-2025</t>
+          <t>A 20905-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45903</v>
+        <v>45777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8901,7 +8921,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8938,14 +8958,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 42331-2025</t>
+          <t>A 62801-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45903</v>
+        <v>45268</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8958,7 +8978,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>10</v>
+        <v>7.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8995,14 +9015,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 42274-2022</t>
+          <t>A 64809-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44830</v>
+        <v>45281</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9014,13 +9034,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>6.5</v>
+        <v>17.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9057,14 +9072,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 42518-2025</t>
+          <t>A 64826-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45905</v>
+        <v>45281</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9076,8 +9091,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>13.3</v>
+        <v>5.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9114,14 +9134,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 42597-2025</t>
+          <t>A 26470-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45905</v>
+        <v>45468</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9134,7 +9154,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>9.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9171,14 +9191,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 42526-2025</t>
+          <t>A 52581-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45905</v>
+        <v>44874</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9191,7 +9211,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>12.5</v>
+        <v>3.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9228,14 +9248,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 44943-2025</t>
+          <t>A 59887-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45918</v>
+        <v>45993.32416666667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9247,13 +9267,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9290,14 +9305,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 50255-2023</t>
+          <t>A 25440-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45216</v>
+        <v>45463</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9309,8 +9324,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>20</v>
+        <v>30.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9347,14 +9367,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 46747-2025</t>
+          <t>A 60767-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45926</v>
+        <v>45999.3869212963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9367,7 +9387,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>19.7</v>
+        <v>11.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9404,14 +9424,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 48987-2025</t>
+          <t>A 60766-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45937.5759837963</v>
+        <v>45999.38688657407</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9423,13 +9443,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9466,14 +9481,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 48992-2025</t>
+          <t>A 26103-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45937.58351851852</v>
+        <v>45467</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9485,13 +9500,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>2.2</v>
+        <v>17.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9528,14 +9538,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 56276-2021</t>
+          <t>A 64832-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44479</v>
+        <v>45281</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9548,7 +9558,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>19.8</v>
+        <v>43.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9585,14 +9595,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 25270-2023</t>
+          <t>A 12447-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45079</v>
+        <v>45730</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9604,13 +9614,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>29</v>
+        <v>7.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9647,14 +9652,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 25239-2023</t>
+          <t>A 6642-2026</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45079</v>
+        <v>46056.53643518518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9666,13 +9671,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>7</v>
+        <v>13.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9709,14 +9709,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 53246-2025</t>
+          <t>A 12409-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45958.64807870371</v>
+        <v>45730.43366898148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9728,13 +9728,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>36.7</v>
+        <v>4.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9771,14 +9766,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 34670-2025</t>
+          <t>A 26773-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45847</v>
+        <v>44732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9790,8 +9785,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>2.3</v>
+        <v>34</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9828,14 +9828,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 55570-2025</t>
+          <t>A 35194-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45971.65667824074</v>
+        <v>45530</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9847,13 +9847,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>10.6</v>
+        <v>20.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9890,14 +9885,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 34426-2025</t>
+          <t>A 36623-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45845</v>
+        <v>45153</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9909,8 +9904,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>4.3</v>
+        <v>16.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9947,14 +9947,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 17536-2023</t>
+          <t>A 64837-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45034</v>
+        <v>45281</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9966,13 +9966,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>20.3</v>
+        <v>5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -10009,14 +10004,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 390-2026</t>
+          <t>A 64840-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46028.22915509259</v>
+        <v>45281</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10029,7 +10024,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>19.5</v>
+        <v>3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10066,14 +10061,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 20905-2025</t>
+          <t>A 41061-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45777</v>
+        <v>45558</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10086,7 +10081,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>10.6</v>
+        <v>23.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10123,14 +10118,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 59887-2025</t>
+          <t>A 56785-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45993.32416666667</v>
+        <v>45625</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10143,7 +10138,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>11.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10180,14 +10175,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 60767-2025</t>
+          <t>A 56800-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45999.3869212963</v>
+        <v>45625</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10200,7 +10195,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>11.3</v>
+        <v>3.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10237,14 +10232,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 60766-2025</t>
+          <t>A 56794-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45999.38688657407</v>
+        <v>45625</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10257,7 +10252,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10294,14 +10289,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 12447-2025</t>
+          <t>A 56782-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45730</v>
+        <v>45625</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10314,7 +10309,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>7.9</v>
+        <v>4.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10351,14 +10346,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 6642-2026</t>
+          <t>A 42274-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46056.53643518518</v>
+        <v>44830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10370,8 +10365,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>13.5</v>
+        <v>6.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10408,14 +10408,14 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 38851-2025</t>
+          <t>A 56276-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45887.55271990741</v>
+        <v>44479</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>15.2</v>
+        <v>19.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -575,7 +575,7 @@
         <v>45281</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44382</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>45467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         <v>45891.34503472222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45281</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45576</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45831</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>45818</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45671</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45203</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45327</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45079</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>45845</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44851</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45937</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2433,14 +2433,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 26143-2024</t>
+          <t>A 1479-2026</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45467</v>
+        <v>46033</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2452,17 +2452,22 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>8.1</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2477,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2486,218 +2491,213 @@
         <v>3</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Garnlav
+Granticka</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1479-2026 artfynd.xlsx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1479-2026 karta.png", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1479-2026 FSC-klagomål.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1479-2026 FSC-klagomål mail.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1479-2026 tillsynsbegäran.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1479-2026 tillsynsbegäran mail.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 26143-2024</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45467</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Blanksvart spiklav
 Knottrig blåslav
 Vedticka</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26143-2024 artfynd.xlsx", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26143-2024 karta.png", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26143-2024 FSC-klagomål.docx", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26143-2024 FSC-klagomål mail.docx", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26143-2024 tillsynsbegäran.docx", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26143-2024 tillsynsbegäran mail.docx", "A 26143-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 45031-2023</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>45190</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="C23" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G23" t="n">
         <v>10.3</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>3</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>3</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>3</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
 Granticka</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45031-2023 artfynd.xlsx", "A 45031-2023")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45031-2023 karta.png", "A 45031-2023")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45031-2023 FSC-klagomål.docx", "A 45031-2023")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45031-2023 FSC-klagomål mail.docx", "A 45031-2023")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45031-2023 tillsynsbegäran.docx", "A 45031-2023")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45031-2023 tillsynsbegäran mail.docx", "A 45031-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 1479-2026</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>10</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>3</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Garnlav
-Granticka</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1479-2026 artfynd.xlsx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1479-2026 karta.png", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1479-2026 FSC-klagomål.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1479-2026 FSC-klagomål mail.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1479-2026 tillsynsbegäran.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1479-2026 tillsynsbegäran mail.docx", "A 1479-2026")</f>
         <v/>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
         <v>45366</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44280</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>45190</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>45034</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>45190</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3157,14 +3157,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 45779-2024</t>
+          <t>A 1474-2026</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45579</v>
+        <v>46033</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3178,11 +3178,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6.8</v>
+        <v>3.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3216,218 +3216,218 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
+          <t>Harticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1474-2026 artfynd.xlsx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1474-2026 karta.png", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1474-2026 FSC-klagomål.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1474-2026 FSC-klagomål mail.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1474-2026 tillsynsbegäran.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1474-2026 tillsynsbegäran mail.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A 1478-2026</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="T30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="V30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="W30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="X30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="Y30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="Z30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>A 45779-2024</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
           <t>Granticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S29">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45779-2024 artfynd.xlsx", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="T29">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45779-2024 karta.png", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="V29">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45779-2024 FSC-klagomål.docx", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="W29">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45779-2024 FSC-klagomål mail.docx", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="X29">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45779-2024 tillsynsbegäran.docx", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="Y29">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45779-2024 tillsynsbegäran mail.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A 1474-2026</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>Harticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1474-2026 artfynd.xlsx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1474-2026 karta.png", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1474-2026 FSC-klagomål.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1474-2026 FSC-klagomål mail.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1474-2026 tillsynsbegäran.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1474-2026 tillsynsbegäran mail.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>A 1478-2026</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="Z31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
         <v/>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
         <v>44841</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>45079</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3609,14 +3609,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 26503-2025</t>
+          <t>A 41375-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45807</v>
+        <v>45559</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3628,14 +3628,19 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>20</v>
+        <v>5.9</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3644,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3653,55 +3658,55 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Bergand</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 41375-2024</t>
+          <t>A 12403-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45559</v>
+        <v>45730</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3713,23 +3718,18 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>5.9</v>
+        <v>10.1</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>1</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3753,45 +3753,49 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
+        <v/>
+      </c>
+      <c r="Z35">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12403-2025</t>
+          <t>A 26503-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45730</v>
+        <v>45807</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3804,7 +3808,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>10.1</v>
+        <v>20</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3813,13 +3817,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -3831,42 +3835,38 @@
         <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bergand</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
-        <v/>
-      </c>
-      <c r="Z36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>45764</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>44520</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44642</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>44246</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44840</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4471,14 +4471,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 52573-2022</t>
+          <t>A 56278-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44874</v>
+        <v>44479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>7.7</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4528,14 +4528,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 56278-2021</t>
+          <t>A 52573-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44479</v>
+        <v>44874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>7.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>44694</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44543</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>44489</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44246</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>44425</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>44369</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>44445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45583</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5118,14 +5118,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 55266-2024</t>
+          <t>A 55124-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45621</v>
+        <v>45618</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>11.3</v>
+        <v>18.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5175,14 +5175,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 55124-2024</t>
+          <t>A 55422-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45618</v>
+        <v>44475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,8 +5194,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>18.3</v>
+        <v>4.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5232,14 +5237,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 55422-2021</t>
+          <t>A 55266-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44475</v>
+        <v>45621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5251,13 +5256,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>4.1</v>
+        <v>11.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5301,7 +5301,7 @@
         <v>45187</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5351,14 +5351,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 38851-2025</t>
+          <t>A 35627-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45887.55271990741</v>
+        <v>45859</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>15.2</v>
+        <v>8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5408,14 +5408,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 58370-2023</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45250</v>
+        <v>44833</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>24.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>44833</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>24.6</v>
+        <v>23.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5522,14 +5522,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 58370-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44833</v>
+        <v>45250</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>23.2</v>
+        <v>1.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5579,14 +5579,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 3006-2024</t>
+          <t>A 58989-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45315</v>
+        <v>45636</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5598,8 +5598,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>9.1</v>
+        <v>3.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5636,14 +5641,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 526-2025</t>
+          <t>A 42518-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45664</v>
+        <v>45905</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5655,13 +5660,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>0.4</v>
+        <v>13.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5698,14 +5698,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 29667-2025</t>
+          <t>A 42325-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45825</v>
+        <v>45903</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5717,13 +5717,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>20.1</v>
+        <v>11.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5760,14 +5755,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 25275-2023</t>
+          <t>A 42331-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45079</v>
+        <v>45903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5779,13 +5774,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>22.7</v>
+        <v>10</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5822,14 +5812,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 25928-2024</t>
+          <t>A 42597-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45467</v>
+        <v>45905</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5842,7 +5832,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5879,14 +5869,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 31104-2025</t>
+          <t>A 42526-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45832.60090277778</v>
+        <v>45905</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5899,7 +5889,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.3</v>
+        <v>12.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5936,14 +5926,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 23949-2024</t>
+          <t>A 3006-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45455</v>
+        <v>45315</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5955,13 +5945,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>3.9</v>
+        <v>9.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5998,14 +5983,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 35627-2025</t>
+          <t>A 29667-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45859</v>
+        <v>45825</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6017,8 +6002,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>8</v>
+        <v>20.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6055,14 +6045,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 25559-2022</t>
+          <t>A 526-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44732</v>
+        <v>45664</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6080,7 +6070,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>39</v>
+        <v>0.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6117,14 +6107,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 48376-2023</t>
+          <t>A 25275-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45205</v>
+        <v>45079</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6138,11 +6128,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>18.3</v>
+        <v>22.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6179,14 +6169,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 58989-2024</t>
+          <t>A 31104-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45636</v>
+        <v>45832.60090277778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6198,13 +6188,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6241,14 +6226,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 42518-2025</t>
+          <t>A 44943-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45905</v>
+        <v>45918</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6260,8 +6245,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>13.3</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6298,14 +6288,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 42325-2025</t>
+          <t>A 50255-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45903</v>
+        <v>45216</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6318,7 +6308,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>11.3</v>
+        <v>20</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6355,14 +6345,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 42331-2025</t>
+          <t>A 25928-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45903</v>
+        <v>45467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6375,7 +6365,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6412,14 +6402,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 42597-2025</t>
+          <t>A 23949-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45905</v>
+        <v>45455</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6431,8 +6421,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>9.199999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6469,14 +6464,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 42526-2025</t>
+          <t>A 25559-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45905</v>
+        <v>44732</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6488,8 +6483,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>12.5</v>
+        <v>39</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6526,14 +6526,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 30617-2025</t>
+          <t>A 46747-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45831</v>
+        <v>45926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6545,13 +6545,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>39.8</v>
+        <v>19.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6588,14 +6583,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 30595-2025</t>
+          <t>A 48376-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45831</v>
+        <v>45205</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6607,8 +6602,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>15.6</v>
+        <v>18.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6645,14 +6645,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 30606-2025</t>
+          <t>A 48992-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45831</v>
+        <v>45937.58351851852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6666,11 +6666,11 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>70.40000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6707,14 +6707,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 29674-2025</t>
+          <t>A 30617-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45825</v>
+        <v>45831</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>25.1</v>
+        <v>39.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6769,14 +6769,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 29662-2025</t>
+          <t>A 30595-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45825</v>
+        <v>45831</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6788,13 +6788,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>23.7</v>
+        <v>15.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6831,14 +6826,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 54589-2021</t>
+          <t>A 30606-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44473</v>
+        <v>45831</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6850,8 +6845,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>4.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6888,14 +6888,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 36779-2025</t>
+          <t>A 48987-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45873</v>
+        <v>45937.5759837963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6907,8 +6907,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>17.2</v>
+        <v>6.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6945,14 +6950,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 37442-2025</t>
+          <t>A 29674-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45877.54096064815</v>
+        <v>45825</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6964,8 +6969,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>4.6</v>
+        <v>25.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7002,14 +7012,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 20789-2022</t>
+          <t>A 29662-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44701</v>
+        <v>45825</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7021,8 +7031,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>20.3</v>
+        <v>23.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7059,14 +7074,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 44943-2025</t>
+          <t>A 36779-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45918</v>
+        <v>45873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7078,13 +7093,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>17.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7121,14 +7131,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 26479-2024</t>
+          <t>A 54589-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45468</v>
+        <v>44473</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7141,7 +7151,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>6.9</v>
+        <v>4.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7178,14 +7188,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 50255-2023</t>
+          <t>A 37442-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45216</v>
+        <v>45877.54096064815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7198,7 +7208,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>20</v>
+        <v>4.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7235,14 +7245,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 46747-2025</t>
+          <t>A 25270-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45926</v>
+        <v>45079</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7254,8 +7264,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>19.7</v>
+        <v>29</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7292,14 +7307,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 53822-2024</t>
+          <t>A 25239-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45614</v>
+        <v>45079</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7311,8 +7326,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7349,14 +7369,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 48992-2025</t>
+          <t>A 6642-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45937.58351851852</v>
+        <v>46056.53643518518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7368,13 +7388,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>2.2</v>
+        <v>13.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7411,14 +7426,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 48987-2025</t>
+          <t>A 53246-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45937.5759837963</v>
+        <v>45958.64807870371</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7432,11 +7447,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6.5</v>
+        <v>36.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7473,14 +7488,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 64816-2023</t>
+          <t>A 38851-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45281</v>
+        <v>45887.55271990741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7493,7 +7508,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>13.4</v>
+        <v>15.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7530,14 +7545,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 14375-2021</t>
+          <t>A 34670-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44279</v>
+        <v>45847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7549,13 +7564,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>60</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7592,14 +7602,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 28354-2022</t>
+          <t>A 20789-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44735</v>
+        <v>44701</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7611,13 +7621,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>0.3</v>
+        <v>20.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7654,14 +7659,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 25270-2023</t>
+          <t>A 55570-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45079</v>
+        <v>45971.65667824074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7679,7 +7684,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>29</v>
+        <v>10.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7716,14 +7721,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 73880-2021</t>
+          <t>A 34426-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44552</v>
+        <v>45845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7736,7 +7741,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>11.2</v>
+        <v>4.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7773,14 +7778,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26472-2024</t>
+          <t>A 26479-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45469</v>
+        <v>45468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7793,7 +7798,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>8.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7830,14 +7835,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 26486-2024</t>
+          <t>A 17536-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45469</v>
+        <v>45034</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7849,8 +7854,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>7.1</v>
+        <v>20.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7887,14 +7897,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 25239-2023</t>
+          <t>A 390-2026</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45079</v>
+        <v>46028.22915509259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7906,13 +7916,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>7</v>
+        <v>19.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7949,14 +7954,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 53246-2025</t>
+          <t>A 12447-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45958.64807870371</v>
+        <v>45730</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7968,13 +7973,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>36.7</v>
+        <v>7.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8011,14 +8011,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 44218-2023</t>
+          <t>A 20905-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45183</v>
+        <v>45777</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8030,13 +8030,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>5</v>
+        <v>10.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8073,14 +8068,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 48940-2023</t>
+          <t>A 53822-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45205</v>
+        <v>45614</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8093,7 +8088,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>13.5</v>
+        <v>1.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8130,14 +8125,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 56754-2024</t>
+          <t>A 59887-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45625</v>
+        <v>45993.32416666667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8150,7 +8145,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>11.5</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8187,14 +8182,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 30870-2023</t>
+          <t>A 64816-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45113</v>
+        <v>45281</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8206,13 +8201,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>25.5</v>
+        <v>13.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8249,14 +8239,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 34670-2025</t>
+          <t>A 14375-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45847</v>
+        <v>44279</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8268,8 +8258,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>2.3</v>
+        <v>60</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8306,14 +8301,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 61729-2024</t>
+          <t>A 28354-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45649</v>
+        <v>44735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8331,7 +8326,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8368,14 +8363,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 55570-2025</t>
+          <t>A 60767-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45971.65667824074</v>
+        <v>45999.3869212963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8387,13 +8382,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>10.6</v>
+        <v>11.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8430,14 +8420,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 64822-2023</t>
+          <t>A 60766-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45281</v>
+        <v>45999.38688657407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8487,14 +8477,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 34426-2025</t>
+          <t>A 73880-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45845</v>
+        <v>44552</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8507,7 +8497,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.3</v>
+        <v>11.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8544,14 +8534,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 26811-2022</t>
+          <t>A 26472-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44735</v>
+        <v>45469</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8563,13 +8553,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>0.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8606,14 +8591,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 29649-2024</t>
+          <t>A 26486-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45484</v>
+        <v>45469</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8625,13 +8610,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>24</v>
+        <v>7.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8668,14 +8648,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 45924-2023</t>
+          <t>A 44218-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45189</v>
+        <v>45183</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8687,8 +8667,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>11.2</v>
+        <v>5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8725,14 +8710,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 10825-2025</t>
+          <t>A 48940-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45722</v>
+        <v>45205</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8745,7 +8730,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8782,14 +8767,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 17536-2023</t>
+          <t>A 56754-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45034</v>
+        <v>45625</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8801,13 +8786,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>20.3</v>
+        <v>11.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8844,14 +8824,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 390-2026</t>
+          <t>A 30870-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46028.22915509259</v>
+        <v>45113</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8863,8 +8843,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8901,14 +8886,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 20905-2025</t>
+          <t>A 61729-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45777</v>
+        <v>45649</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8920,8 +8905,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>10.6</v>
+        <v>0.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8958,14 +8948,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 62801-2023</t>
+          <t>A 64822-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45268</v>
+        <v>45281</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8978,7 +8968,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9015,14 +9005,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 64809-2023</t>
+          <t>A 26811-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45281</v>
+        <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9034,8 +9024,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>17.8</v>
+        <v>0.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9072,14 +9067,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 64826-2023</t>
+          <t>A 29649-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45281</v>
+        <v>45484</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9093,11 +9088,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>5.6</v>
+        <v>24</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9134,14 +9129,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 26470-2024</t>
+          <t>A 45924-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45468</v>
+        <v>45189</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9154,7 +9149,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>6</v>
+        <v>11.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9191,14 +9186,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 52581-2022</t>
+          <t>A 10825-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44874</v>
+        <v>45722</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9211,7 +9206,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.4</v>
+        <v>14.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9248,14 +9243,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 59887-2025</t>
+          <t>A 62801-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45993.32416666667</v>
+        <v>45268</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9268,7 +9263,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>7.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9305,14 +9300,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 25440-2024</t>
+          <t>A 64809-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45463</v>
+        <v>45281</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9324,13 +9319,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>30.7</v>
+        <v>17.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9367,14 +9357,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 60767-2025</t>
+          <t>A 64826-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45999.3869212963</v>
+        <v>45281</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9386,8 +9376,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>11.3</v>
+        <v>5.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9424,14 +9419,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 60766-2025</t>
+          <t>A 26470-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45999.38688657407</v>
+        <v>45468</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9444,7 +9439,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9481,14 +9476,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 26103-2024</t>
+          <t>A 52581-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45467</v>
+        <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9501,7 +9496,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>17.2</v>
+        <v>3.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9538,14 +9533,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 64832-2023</t>
+          <t>A 25440-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45281</v>
+        <v>45463</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9557,8 +9552,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>43.6</v>
+        <v>30.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9595,14 +9595,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 12447-2025</t>
+          <t>A 26103-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45730</v>
+        <v>45467</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>7.9</v>
+        <v>17.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9652,14 +9652,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 6642-2026</t>
+          <t>A 64832-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46056.53643518518</v>
+        <v>45281</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>13.5</v>
+        <v>43.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>45730.43366898148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>45530</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>45153</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>45281</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>45281</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>45558</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>45625</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>45625</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>45625</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45625</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>44830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>44479</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -575,7 +575,7 @@
         <v>45281</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44382</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>45467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         <v>45891.34503472222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45281</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45576</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45831</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>45818</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45671</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45203</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45327</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45079</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>45845</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44851</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45937</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2433,14 +2433,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 1479-2026</t>
+          <t>A 26143-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>46033</v>
+        <v>45467</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2452,22 +2452,17 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>8.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2482,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2491,135 +2486,140 @@
         <v>3</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Blanksvart spiklav
+Knottrig blåslav
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26143-2024 artfynd.xlsx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26143-2024 karta.png", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26143-2024 FSC-klagomål.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26143-2024 FSC-klagomål mail.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26143-2024 tillsynsbegäran.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26143-2024 tillsynsbegäran mail.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 45031-2023</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
 Granticka</t>
         </is>
       </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1479-2026 artfynd.xlsx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1479-2026 karta.png", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1479-2026 FSC-klagomål.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1479-2026 FSC-klagomål mail.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1479-2026 tillsynsbegäran.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1479-2026 tillsynsbegäran mail.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 26143-2024</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Blanksvart spiklav
-Knottrig blåslav
-Vedticka</t>
-        </is>
-      </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26143-2024 artfynd.xlsx", "A 26143-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45031-2023 artfynd.xlsx", "A 45031-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26143-2024 karta.png", "A 26143-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45031-2023 karta.png", "A 45031-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26143-2024 FSC-klagomål.docx", "A 26143-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45031-2023 FSC-klagomål.docx", "A 45031-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26143-2024 FSC-klagomål mail.docx", "A 26143-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45031-2023 FSC-klagomål mail.docx", "A 45031-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26143-2024 tillsynsbegäran.docx", "A 26143-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45031-2023 tillsynsbegäran.docx", "A 45031-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26143-2024 tillsynsbegäran mail.docx", "A 26143-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45031-2023 tillsynsbegäran mail.docx", "A 45031-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 45031-2023</t>
+          <t>A 1479-2026</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45190</v>
+        <v>46033</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>10.3</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2677,27 +2677,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45031-2023 artfynd.xlsx", "A 45031-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1479-2026 artfynd.xlsx", "A 1479-2026")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45031-2023 karta.png", "A 45031-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1479-2026 karta.png", "A 1479-2026")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45031-2023 FSC-klagomål.docx", "A 45031-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1479-2026 FSC-klagomål.docx", "A 1479-2026")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45031-2023 FSC-klagomål mail.docx", "A 45031-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1479-2026 FSC-klagomål mail.docx", "A 1479-2026")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45031-2023 tillsynsbegäran.docx", "A 45031-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1479-2026 tillsynsbegäran.docx", "A 1479-2026")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45031-2023 tillsynsbegäran mail.docx", "A 45031-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1479-2026 tillsynsbegäran mail.docx", "A 1479-2026")</f>
         <v/>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
         <v>45366</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44280</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>45190</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>45034</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>45190</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>46033</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>46033</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>45579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44841</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>45079</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>45559</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>45730</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>45807</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>45764</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>44520</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44642</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>44246</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44840</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44694</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44543</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>44489</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44246</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>44425</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>44369</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>44445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5061,14 +5061,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 46910-2024</t>
+          <t>A 56276-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45583</v>
+        <v>44479</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.6</v>
+        <v>19.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5118,14 +5118,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 55124-2024</t>
+          <t>A 46910-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45618</v>
+        <v>45583</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>18.3</v>
+        <v>3.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5175,14 +5175,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 55422-2021</t>
+          <t>A 55570-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44475</v>
+        <v>45971.65667824074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5196,11 +5196,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.1</v>
+        <v>10.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5244,7 +5244,7 @@
         <v>45621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5294,14 +5294,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 45072-2023</t>
+          <t>A 55124-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45187</v>
+        <v>45618</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>18.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5351,14 +5351,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 35627-2025</t>
+          <t>A 55422-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45859</v>
+        <v>44475</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5370,8 +5370,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>8</v>
+        <v>4.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5408,14 +5413,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 34426-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44833</v>
+        <v>45845</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5428,7 +5433,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>24.6</v>
+        <v>4.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5465,14 +5470,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 45072-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44833</v>
+        <v>45187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5485,7 +5490,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>23.2</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5522,14 +5527,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 58370-2023</t>
+          <t>A 35627-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45250</v>
+        <v>45859</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5542,7 +5547,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5579,14 +5584,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 58989-2024</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45636</v>
+        <v>44833</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5598,13 +5603,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>3.5</v>
+        <v>24.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5641,14 +5641,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 42518-2025</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45905</v>
+        <v>44833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>13.3</v>
+        <v>23.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5698,14 +5698,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 42325-2025</t>
+          <t>A 58989-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45903</v>
+        <v>45636</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5717,8 +5717,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>11.3</v>
+        <v>3.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5755,14 +5760,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 42331-2025</t>
+          <t>A 42518-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5775,7 +5780,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5812,14 +5817,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 42597-2025</t>
+          <t>A 42325-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45905</v>
+        <v>45903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5832,7 +5837,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>9.199999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5869,14 +5874,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 42526-2025</t>
+          <t>A 42331-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45905</v>
+        <v>45903</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5889,7 +5894,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5926,14 +5931,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 3006-2024</t>
+          <t>A 42597-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45315</v>
+        <v>45905</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5946,7 +5951,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5983,14 +5988,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 29667-2025</t>
+          <t>A 42526-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45825</v>
+        <v>45905</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6002,13 +6007,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>20.1</v>
+        <v>12.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6045,14 +6045,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 526-2025</t>
+          <t>A 58370-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45664</v>
+        <v>45250</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6064,13 +6064,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6107,14 +6102,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 25275-2023</t>
+          <t>A 17536-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45079</v>
+        <v>45034</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6132,7 +6127,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>22.7</v>
+        <v>20.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6169,14 +6164,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 31104-2025</t>
+          <t>A 44943-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45832.60090277778</v>
+        <v>45918</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6188,8 +6183,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6226,14 +6226,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 44943-2025</t>
+          <t>A 3006-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45918</v>
+        <v>45315</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6245,13 +6245,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>9.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6288,14 +6283,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 50255-2023</t>
+          <t>A 29667-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45216</v>
+        <v>45825</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6307,8 +6302,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6345,14 +6345,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 25928-2024</t>
+          <t>A 50255-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45467</v>
+        <v>45216</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6402,14 +6402,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 23949-2024</t>
+          <t>A 46747-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45455</v>
+        <v>45926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6421,13 +6421,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>3.9</v>
+        <v>19.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6464,14 +6459,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 25559-2022</t>
+          <t>A 526-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44732</v>
+        <v>45664</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6489,7 +6484,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>39</v>
+        <v>0.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6526,14 +6521,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 46747-2025</t>
+          <t>A 25275-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45926</v>
+        <v>45079</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6545,8 +6540,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>19.7</v>
+        <v>22.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6583,14 +6583,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 48376-2023</t>
+          <t>A 31104-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45205</v>
+        <v>45832.60090277778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6602,13 +6602,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>18.3</v>
+        <v>4.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6645,14 +6640,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 48992-2025</t>
+          <t>A 390-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45937.58351851852</v>
+        <v>46028.22915509259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6664,13 +6659,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>2.2</v>
+        <v>19.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6707,14 +6697,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 30617-2025</t>
+          <t>A 25928-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45831</v>
+        <v>45467</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6726,13 +6716,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>39.8</v>
+        <v>12</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6769,14 +6754,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 30595-2025</t>
+          <t>A 23949-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45831</v>
+        <v>45455</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6788,8 +6773,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>15.6</v>
+        <v>3.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6826,14 +6816,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 30606-2025</t>
+          <t>A 48992-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45831</v>
+        <v>45937.58351851852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6847,11 +6837,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>70.40000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6888,14 +6878,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 48987-2025</t>
+          <t>A 25559-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45937.5759837963</v>
+        <v>44732</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6909,11 +6899,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>6.5</v>
+        <v>39</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6950,14 +6940,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 29674-2025</t>
+          <t>A 48987-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45825</v>
+        <v>45937.5759837963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6971,11 +6961,11 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>25.1</v>
+        <v>6.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7012,14 +7002,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 29662-2025</t>
+          <t>A 48376-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45825</v>
+        <v>45205</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7033,11 +7023,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>23.7</v>
+        <v>18.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7074,14 +7064,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 36779-2025</t>
+          <t>A 25270-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45873</v>
+        <v>45079</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7093,8 +7083,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>17.2</v>
+        <v>29</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7131,14 +7126,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 54589-2021</t>
+          <t>A 30617-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44473</v>
+        <v>45831</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7150,8 +7145,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>4.8</v>
+        <v>39.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7188,14 +7188,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 37442-2025</t>
+          <t>A 30595-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45877.54096064815</v>
+        <v>45831</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.6</v>
+        <v>15.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7245,14 +7245,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25270-2023</t>
+          <t>A 30606-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45079</v>
+        <v>45831</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7266,11 +7266,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>29</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7307,14 +7307,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 25239-2023</t>
+          <t>A 29674-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45079</v>
+        <v>45825</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7328,11 +7328,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>7</v>
+        <v>25.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7369,14 +7369,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 6642-2026</t>
+          <t>A 29662-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46056.53643518518</v>
+        <v>45825</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7388,8 +7388,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>13.5</v>
+        <v>23.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7426,14 +7431,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 53246-2025</t>
+          <t>A 25239-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45958.64807870371</v>
+        <v>45079</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7451,7 +7456,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>36.7</v>
+        <v>7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7488,14 +7493,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 38851-2025</t>
+          <t>A 54589-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45887.55271990741</v>
+        <v>44473</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7508,7 +7513,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>15.2</v>
+        <v>4.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7545,14 +7550,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 34670-2025</t>
+          <t>A 53246-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45847</v>
+        <v>45958.64807870371</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7564,8 +7569,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>2.3</v>
+        <v>36.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7602,14 +7612,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 20789-2022</t>
+          <t>A 20905-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44701</v>
+        <v>45777</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7622,7 +7632,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>20.3</v>
+        <v>10.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7659,14 +7669,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 55570-2025</t>
+          <t>A 36779-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45971.65667824074</v>
+        <v>45873</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7678,13 +7688,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>10.6</v>
+        <v>17.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7721,14 +7726,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 34426-2025</t>
+          <t>A 37442-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45845</v>
+        <v>45877.54096064815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7741,7 +7746,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7778,14 +7783,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26479-2024</t>
+          <t>A 34670-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45468</v>
+        <v>45847</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7798,7 +7803,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>6.9</v>
+        <v>2.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7835,14 +7840,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 17536-2023</t>
+          <t>A 20789-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45034</v>
+        <v>44701</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7852,11 +7857,6 @@
       <c r="E103" t="inlineStr">
         <is>
           <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -7897,14 +7897,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 390-2026</t>
+          <t>A 59887-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46028.22915509259</v>
+        <v>45993.32416666667</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>19.5</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7954,14 +7954,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 12447-2025</t>
+          <t>A 26479-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45730</v>
+        <v>45468</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8011,14 +8011,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 20905-2025</t>
+          <t>A 60767-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45777</v>
+        <v>45999.3869212963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>10.6</v>
+        <v>11.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8068,14 +8068,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 53822-2024</t>
+          <t>A 60766-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45614</v>
+        <v>45999.38688657407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8125,14 +8125,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 59887-2025</t>
+          <t>A 53822-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45993.32416666667</v>
+        <v>45614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8189,7 +8189,7 @@
         <v>45281</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44279</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8363,14 +8363,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 60767-2025</t>
+          <t>A 73880-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45999.3869212963</v>
+        <v>44552</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8420,14 +8420,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 60766-2025</t>
+          <t>A 6642-2026</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45999.38688657407</v>
+        <v>46056.53643518518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>5</v>
+        <v>13.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8477,14 +8477,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 73880-2021</t>
+          <t>A 38851-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44552</v>
+        <v>45887.55271990741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>11.2</v>
+        <v>15.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>45469</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>45469</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>45183</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45205</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45625</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45113</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45649</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8948,14 +8948,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 64822-2023</t>
+          <t>A 12447-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45281</v>
+        <v>45730</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5</v>
+        <v>7.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9005,14 +9005,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 26811-2022</t>
+          <t>A 64822-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44735</v>
+        <v>45281</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9024,13 +9024,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9067,14 +9062,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 29649-2024</t>
+          <t>A 26811-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45484</v>
+        <v>44735</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9088,11 +9083,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>24</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9129,14 +9124,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 45924-2023</t>
+          <t>A 29649-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45189</v>
+        <v>45484</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9148,8 +9143,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>11.2</v>
+        <v>24</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9186,14 +9186,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 10825-2025</t>
+          <t>A 45924-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45722</v>
+        <v>45189</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>14.1</v>
+        <v>11.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9243,14 +9243,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 62801-2023</t>
+          <t>A 10825-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45268</v>
+        <v>45722</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>7.1</v>
+        <v>14.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9300,14 +9300,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 64809-2023</t>
+          <t>A 62801-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45281</v>
+        <v>45268</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>17.8</v>
+        <v>7.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9357,14 +9357,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 64826-2023</t>
+          <t>A 64809-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
         <v>45281</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9376,13 +9376,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>5.6</v>
+        <v>17.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9419,14 +9414,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 26470-2024</t>
+          <t>A 64826-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45468</v>
+        <v>45281</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9438,8 +9433,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9476,14 +9476,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 52581-2022</t>
+          <t>A 26470-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44874</v>
+        <v>45468</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9533,14 +9533,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 25440-2024</t>
+          <t>A 52581-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45463</v>
+        <v>44874</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9552,13 +9552,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>30.7</v>
+        <v>3.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9595,14 +9590,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 26103-2024</t>
+          <t>A 25440-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45467</v>
+        <v>45463</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9614,8 +9609,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>17.2</v>
+        <v>30.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9652,14 +9652,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 64832-2023</t>
+          <t>A 26103-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45281</v>
+        <v>45467</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>43.6</v>
+        <v>17.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9709,14 +9709,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 12409-2025</t>
+          <t>A 64832-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45730.43366898148</v>
+        <v>45281</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.1</v>
+        <v>43.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9766,14 +9766,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 26773-2022</t>
+          <t>A 12409-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44732</v>
+        <v>45730.43366898148</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9785,13 +9785,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>34</v>
+        <v>4.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9828,14 +9823,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 35194-2024</t>
+          <t>A 26773-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45530</v>
+        <v>44732</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9847,8 +9842,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>20.1</v>
+        <v>34</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9885,14 +9885,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 36623-2023</t>
+          <t>A 35194-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45153</v>
+        <v>45530</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9904,13 +9904,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>16.9</v>
+        <v>20.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9947,14 +9942,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 64837-2023</t>
+          <t>A 36623-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45281</v>
+        <v>45153</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9966,8 +9961,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>5</v>
+        <v>16.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -10004,14 +10004,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 64840-2023</t>
+          <t>A 64837-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
         <v>45281</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10061,14 +10061,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 41061-2024</t>
+          <t>A 64840-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45558</v>
+        <v>45281</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>23.1</v>
+        <v>3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10118,14 +10118,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 56785-2024</t>
+          <t>A 41061-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45625</v>
+        <v>45558</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>11.2</v>
+        <v>23.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10175,14 +10175,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 56800-2024</t>
+          <t>A 56785-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
         <v>45625</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.1</v>
+        <v>11.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10232,14 +10232,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 56794-2024</t>
+          <t>A 56800-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
         <v>45625</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10289,14 +10289,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 56782-2024</t>
+          <t>A 56794-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
         <v>45625</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.3</v>
+        <v>7.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10346,14 +10346,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 42274-2022</t>
+          <t>A 56782-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44830</v>
+        <v>45625</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10365,13 +10365,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>6.5</v>
+        <v>4.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10408,14 +10403,14 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 56276-2021</t>
+          <t>A 42274-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44479</v>
+        <v>44830</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10427,8 +10422,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>19.8</v>
+        <v>6.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z147"/>
+  <dimension ref="A1:Z145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45281</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44382</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>45467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         <v>45891.34503472222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45281</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45576</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45831</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>45818</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45671</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45203</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45327</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1789,14 +1789,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 59199-2021</t>
+          <t>A 25229-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44490</v>
+        <v>45079</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,11 +1808,16 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>16.2</v>
+        <v>18.2</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1842,6 +1847,100 @@
         <v>6</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Ostticka
+Gammelgransskål
+Granticka
+Rosenticka
+Rödbrun blekspik
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25229-2023 artfynd.xlsx", "A 25229-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25229-2023 karta.png", "A 25229-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25229-2023 FSC-klagomål.docx", "A 25229-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25229-2023 FSC-klagomål mail.docx", "A 25229-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25229-2023 tillsynsbegäran.docx", "A 25229-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25229-2023 tillsynsbegäran mail.docx", "A 25229-2023")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 25229-2023 prioriterade fågelarter.docx", "A 25229-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 59199-2021</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44490</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Rynkskinn
 Gammelgransskål
@@ -1851,141 +1950,42 @@
 Ullticka</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 59199-2021 artfynd.xlsx", "A 59199-2021")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 59199-2021 karta.png", "A 59199-2021")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 59199-2021 FSC-klagomål.docx", "A 59199-2021")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 59199-2021 FSC-klagomål mail.docx", "A 59199-2021")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 59199-2021 tillsynsbegäran.docx", "A 59199-2021")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 59199-2021 tillsynsbegäran mail.docx", "A 59199-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 25229-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45079</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>6</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>6</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Ostticka
-Gammelgransskål
-Granticka
-Rosenticka
-Rödbrun blekspik
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25229-2023 artfynd.xlsx", "A 25229-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25229-2023 karta.png", "A 25229-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25229-2023 FSC-klagomål.docx", "A 25229-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25229-2023 FSC-klagomål mail.docx", "A 25229-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25229-2023 tillsynsbegäran.docx", "A 25229-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25229-2023 tillsynsbegäran mail.docx", "A 25229-2023")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 25229-2023 prioriterade fågelarter.docx", "A 25229-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 34430-2025</t>
+          <t>A 47035-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45845</v>
+        <v>44851</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,40 +1997,134 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>39.6</v>
+        <v>15.9</v>
       </c>
       <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>4</v>
-      </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>5</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Månlåsbräken
+Grönkulla
+Spindelblomster
+Tibast
+Brudsporre</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 47035-2022 artfynd.xlsx", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 47035-2022 karta.png", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 47035-2022 FSC-klagomål.docx", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 47035-2022 FSC-klagomål mail.docx", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 47035-2022 tillsynsbegäran.docx", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 47035-2022 tillsynsbegäran mail.docx", "A 47035-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 34430-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Blanksvart spiklav
@@ -2039,136 +2133,42 @@
 Plattlummer</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 34430-2025 artfynd.xlsx", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 34430-2025 karta.png", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 34430-2025 FSC-klagomål.docx", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 34430-2025 FSC-klagomål mail.docx", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 34430-2025 tillsynsbegäran.docx", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 34430-2025 tillsynsbegäran mail.docx", "A 34430-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 47035-2022</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44851</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Månlåsbräken
-Grönkulla
-Spindelblomster
-Tibast
-Brudsporre</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 47035-2022 artfynd.xlsx", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 47035-2022 karta.png", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 47035-2022 FSC-klagomål.docx", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 47035-2022 FSC-klagomål mail.docx", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 47035-2022 tillsynsbegäran.docx", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 47035-2022 tillsynsbegäran mail.docx", "A 47035-2022")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 64803-2023</t>
+          <t>A 49079-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45281</v>
+        <v>45937</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2180,17 +2180,22 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>43</v>
+        <v>24.7</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2205,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2214,6 +2219,94 @@
         <v>4</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Plattlummer
+Spindelblomster
+Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 49079-2025 artfynd.xlsx", "A 49079-2025")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 49079-2025 karta.png", "A 49079-2025")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 49079-2025 FSC-klagomål.docx", "A 49079-2025")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 49079-2025 FSC-klagomål mail.docx", "A 49079-2025")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 49079-2025 tillsynsbegäran.docx", "A 49079-2025")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 49079-2025 tillsynsbegäran mail.docx", "A 49079-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 64803-2023</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>43</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Gullmurkling
 Lunglav
@@ -2221,135 +2314,42 @@
 Ullticka</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 64803-2023 artfynd.xlsx", "A 64803-2023")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 64803-2023 karta.png", "A 64803-2023")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 64803-2023 FSC-klagomål.docx", "A 64803-2023")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 64803-2023 FSC-klagomål mail.docx", "A 64803-2023")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 64803-2023 tillsynsbegäran.docx", "A 64803-2023")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 64803-2023 tillsynsbegäran mail.docx", "A 64803-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 49079-2025</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Plattlummer
-Spindelblomster
-Mattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 49079-2025 artfynd.xlsx", "A 49079-2025")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 49079-2025 karta.png", "A 49079-2025")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 49079-2025 FSC-klagomål.docx", "A 49079-2025")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 49079-2025 FSC-klagomål mail.docx", "A 49079-2025")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 49079-2025 tillsynsbegäran.docx", "A 49079-2025")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 49079-2025 tillsynsbegäran mail.docx", "A 49079-2025")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 15171-2022</t>
+          <t>A 26143-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44658</v>
+        <v>45467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>48</v>
+        <v>8.1</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2395,125 +2395,125 @@
         <v>3</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Blanksvart spiklav
+Knottrig blåslav
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26143-2024 artfynd.xlsx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26143-2024 karta.png", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26143-2024 FSC-klagomål.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26143-2024 FSC-klagomål mail.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26143-2024 tillsynsbegäran.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26143-2024 tillsynsbegäran mail.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 15171-2022</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>44658</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>48</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Lunglav
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 15171-2022 artfynd.xlsx", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 15171-2022 karta.png", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 15171-2022 FSC-klagomål.docx", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 15171-2022 FSC-klagomål mail.docx", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 15171-2022 tillsynsbegäran.docx", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 15171-2022 tillsynsbegäran mail.docx", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="Z20">
+      <c r="Z21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 15171-2022 prioriterade fågelarter.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 26143-2024</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Blanksvart spiklav
-Knottrig blåslav
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26143-2024 artfynd.xlsx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26143-2024 karta.png", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26143-2024 FSC-klagomål.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26143-2024 FSC-klagomål mail.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26143-2024 tillsynsbegäran.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26143-2024 tillsynsbegäran mail.docx", "A 26143-2024")</f>
         <v/>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
         <v>45190</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2612,14 +2612,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 1479-2026</t>
+          <t>A 10525-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46033</v>
+        <v>45366</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2631,22 +2631,17 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2661,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2670,121 +2665,126 @@
         <v>3</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Korallrot
+Spindelblomster
+Ögonpyrola</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 10525-2024 artfynd.xlsx", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 10525-2024 karta.png", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 10525-2024 FSC-klagomål.docx", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 10525-2024 FSC-klagomål mail.docx", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 10525-2024 tillsynsbegäran.docx", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 10525-2024 tillsynsbegäran mail.docx", "A 10525-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 1479-2026</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
 Granticka</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1479-2026 artfynd.xlsx", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1479-2026 karta.png", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1479-2026 FSC-klagomål.docx", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1479-2026 FSC-klagomål mail.docx", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1479-2026 tillsynsbegäran.docx", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1479-2026 tillsynsbegäran mail.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 10525-2024</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45366</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Korallrot
-Spindelblomster
-Ögonpyrola</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 10525-2024 artfynd.xlsx", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 10525-2024 karta.png", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 10525-2024 FSC-klagomål.docx", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 10525-2024 FSC-klagomål mail.docx", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 10525-2024 tillsynsbegäran.docx", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 10525-2024 tillsynsbegäran mail.docx", "A 10525-2024")</f>
         <v/>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
         <v>44280</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,14 +2881,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 45030-2023</t>
+          <t>A 17549-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45190</v>
+        <v>45034</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2900,16 +2900,11 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>3.8</v>
+        <v>18.8</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2940,403 +2935,408 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
+          <t>Granticka
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 17549-2023 artfynd.xlsx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 17549-2023 karta.png", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 17549-2023 FSC-klagomål.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 17549-2023 FSC-klagomål mail.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 17549-2023 tillsynsbegäran.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 17549-2023 tillsynsbegäran mail.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="Z26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 17549-2023 prioriterade fågelarter.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 1478-2026</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 1474-2026</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
           <t>Harticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45030-2023 artfynd.xlsx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45030-2023 karta.png", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45030-2023 FSC-klagomål.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45030-2023 FSC-klagomål mail.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45030-2023 tillsynsbegäran.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45030-2023 tillsynsbegäran mail.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 17549-2023</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>45034</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="H27" t="n">
+      <c r="S28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1474-2026 artfynd.xlsx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1474-2026 karta.png", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="V28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1474-2026 FSC-klagomål.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="W28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1474-2026 FSC-klagomål mail.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="X28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1474-2026 tillsynsbegäran.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="Y28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1474-2026 tillsynsbegäran mail.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 45032-2023</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H29" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>2</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>2</v>
       </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>2</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 17549-2023 artfynd.xlsx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 17549-2023 karta.png", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 17549-2023 FSC-klagomål.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 17549-2023 FSC-klagomål mail.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 17549-2023 tillsynsbegäran.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 17549-2023 tillsynsbegäran mail.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 17549-2023 prioriterade fågelarter.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 45032-2023</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>2</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S28">
+      <c r="S29">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45032-2023 artfynd.xlsx", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="T28">
+      <c r="T29">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45032-2023 karta.png", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="V28">
+      <c r="V29">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45032-2023 FSC-klagomål.docx", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="W28">
+      <c r="W29">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45032-2023 FSC-klagomål mail.docx", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="X28">
+      <c r="X29">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45032-2023 tillsynsbegäran.docx", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="Y28">
+      <c r="Y29">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45032-2023 tillsynsbegäran mail.docx", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="Z28">
+      <c r="Z29">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 45032-2023 prioriterade fågelarter.docx", "A 45032-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 1474-2026</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A 45030-2023</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G30" t="n">
         <v>3.8</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>2</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>2</v>
       </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>2</v>
       </c>
-      <c r="R29" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Harticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1474-2026 artfynd.xlsx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1474-2026 karta.png", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1474-2026 FSC-klagomål.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1474-2026 FSC-klagomål mail.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1474-2026 tillsynsbegäran.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1474-2026 tillsynsbegäran mail.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A 1478-2026</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Tretåig hackspett</t>
-        </is>
-      </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45030-2023 artfynd.xlsx", "A 45030-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45030-2023 karta.png", "A 45030-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45030-2023 FSC-klagomål.docx", "A 45030-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45030-2023 FSC-klagomål mail.docx", "A 45030-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45030-2023 tillsynsbegäran.docx", "A 45030-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45030-2023 tillsynsbegäran mail.docx", "A 45030-2023")</f>
         <v/>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
         <v>45579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44841</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3519,14 +3519,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 25279-2023</t>
+          <t>A 12403-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45079</v>
+        <v>45730</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3538,23 +3538,18 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>6.9</v>
+        <v>10.1</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
       </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>1</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
@@ -3568,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3578,45 +3573,49 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25279-2023 artfynd.xlsx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25279-2023 karta.png", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25279-2023 FSC-klagomål.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25279-2023 FSC-klagomål mail.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25279-2023 tillsynsbegäran.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25279-2023 tillsynsbegäran mail.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
+        <v/>
+      </c>
+      <c r="Z33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41375-2024</t>
+          <t>A 25279-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45559</v>
+        <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3634,7 +3633,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3668,45 +3667,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25279-2023 artfynd.xlsx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25279-2023 karta.png", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25279-2023 FSC-klagomål.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25279-2023 FSC-klagomål mail.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25279-2023 tillsynsbegäran.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25279-2023 tillsynsbegäran mail.docx", "A 25279-2023")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 12403-2025</t>
+          <t>A 30592-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45730</v>
+        <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3718,8 +3717,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>10.1</v>
+        <v>19</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3757,31 +3761,31 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="Z35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
         <v/>
       </c>
     </row>
@@ -3795,7 +3799,7 @@
         <v>45807</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3873,14 +3877,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 30592-2023</t>
+          <t>A 18921-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45112</v>
+        <v>45764</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3894,14 +3898,14 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3932,49 +3936,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 18921-2025 artfynd.xlsx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 18921-2025 karta.png", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 18921-2025 FSC-klagomål.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 18921-2025 FSC-klagomål mail.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 18921-2025 tillsynsbegäran.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
-        <v/>
-      </c>
-      <c r="Z37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 18921-2025 tillsynsbegäran mail.docx", "A 18921-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 18921-2025</t>
+          <t>A 41375-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45764</v>
+        <v>45559</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3988,20 +3988,20 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>12.5</v>
+        <v>5.9</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -4026,31 +4026,31 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 18921-2025 artfynd.xlsx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 18921-2025 karta.png", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 18921-2025 FSC-klagomål.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 18921-2025 FSC-klagomål mail.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 18921-2025 tillsynsbegäran.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 18921-2025 tillsynsbegäran mail.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
         <v>44520</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44642</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4347,14 +4347,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 8721-2021</t>
+          <t>A 44751-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44246</v>
+        <v>44840</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4368,11 +4368,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>48.3</v>
+        <v>26.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4409,14 +4409,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 44751-2022</t>
+          <t>A 56278-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44840</v>
+        <v>44479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4428,13 +4428,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>26.1</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4471,14 +4466,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 56278-2021</t>
+          <t>A 52573-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44479</v>
+        <v>44874</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4491,7 +4486,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>7.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4528,14 +4523,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 52573-2022</t>
+          <t>A 19620-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44874</v>
+        <v>44694</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4547,8 +4542,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>7.7</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4585,14 +4585,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 19620-2022</t>
+          <t>A 72279-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44694</v>
+        <v>44543</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4604,13 +4604,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4647,14 +4642,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 72279-2021</t>
+          <t>A 27092-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44543</v>
+        <v>44741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4667,7 +4662,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.4</v>
+        <v>15.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4704,14 +4699,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 27092-2022</t>
+          <t>A 58879-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44741</v>
+        <v>44489</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4724,7 +4719,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>15.6</v>
+        <v>8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4761,14 +4756,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 58879-2021</t>
+          <t>A 41799-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44489</v>
+        <v>44425</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4781,7 +4776,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>8</v>
+        <v>11.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4818,14 +4813,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 8727-2021</t>
+          <t>A 31439-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44246</v>
+        <v>44369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4843,7 +4838,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>12.9</v>
+        <v>7.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4880,14 +4875,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 41799-2021</t>
+          <t>A 46585-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44425</v>
+        <v>44445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4899,8 +4894,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4937,14 +4937,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 31439-2021</t>
+          <t>A 55124-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44369</v>
+        <v>45618</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4956,13 +4956,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>7.2</v>
+        <v>18.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4999,14 +4994,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 46585-2021</t>
+          <t>A 56785-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44445</v>
+        <v>45625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5018,13 +5013,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5061,14 +5051,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 56276-2021</t>
+          <t>A 48376-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44479</v>
+        <v>45205</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5080,8 +5070,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>19.8</v>
+        <v>18.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5118,14 +5113,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 46910-2024</t>
+          <t>A 48987-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45583</v>
+        <v>45937.5759837963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5137,8 +5132,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5175,14 +5175,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 55570-2025</t>
+          <t>A 56276-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45971.65667824074</v>
+        <v>44479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,13 +5194,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>10.6</v>
+        <v>19.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5237,14 +5232,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 55266-2024</t>
+          <t>A 35627-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45621</v>
+        <v>45859</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5257,7 +5252,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>11.3</v>
+        <v>8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5294,14 +5289,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 55124-2024</t>
+          <t>A 48992-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45618</v>
+        <v>45937.58351851852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5313,8 +5308,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>18.3</v>
+        <v>2.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5351,14 +5351,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 55422-2021</t>
+          <t>A 26103-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44475</v>
+        <v>45467</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5370,13 +5370,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>4.1</v>
+        <v>17.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5413,14 +5408,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 34426-2025</t>
+          <t>A 58989-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45845</v>
+        <v>45636</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5432,8 +5427,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5470,14 +5470,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 45072-2023</t>
+          <t>A 42325-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45187</v>
+        <v>45903</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>11.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5527,14 +5527,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 35627-2025</t>
+          <t>A 42331-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45859</v>
+        <v>45903</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5584,14 +5584,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 42518-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44833</v>
+        <v>45905</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>24.6</v>
+        <v>13.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5641,14 +5641,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 42597-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44833</v>
+        <v>45905</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>23.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5698,14 +5698,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 58989-2024</t>
+          <t>A 64826-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45636</v>
+        <v>45281</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5760,14 +5760,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 42518-2025</t>
+          <t>A 25270-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45905</v>
+        <v>45079</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5779,8 +5779,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>13.3</v>
+        <v>29</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5817,14 +5822,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 42325-2025</t>
+          <t>A 42526-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5837,7 +5842,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>11.3</v>
+        <v>12.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5874,14 +5879,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 42331-2025</t>
+          <t>A 25239-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45903</v>
+        <v>45079</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5893,8 +5898,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5931,14 +5941,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 42597-2025</t>
+          <t>A 53246-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45905</v>
+        <v>45958.64807870371</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5950,8 +5960,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>9.199999999999999</v>
+        <v>36.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5988,14 +6003,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 42526-2025</t>
+          <t>A 35194-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45905</v>
+        <v>45530</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6008,7 +6023,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>12.5</v>
+        <v>20.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6045,14 +6060,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 58370-2023</t>
+          <t>A 34670-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45250</v>
+        <v>45847</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6065,7 +6080,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6102,14 +6117,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 17536-2023</t>
+          <t>A 55570-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45034</v>
+        <v>45971.65667824074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6127,7 +6142,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>20.3</v>
+        <v>10.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6171,7 +6186,7 @@
         <v>45918</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6226,14 +6241,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3006-2024</t>
+          <t>A 526-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45315</v>
+        <v>45664</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6245,8 +6260,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>9.1</v>
+        <v>0.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6283,14 +6303,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 29667-2025</t>
+          <t>A 64832-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45825</v>
+        <v>45281</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6302,13 +6322,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>20.1</v>
+        <v>43.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6345,14 +6360,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 50255-2023</t>
+          <t>A 36623-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45216</v>
+        <v>45153</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6364,8 +6379,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>20</v>
+        <v>16.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6402,14 +6422,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 46747-2025</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45926</v>
+        <v>44833</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6422,7 +6442,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>19.7</v>
+        <v>24.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6459,14 +6479,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 526-2025</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45664</v>
+        <v>44833</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6478,13 +6498,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>0.4</v>
+        <v>23.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6521,14 +6536,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 25275-2023</t>
+          <t>A 50255-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45079</v>
+        <v>45216</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6540,13 +6555,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>22.7</v>
+        <v>20</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6583,14 +6593,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 31104-2025</t>
+          <t>A 34426-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45832.60090277778</v>
+        <v>45845</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6640,14 +6650,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 390-2026</t>
+          <t>A 46747-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46028.22915509259</v>
+        <v>45926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6660,7 +6670,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6697,14 +6707,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25928-2024</t>
+          <t>A 73880-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45467</v>
+        <v>44552</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6717,7 +6727,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>12</v>
+        <v>11.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6754,14 +6764,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 23949-2024</t>
+          <t>A 29667-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45455</v>
+        <v>45825</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6775,11 +6785,11 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.9</v>
+        <v>20.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6816,14 +6826,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 48992-2025</t>
+          <t>A 23949-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45937.58351851852</v>
+        <v>45455</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6837,11 +6847,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6878,14 +6888,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 25559-2022</t>
+          <t>A 31104-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44732</v>
+        <v>45832.60090277778</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6897,13 +6907,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>39</v>
+        <v>4.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6940,14 +6945,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 48987-2025</t>
+          <t>A 25275-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45937.5759837963</v>
+        <v>45079</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6961,11 +6966,11 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.5</v>
+        <v>22.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7002,14 +7007,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 48376-2023</t>
+          <t>A 55422-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45205</v>
+        <v>44475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7023,11 +7028,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>18.3</v>
+        <v>4.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7064,14 +7069,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25270-2023</t>
+          <t>A 17536-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45079</v>
+        <v>45034</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7089,7 +7094,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>29</v>
+        <v>20.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7126,14 +7131,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 30617-2025</t>
+          <t>A 48940-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45831</v>
+        <v>45205</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7145,13 +7150,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>39.8</v>
+        <v>13.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7188,14 +7188,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 30595-2025</t>
+          <t>A 390-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45831</v>
+        <v>46028.22915509259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>15.6</v>
+        <v>19.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7245,14 +7245,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 30606-2025</t>
+          <t>A 25559-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45831</v>
+        <v>44732</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7266,11 +7266,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>70.40000000000001</v>
+        <v>39</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7307,14 +7307,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 29674-2025</t>
+          <t>A 20905-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45825</v>
+        <v>45777</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7326,13 +7326,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>25.1</v>
+        <v>10.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7369,14 +7364,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 29662-2025</t>
+          <t>A 30606-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45825</v>
+        <v>45831</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7394,7 +7389,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>23.7</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7431,14 +7426,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 25239-2023</t>
+          <t>A 30617-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45079</v>
+        <v>45831</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7452,11 +7447,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>7</v>
+        <v>39.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7493,14 +7488,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 54589-2021</t>
+          <t>A 29662-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44473</v>
+        <v>45825</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7512,8 +7507,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>4.8</v>
+        <v>23.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7550,14 +7550,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 53246-2025</t>
+          <t>A 29674-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45958.64807870371</v>
+        <v>45825</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7571,11 +7571,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>36.7</v>
+        <v>25.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7612,14 +7612,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 20905-2025</t>
+          <t>A 30595-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45777</v>
+        <v>45831</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>10.6</v>
+        <v>15.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7669,14 +7669,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 36779-2025</t>
+          <t>A 59887-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45873</v>
+        <v>45993.32416666667</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>17.2</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7726,14 +7726,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 37442-2025</t>
+          <t>A 53822-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45877.54096064815</v>
+        <v>45614</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7783,14 +7783,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 34670-2025</t>
+          <t>A 36779-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45847</v>
+        <v>45873</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.3</v>
+        <v>17.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7840,14 +7840,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 20789-2022</t>
+          <t>A 28354-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44701</v>
+        <v>44735</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7859,8 +7859,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>20.3</v>
+        <v>0.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7897,14 +7902,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 59887-2025</t>
+          <t>A 37442-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45993.32416666667</v>
+        <v>45877.54096064815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7917,7 +7922,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7954,14 +7959,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 26479-2024</t>
+          <t>A 10825-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45468</v>
+        <v>45722</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7974,7 +7979,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>6.9</v>
+        <v>14.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8018,7 +8023,7 @@
         <v>45999.3869212963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8075,7 +8080,7 @@
         <v>45999.38688657407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8125,14 +8130,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 53822-2024</t>
+          <t>A 61729-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45614</v>
+        <v>45649</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8144,8 +8149,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8182,14 +8192,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 64816-2023</t>
+          <t>A 29649-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45281</v>
+        <v>45484</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8201,8 +8211,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>13.4</v>
+        <v>24</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8239,14 +8254,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 14375-2021</t>
+          <t>A 45072-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44279</v>
+        <v>45187</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8258,13 +8273,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>60</v>
+        <v>2.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8301,14 +8311,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 28354-2022</t>
+          <t>A 52581-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44735</v>
+        <v>44874</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8320,13 +8330,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8363,14 +8368,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 73880-2021</t>
+          <t>A 6642-2026</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44552</v>
+        <v>46056.53643518518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8383,7 +8388,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>11.2</v>
+        <v>13.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8420,14 +8425,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 6642-2026</t>
+          <t>A 54589-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46056.53643518518</v>
+        <v>44473</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8440,7 +8445,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>13.5</v>
+        <v>4.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8484,7 +8489,7 @@
         <v>45887.55271990741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8534,14 +8539,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 26472-2024</t>
+          <t>A 3006-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45469</v>
+        <v>45315</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8554,7 +8559,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>8.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8591,14 +8596,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 26486-2024</t>
+          <t>A 25440-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45469</v>
+        <v>45463</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8610,8 +8615,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>7.1</v>
+        <v>30.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8648,14 +8658,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 44218-2023</t>
+          <t>A 12447-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45183</v>
+        <v>45730</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8667,13 +8677,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>5</v>
+        <v>7.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8710,14 +8715,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 48940-2023</t>
+          <t>A 26470-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45205</v>
+        <v>45468</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8730,7 +8735,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>13.5</v>
+        <v>6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8767,14 +8772,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 56754-2024</t>
+          <t>A 14375-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45625</v>
+        <v>44279</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8786,8 +8791,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>11.5</v>
+        <v>60</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8824,14 +8834,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 30870-2023</t>
+          <t>A 56754-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45113</v>
+        <v>45625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8843,13 +8853,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>25.5</v>
+        <v>11.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8886,14 +8891,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 61729-2024</t>
+          <t>A 56800-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45649</v>
+        <v>45625</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8905,13 +8910,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8948,14 +8948,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 12447-2025</t>
+          <t>A 56782-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45730</v>
+        <v>45625</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>7.9</v>
+        <v>4.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9005,14 +9005,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 64822-2023</t>
+          <t>A 56794-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45281</v>
+        <v>45625</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9062,14 +9062,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 26811-2022</t>
+          <t>A 25928-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44735</v>
+        <v>45467</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9081,13 +9081,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>12</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9124,14 +9119,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 29649-2024</t>
+          <t>A 45924-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45484</v>
+        <v>45189</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9143,13 +9138,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>24</v>
+        <v>11.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9186,14 +9176,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 45924-2023</t>
+          <t>A 12409-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45189</v>
+        <v>45730.43366898148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9206,7 +9196,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>11.2</v>
+        <v>4.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9243,14 +9233,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 10825-2025</t>
+          <t>A 26811-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45722</v>
+        <v>44735</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9262,8 +9252,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>14.1</v>
+        <v>0.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9300,14 +9295,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 62801-2023</t>
+          <t>A 44218-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45268</v>
+        <v>45183</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9319,8 +9314,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9357,14 +9357,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 64809-2023</t>
+          <t>A 64837-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
         <v>45281</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>17.8</v>
+        <v>5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9414,14 +9414,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 64826-2023</t>
+          <t>A 64840-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
         <v>45281</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9433,13 +9433,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9476,14 +9471,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 26470-2024</t>
+          <t>A 64816-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45468</v>
+        <v>45281</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9496,7 +9491,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>6</v>
+        <v>13.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9533,14 +9528,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 52581-2022</t>
+          <t>A 26479-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44874</v>
+        <v>45468</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9553,7 +9548,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.4</v>
+        <v>6.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9590,14 +9585,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 25440-2024</t>
+          <t>A 64809-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45463</v>
+        <v>45281</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9609,13 +9604,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>30.7</v>
+        <v>17.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9652,14 +9642,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 26103-2024</t>
+          <t>A 46910-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45467</v>
+        <v>45583</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9672,7 +9662,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>17.2</v>
+        <v>3.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9709,14 +9699,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 64832-2023</t>
+          <t>A 30870-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45281</v>
+        <v>45113</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9728,8 +9718,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>43.6</v>
+        <v>25.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9766,14 +9761,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 12409-2025</t>
+          <t>A 64822-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45730.43366898148</v>
+        <v>45281</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9786,7 +9781,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9823,14 +9818,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 26773-2022</t>
+          <t>A 58370-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44732</v>
+        <v>45250</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9842,13 +9837,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>34</v>
+        <v>1.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9885,14 +9875,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 35194-2024</t>
+          <t>A 26472-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45530</v>
+        <v>45469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9905,7 +9895,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>20.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9942,14 +9932,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 36623-2023</t>
+          <t>A 26486-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45153</v>
+        <v>45469</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9961,13 +9951,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>16.9</v>
+        <v>7.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -10004,14 +9989,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 64837-2023</t>
+          <t>A 55266-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45281</v>
+        <v>45621</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10024,7 +10009,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5</v>
+        <v>11.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10061,14 +10046,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 64840-2023</t>
+          <t>A 20789-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45281</v>
+        <v>44701</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10081,7 +10066,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3</v>
+        <v>20.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10118,14 +10103,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 41061-2024</t>
+          <t>A 26773-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45558</v>
+        <v>44732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10137,8 +10122,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>23.1</v>
+        <v>34</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10175,14 +10165,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 56785-2024</t>
+          <t>A 62801-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45625</v>
+        <v>45268</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10195,7 +10185,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>11.2</v>
+        <v>7.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10232,14 +10222,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 56800-2024</t>
+          <t>A 41061-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45625</v>
+        <v>45558</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10252,7 +10242,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.1</v>
+        <v>23.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10286,17 +10276,17 @@
       </c>
       <c r="R144" s="2" t="inlineStr"/>
     </row>
-    <row r="145" ht="15" customHeight="1">
+    <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 56794-2024</t>
+          <t>A 42274-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45625</v>
+        <v>44830</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10308,8 +10298,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10342,125 +10337,6 @@
         <v>0</v>
       </c>
       <c r="R145" s="2" t="inlineStr"/>
-    </row>
-    <row r="146" ht="15" customHeight="1">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>A 56782-2024</t>
-        </is>
-      </c>
-      <c r="B146" s="1" t="n">
-        <v>45625</v>
-      </c>
-      <c r="C146" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G146" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L146" t="n">
-        <v>0</v>
-      </c>
-      <c r="M146" t="n">
-        <v>0</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0</v>
-      </c>
-      <c r="O146" t="n">
-        <v>0</v>
-      </c>
-      <c r="P146" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q146" t="n">
-        <v>0</v>
-      </c>
-      <c r="R146" s="2" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>A 42274-2022</t>
-        </is>
-      </c>
-      <c r="B147" s="1" t="n">
-        <v>44830</v>
-      </c>
-      <c r="C147" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
-      <c r="G147" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0</v>
-      </c>
-      <c r="L147" t="n">
-        <v>0</v>
-      </c>
-      <c r="M147" t="n">
-        <v>0</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0</v>
-      </c>
-      <c r="O147" t="n">
-        <v>0</v>
-      </c>
-      <c r="P147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q147" t="n">
-        <v>0</v>
-      </c>
-      <c r="R147" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -575,7 +575,7 @@
         <v>45281</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44382</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,14 +787,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 26089-2024</t>
+          <t>A 39728-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45467</v>
+        <v>45891.34503472222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -806,13 +806,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>40.1</v>
+        <v>36.2</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -821,10 +816,10 @@
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -839,12 +834,124 @@
         <v>15</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>19</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Blanksvart spiklav
+Blågrå svartspik
+Brunpudrad nållav
+Dvärgbägarlav
+Garnlav
+Granticka
+Gränsticka
+Harticka
+Kolflarnlav
+Kortskaftad ärgspik
+Skrovellav
+Tretåig hackspett
+Vedskivlav
+Vitgrynig nållav
+Vitplätt
+Luddlav
+Skinnlav
+Stuplav
+Lavskrika</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 39728-2025 artfynd.xlsx", "A 39728-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 39728-2025 karta.png", "A 39728-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 39728-2025 FSC-klagomål.docx", "A 39728-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 39728-2025 FSC-klagomål mail.docx", "A 39728-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 39728-2025 tillsynsbegäran.docx", "A 39728-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 39728-2025 tillsynsbegäran mail.docx", "A 39728-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 39728-2025 prioriterade fågelarter.docx", "A 39728-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 26089-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45467</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>15</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>19</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Gräddporing
@@ -867,139 +974,32 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26089-2024 artfynd.xlsx", "A 26089-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26089-2024 karta.png", "A 26089-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26089-2024 FSC-klagomål.docx", "A 26089-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26089-2024 FSC-klagomål mail.docx", "A 26089-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26089-2024 tillsynsbegäran.docx", "A 26089-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26089-2024 tillsynsbegäran mail.docx", "A 26089-2024")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 26089-2024 prioriterade fågelarter.docx", "A 26089-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 39728-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45891.34503472222</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>15</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>15</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>19</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Blanksvart spiklav
-Blågrå svartspik
-Brunpudrad nållav
-Dvärgbägarlav
-Garnlav
-Granticka
-Gränsticka
-Harticka
-Kolflarnlav
-Kortskaftad ärgspik
-Skrovellav
-Tretåig hackspett
-Vedskivlav
-Vitgrynig nållav
-Vitplätt
-Luddlav
-Skinnlav
-Stuplav
-Lavskrika</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 39728-2025 artfynd.xlsx", "A 39728-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 39728-2025 karta.png", "A 39728-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 39728-2025 FSC-klagomål.docx", "A 39728-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 39728-2025 FSC-klagomål mail.docx", "A 39728-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 39728-2025 tillsynsbegäran.docx", "A 39728-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 39728-2025 tillsynsbegäran mail.docx", "A 39728-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 39728-2025 prioriterade fågelarter.docx", "A 39728-2025")</f>
         <v/>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
         <v>45281</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45576</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45831</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1415,14 +1415,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 28351-2025</t>
+          <t>A 2256-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45818</v>
+        <v>45671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,20 +1434,25 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>5.4</v>
+        <v>17.9</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1459,15 +1464,108 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>9</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Månlåsbräken
+Nordlåsbräken
+Grönkulla
+Korallrot
+Spindelblomster
+Buskmus
+Brudsporre
+Fläcknycklar
+Fjällummer</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 2256-2025 artfynd.xlsx", "A 2256-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 2256-2025 karta.png", "A 2256-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 2256-2025 FSC-klagomål.docx", "A 2256-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 2256-2025 FSC-klagomål mail.docx", "A 2256-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 2256-2025 tillsynsbegäran.docx", "A 2256-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 2256-2025 tillsynsbegäran mail.docx", "A 2256-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 28351-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45818</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Blanksvart spiklav
@@ -1480,126 +1578,28 @@
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 28351-2025 artfynd.xlsx", "A 28351-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 28351-2025 karta.png", "A 28351-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 28351-2025 FSC-klagomål.docx", "A 28351-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 28351-2025 FSC-klagomål mail.docx", "A 28351-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 28351-2025 tillsynsbegäran.docx", "A 28351-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 28351-2025 tillsynsbegäran mail.docx", "A 28351-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 2256-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45671</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Månlåsbräken
-Nordlåsbräken
-Grönkulla
-Korallrot
-Spindelblomster
-Buskmus
-Brudsporre
-Fläcknycklar
-Fjällummer</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 2256-2025 artfynd.xlsx", "A 2256-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 2256-2025 karta.png", "A 2256-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 2256-2025 FSC-klagomål.docx", "A 2256-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 2256-2025 FSC-klagomål mail.docx", "A 2256-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 2256-2025 tillsynsbegäran.docx", "A 2256-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 2256-2025 tillsynsbegäran mail.docx", "A 2256-2025")</f>
         <v/>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
         <v>45203</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45327</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1789,14 +1789,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 25229-2023</t>
+          <t>A 59199-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45079</v>
+        <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,16 +1808,11 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>18.2</v>
+        <v>16.2</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1847,6 +1842,101 @@
         <v>6</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Rynkskinn
+Gammelgransskål
+Granticka
+Gränsticka
+Rosenticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 59199-2021 artfynd.xlsx", "A 59199-2021")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 59199-2021 karta.png", "A 59199-2021")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 59199-2021 FSC-klagomål.docx", "A 59199-2021")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 59199-2021 FSC-klagomål mail.docx", "A 59199-2021")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 59199-2021 tillsynsbegäran.docx", "A 59199-2021")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 59199-2021 tillsynsbegäran mail.docx", "A 59199-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 25229-2023</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45079</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Ostticka
 Gammelgransskål
@@ -1856,136 +1946,46 @@
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25229-2023 artfynd.xlsx", "A 25229-2023")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25229-2023 karta.png", "A 25229-2023")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25229-2023 FSC-klagomål.docx", "A 25229-2023")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25229-2023 FSC-klagomål mail.docx", "A 25229-2023")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25229-2023 tillsynsbegäran.docx", "A 25229-2023")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25229-2023 tillsynsbegäran mail.docx", "A 25229-2023")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 25229-2023 prioriterade fågelarter.docx", "A 25229-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 59199-2021</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44490</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>6</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>6</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Rynkskinn
-Gammelgransskål
-Granticka
-Gränsticka
-Rosenticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 59199-2021 artfynd.xlsx", "A 59199-2021")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 59199-2021 karta.png", "A 59199-2021")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 59199-2021 FSC-klagomål.docx", "A 59199-2021")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 59199-2021 FSC-klagomål mail.docx", "A 59199-2021")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 59199-2021 tillsynsbegäran.docx", "A 59199-2021")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 59199-2021 tillsynsbegäran mail.docx", "A 59199-2021")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 47035-2022</t>
+          <t>A 34430-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44851</v>
+        <v>45845</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,26 +1997,21 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>15.9</v>
+        <v>39.6</v>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
         <v>3</v>
       </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
@@ -2027,15 +2022,109 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
+        <v>4</v>
+      </c>
+      <c r="P16" t="n">
         <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>5</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Blanksvart spiklav
+Dvärgbägarlav
+Vedskivlav
+Plattlummer</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 34430-2025 artfynd.xlsx", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 34430-2025 karta.png", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 34430-2025 FSC-klagomål.docx", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 34430-2025 FSC-klagomål mail.docx", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 34430-2025 tillsynsbegäran.docx", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 34430-2025 tillsynsbegäran mail.docx", "A 34430-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 47035-2022</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Månlåsbräken
 Grönkulla
@@ -2044,131 +2133,42 @@
 Brudsporre</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 47035-2022 artfynd.xlsx", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 47035-2022 karta.png", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 47035-2022 FSC-klagomål.docx", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 47035-2022 FSC-klagomål mail.docx", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 47035-2022 tillsynsbegäran.docx", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 47035-2022 tillsynsbegäran mail.docx", "A 47035-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 34430-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>4</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Blanksvart spiklav
-Dvärgbägarlav
-Vedskivlav
-Plattlummer</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 34430-2025 artfynd.xlsx", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 34430-2025 karta.png", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 34430-2025 FSC-klagomål.docx", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 34430-2025 FSC-klagomål mail.docx", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 34430-2025 tillsynsbegäran.docx", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 34430-2025 tillsynsbegäran mail.docx", "A 34430-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 49079-2025</t>
+          <t>A 64803-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45937</v>
+        <v>45281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2180,23 +2180,18 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>24.7</v>
+        <v>43</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>4</v>
       </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2210,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2219,6 +2214,99 @@
         <v>4</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Gullmurkling
+Lunglav
+Rosenticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 64803-2023 artfynd.xlsx", "A 64803-2023")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 64803-2023 karta.png", "A 64803-2023")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 64803-2023 FSC-klagomål.docx", "A 64803-2023")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 64803-2023 FSC-klagomål mail.docx", "A 64803-2023")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 64803-2023 tillsynsbegäran.docx", "A 64803-2023")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 64803-2023 tillsynsbegäran mail.docx", "A 64803-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 49079-2025</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45937</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Plattlummer
 Spindelblomster
@@ -2226,130 +2314,42 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 49079-2025 artfynd.xlsx", "A 49079-2025")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 49079-2025 karta.png", "A 49079-2025")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 49079-2025 FSC-klagomål.docx", "A 49079-2025")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 49079-2025 FSC-klagomål mail.docx", "A 49079-2025")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 49079-2025 tillsynsbegäran.docx", "A 49079-2025")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 49079-2025 tillsynsbegäran mail.docx", "A 49079-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 64803-2023</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45281</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>43</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>4</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Gullmurkling
-Lunglav
-Rosenticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 64803-2023 artfynd.xlsx", "A 64803-2023")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 64803-2023 karta.png", "A 64803-2023")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 64803-2023 FSC-klagomål.docx", "A 64803-2023")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 64803-2023 FSC-klagomål mail.docx", "A 64803-2023")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 64803-2023 tillsynsbegäran.docx", "A 64803-2023")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 64803-2023 tillsynsbegäran mail.docx", "A 64803-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 26143-2024</t>
+          <t>A 15171-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45467</v>
+        <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>8.1</v>
+        <v>48</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2395,125 +2395,125 @@
         <v>3</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Lunglav
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 15171-2022 artfynd.xlsx", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 15171-2022 karta.png", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 15171-2022 FSC-klagomål.docx", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 15171-2022 FSC-klagomål mail.docx", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 15171-2022 tillsynsbegäran.docx", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 15171-2022 tillsynsbegäran mail.docx", "A 15171-2022")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 15171-2022 prioriterade fågelarter.docx", "A 15171-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 26143-2024</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45467</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Blanksvart spiklav
 Knottrig blåslav
 Vedticka</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26143-2024 artfynd.xlsx", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26143-2024 karta.png", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26143-2024 FSC-klagomål.docx", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26143-2024 FSC-klagomål mail.docx", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26143-2024 tillsynsbegäran.docx", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26143-2024 tillsynsbegäran mail.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 15171-2022</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>44658</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>48</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>3</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Lunglav
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 15171-2022 artfynd.xlsx", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 15171-2022 karta.png", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 15171-2022 FSC-klagomål.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 15171-2022 FSC-klagomål mail.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 15171-2022 tillsynsbegäran.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 15171-2022 tillsynsbegäran mail.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 15171-2022 prioriterade fågelarter.docx", "A 15171-2022")</f>
         <v/>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
         <v>45190</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2612,14 +2612,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 10525-2024</t>
+          <t>A 1479-2026</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45366</v>
+        <v>46033</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2631,18 +2631,23 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>3</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
@@ -2656,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2665,126 +2670,121 @@
         <v>3</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Garnlav
+Granticka</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1479-2026 artfynd.xlsx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1479-2026 karta.png", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1479-2026 FSC-klagomål.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1479-2026 FSC-klagomål mail.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1479-2026 tillsynsbegäran.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1479-2026 tillsynsbegäran mail.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 10525-2024</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Korallrot
 Spindelblomster
 Ögonpyrola</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 10525-2024 artfynd.xlsx", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 10525-2024 karta.png", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 10525-2024 FSC-klagomål.docx", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 10525-2024 FSC-klagomål mail.docx", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 10525-2024 tillsynsbegäran.docx", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 10525-2024 tillsynsbegäran mail.docx", "A 10525-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 1479-2026</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>10</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>3</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Garnlav
-Granticka</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1479-2026 artfynd.xlsx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1479-2026 karta.png", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1479-2026 FSC-klagomål.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1479-2026 FSC-klagomål mail.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1479-2026 tillsynsbegäran.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1479-2026 tillsynsbegäran mail.docx", "A 1479-2026")</f>
         <v/>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
         <v>44280</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,14 +2881,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 17549-2023</t>
+          <t>A 45030-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45034</v>
+        <v>45190</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2900,11 +2900,16 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>18.8</v>
+        <v>3.8</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2935,499 +2940,494 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
+          <t>Harticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45030-2023 artfynd.xlsx", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45030-2023 karta.png", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45030-2023 FSC-klagomål.docx", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45030-2023 FSC-klagomål mail.docx", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45030-2023 tillsynsbegäran.docx", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45030-2023 tillsynsbegäran mail.docx", "A 45030-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 45032-2023</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45032-2023 artfynd.xlsx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45032-2023 karta.png", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45032-2023 FSC-klagomål.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45032-2023 FSC-klagomål mail.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45032-2023 tillsynsbegäran.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45032-2023 tillsynsbegäran mail.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 45032-2023 prioriterade fågelarter.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 1474-2026</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>Harticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1474-2026 artfynd.xlsx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1474-2026 karta.png", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="V28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1474-2026 FSC-klagomål.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="W28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1474-2026 FSC-klagomål mail.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="X28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1474-2026 tillsynsbegäran.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="Y28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1474-2026 tillsynsbegäran mail.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 1478-2026</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="Z29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A 45779-2024</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45779-2024 artfynd.xlsx", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="T30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45779-2024 karta.png", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="V30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45779-2024 FSC-klagomål.docx", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="W30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45779-2024 FSC-klagomål mail.docx", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="X30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45779-2024 tillsynsbegäran.docx", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="Y30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45779-2024 tillsynsbegäran mail.docx", "A 45779-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>A 17549-2023</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
           <t>Granticka
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 17549-2023 artfynd.xlsx", "A 17549-2023")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 17549-2023 karta.png", "A 17549-2023")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 17549-2023 FSC-klagomål.docx", "A 17549-2023")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 17549-2023 FSC-klagomål mail.docx", "A 17549-2023")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 17549-2023 tillsynsbegäran.docx", "A 17549-2023")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 17549-2023 tillsynsbegäran mail.docx", "A 17549-2023")</f>
         <v/>
       </c>
-      <c r="Z26">
+      <c r="Z31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 17549-2023 prioriterade fågelarter.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 1478-2026</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>2</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 1474-2026</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>2</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>Harticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1474-2026 artfynd.xlsx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1474-2026 karta.png", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1474-2026 FSC-klagomål.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1474-2026 FSC-klagomål mail.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1474-2026 tillsynsbegäran.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1474-2026 tillsynsbegäran mail.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 45032-2023</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45032-2023 artfynd.xlsx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45032-2023 karta.png", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45032-2023 FSC-klagomål.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45032-2023 FSC-klagomål mail.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45032-2023 tillsynsbegäran.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45032-2023 tillsynsbegäran mail.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 45032-2023 prioriterade fågelarter.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A 45030-2023</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>Harticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45030-2023 artfynd.xlsx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45030-2023 karta.png", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45030-2023 FSC-klagomål.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45030-2023 FSC-klagomål mail.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45030-2023 tillsynsbegäran.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45030-2023 tillsynsbegäran mail.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>A 45779-2024</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>45579</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45779-2024 artfynd.xlsx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45779-2024 karta.png", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45779-2024 FSC-klagomål.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45779-2024 FSC-klagomål mail.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45779-2024 tillsynsbegäran.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45779-2024 tillsynsbegäran mail.docx", "A 45779-2024")</f>
         <v/>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
         <v>44841</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3519,14 +3519,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 12403-2025</t>
+          <t>A 41375-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45730</v>
+        <v>45559</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3538,17 +3538,22 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>10.1</v>
+        <v>5.9</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3563,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3573,49 +3578,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
-        <v/>
-      </c>
-      <c r="Z33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 25279-2023</t>
+          <t>A 12403-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45079</v>
+        <v>45730</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3627,23 +3628,18 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>6.9</v>
+        <v>10.1</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>1</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
@@ -3657,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3667,45 +3663,49 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25279-2023 artfynd.xlsx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25279-2023 karta.png", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25279-2023 FSC-klagomål.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25279-2023 FSC-klagomål mail.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25279-2023 tillsynsbegäran.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25279-2023 tillsynsbegäran mail.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
+        <v/>
+      </c>
+      <c r="Z34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 30592-2023</t>
+          <t>A 26503-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45112</v>
+        <v>45807</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3717,13 +3717,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3732,13 +3727,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3750,56 +3745,52 @@
         <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bergand</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
-        <v/>
-      </c>
-      <c r="Z35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 26503-2025</t>
+          <t>A 30592-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45807</v>
+        <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3811,8 +3802,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3821,13 +3817,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -3839,38 +3835,42 @@
         <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Bergand</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
+        <v/>
+      </c>
+      <c r="Z36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
         <v/>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
         <v>45764</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3967,14 +3967,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 41375-2024</t>
+          <t>A 25279-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45559</v>
+        <v>45079</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -4026,31 +4026,31 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25279-2023 artfynd.xlsx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25279-2023 karta.png", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25279-2023 FSC-klagomål.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25279-2023 FSC-klagomål mail.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25279-2023 tillsynsbegäran.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25279-2023 tillsynsbegäran mail.docx", "A 25279-2023")</f>
         <v/>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
         <v>44520</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44642</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>44840</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44874</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44694</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44543</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44489</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44425</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4937,14 +4937,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 55124-2024</t>
+          <t>A 46910-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45618</v>
+        <v>45583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>18.3</v>
+        <v>3.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4994,14 +4994,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 56785-2024</t>
+          <t>A 55124-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45625</v>
+        <v>45618</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>11.2</v>
+        <v>18.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5051,14 +5051,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 48376-2023</t>
+          <t>A 55422-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45205</v>
+        <v>44475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5072,11 +5072,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>18.3</v>
+        <v>4.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5113,14 +5113,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 48987-2025</t>
+          <t>A 55266-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45937.5759837963</v>
+        <v>45621</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5132,13 +5132,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>6.5</v>
+        <v>11.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5175,14 +5170,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 56276-2021</t>
+          <t>A 45072-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44479</v>
+        <v>45187</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5195,7 +5190,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>19.8</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5232,14 +5227,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 35627-2025</t>
+          <t>A 58370-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45859</v>
+        <v>45250</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5252,7 +5247,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5289,14 +5284,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48992-2025</t>
+          <t>A 3006-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45937.58351851852</v>
+        <v>45315</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,13 +5303,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>2.2</v>
+        <v>9.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5351,14 +5341,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 26103-2024</t>
+          <t>A 526-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45467</v>
+        <v>45664</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5370,8 +5360,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>17.2</v>
+        <v>0.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5408,14 +5403,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 58989-2024</t>
+          <t>A 29667-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45636</v>
+        <v>45825</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5429,11 +5424,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.5</v>
+        <v>20.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5470,14 +5465,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 42325-2025</t>
+          <t>A 25928-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45903</v>
+        <v>45467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5490,7 +5485,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>11.3</v>
+        <v>12</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5527,14 +5522,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 42331-2025</t>
+          <t>A 23949-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45903</v>
+        <v>45455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5546,8 +5541,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>10</v>
+        <v>3.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5584,14 +5584,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 42518-2025</t>
+          <t>A 25275-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45905</v>
+        <v>45079</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5603,8 +5603,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>13.3</v>
+        <v>22.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5641,14 +5646,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 42597-2025</t>
+          <t>A 35627-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45905</v>
+        <v>45859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5661,7 +5666,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5698,14 +5703,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 64826-2023</t>
+          <t>A 31104-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45281</v>
+        <v>45832.60090277778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5717,13 +5722,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5760,14 +5760,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 25270-2023</t>
+          <t>A 48376-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45079</v>
+        <v>45205</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5781,11 +5781,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>29</v>
+        <v>18.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 42526-2025</t>
+          <t>A 58989-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45905</v>
+        <v>45636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5841,8 +5841,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5879,14 +5884,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 25239-2023</t>
+          <t>A 42518-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45079</v>
+        <v>45905</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5898,13 +5903,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>7</v>
+        <v>13.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5941,14 +5941,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 53246-2025</t>
+          <t>A 42325-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45958.64807870371</v>
+        <v>45903</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5960,13 +5960,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>36.7</v>
+        <v>11.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6003,14 +5998,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 35194-2024</t>
+          <t>A 42331-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45530</v>
+        <v>45903</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6023,7 +6018,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>20.1</v>
+        <v>10</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6060,14 +6055,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 34670-2025</t>
+          <t>A 42597-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45847</v>
+        <v>45905</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6080,7 +6075,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6117,14 +6112,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 55570-2025</t>
+          <t>A 42526-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45971.65667824074</v>
+        <v>45905</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6136,13 +6131,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>10.6</v>
+        <v>12.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6179,14 +6169,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 44943-2025</t>
+          <t>A 25559-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45918</v>
+        <v>44732</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6200,11 +6190,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6241,14 +6231,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 526-2025</t>
+          <t>A 54589-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45664</v>
+        <v>44473</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6260,13 +6250,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6303,14 +6288,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 64832-2023</t>
+          <t>A 44943-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45281</v>
+        <v>45918</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6322,8 +6307,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>43.6</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6360,14 +6350,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 36623-2023</t>
+          <t>A 30617-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45153</v>
+        <v>45831</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6381,11 +6371,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>16.9</v>
+        <v>39.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6422,14 +6412,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 50255-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44833</v>
+        <v>45216</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6442,7 +6432,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>24.6</v>
+        <v>20</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6479,14 +6469,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 30595-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44833</v>
+        <v>45831</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6499,7 +6489,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>23.2</v>
+        <v>15.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6536,14 +6526,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 50255-2023</t>
+          <t>A 30606-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45216</v>
+        <v>45831</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6555,8 +6545,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>20</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6593,14 +6588,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 34426-2025</t>
+          <t>A 29674-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45845</v>
+        <v>45825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6612,8 +6607,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>4.3</v>
+        <v>25.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6650,14 +6650,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 46747-2025</t>
+          <t>A 29662-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45926</v>
+        <v>45825</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6669,8 +6669,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>19.7</v>
+        <v>23.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6707,14 +6712,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 73880-2021</t>
+          <t>A 46747-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44552</v>
+        <v>45926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6727,7 +6732,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>11.2</v>
+        <v>19.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6764,14 +6769,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 29667-2025</t>
+          <t>A 36779-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45825</v>
+        <v>45873</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6783,13 +6788,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>20.1</v>
+        <v>17.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6826,14 +6826,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 23949-2024</t>
+          <t>A 20789-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45455</v>
+        <v>44701</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6845,13 +6845,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>3.9</v>
+        <v>20.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6888,14 +6883,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 31104-2025</t>
+          <t>A 37442-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45832.60090277778</v>
+        <v>45877.54096064815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6908,7 +6903,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6945,14 +6940,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 25275-2023</t>
+          <t>A 48992-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45079</v>
+        <v>45937.58351851852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6966,11 +6961,11 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>22.7</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7007,14 +7002,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 55422-2021</t>
+          <t>A 48987-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44475</v>
+        <v>45937.5759837963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7032,7 +7027,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.1</v>
+        <v>6.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7069,14 +7064,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 17536-2023</t>
+          <t>A 26479-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45034</v>
+        <v>45468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7088,13 +7083,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>20.3</v>
+        <v>6.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7131,14 +7121,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 48940-2023</t>
+          <t>A 25270-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45205</v>
+        <v>45079</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7150,8 +7140,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7188,14 +7183,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 390-2026</t>
+          <t>A 53822-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46028.22915509259</v>
+        <v>45614</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7208,7 +7203,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>19.5</v>
+        <v>1.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7245,14 +7240,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25559-2022</t>
+          <t>A 25239-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44732</v>
+        <v>45079</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7270,7 +7265,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7307,14 +7302,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 20905-2025</t>
+          <t>A 53246-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45777</v>
+        <v>45958.64807870371</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7326,8 +7321,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>10.6</v>
+        <v>36.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7364,14 +7364,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 30606-2025</t>
+          <t>A 64816-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45831</v>
+        <v>45281</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7383,13 +7383,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>70.40000000000001</v>
+        <v>13.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7426,14 +7421,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 30617-2025</t>
+          <t>A 14375-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45831</v>
+        <v>44279</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7447,11 +7442,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>39.8</v>
+        <v>60</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7488,14 +7483,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 29662-2025</t>
+          <t>A 28354-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45825</v>
+        <v>44735</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7509,11 +7504,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>23.7</v>
+        <v>0.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7550,14 +7545,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 29674-2025</t>
+          <t>A 34670-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45825</v>
+        <v>45847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7569,13 +7564,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>25.1</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7612,14 +7602,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 30595-2025</t>
+          <t>A 55570-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45831</v>
+        <v>45971.65667824074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7631,8 +7621,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>15.6</v>
+        <v>10.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7669,14 +7664,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 59887-2025</t>
+          <t>A 34426-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45993.32416666667</v>
+        <v>45845</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7689,7 +7684,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7726,14 +7721,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 53822-2024</t>
+          <t>A 73880-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45614</v>
+        <v>44552</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7746,7 +7741,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.6</v>
+        <v>11.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7783,14 +7778,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 36779-2025</t>
+          <t>A 26472-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45873</v>
+        <v>45469</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7803,7 +7798,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>17.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7840,14 +7835,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 28354-2022</t>
+          <t>A 26486-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44735</v>
+        <v>45469</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7859,13 +7854,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>0.3</v>
+        <v>7.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7902,14 +7892,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 37442-2025</t>
+          <t>A 17536-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45877.54096064815</v>
+        <v>45034</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7921,8 +7911,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>4.6</v>
+        <v>20.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7959,14 +7954,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 10825-2025</t>
+          <t>A 390-2026</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45722</v>
+        <v>46028.22915509259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7979,7 +7974,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>14.1</v>
+        <v>19.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8016,14 +8011,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 60767-2025</t>
+          <t>A 44218-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45999.3869212963</v>
+        <v>45183</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8035,8 +8030,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>11.3</v>
+        <v>5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8073,14 +8073,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 60766-2025</t>
+          <t>A 20905-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45999.38688657407</v>
+        <v>45777</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8093,7 +8093,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5</v>
+        <v>10.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8130,14 +8130,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 61729-2024</t>
+          <t>A 48940-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45649</v>
+        <v>45205</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8149,13 +8149,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>0.4</v>
+        <v>13.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8192,14 +8187,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 29649-2024</t>
+          <t>A 56754-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45484</v>
+        <v>45625</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8211,13 +8206,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8254,14 +8244,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 45072-2023</t>
+          <t>A 30870-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45187</v>
+        <v>45113</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8273,8 +8263,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>25.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8311,14 +8306,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 52581-2022</t>
+          <t>A 59887-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44874</v>
+        <v>45993.32416666667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8331,7 +8326,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8368,14 +8363,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 6642-2026</t>
+          <t>A 61729-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46056.53643518518</v>
+        <v>45649</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8387,8 +8382,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>13.5</v>
+        <v>0.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8425,14 +8425,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 54589-2021</t>
+          <t>A 60767-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44473</v>
+        <v>45999.3869212963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.8</v>
+        <v>11.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8482,14 +8482,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 38851-2025</t>
+          <t>A 60766-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45887.55271990741</v>
+        <v>45999.38688657407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>15.2</v>
+        <v>5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8539,14 +8539,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 3006-2024</t>
+          <t>A 64822-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45315</v>
+        <v>45281</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>9.1</v>
+        <v>5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8596,14 +8596,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 25440-2024</t>
+          <t>A 26811-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45463</v>
+        <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8617,11 +8617,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>30.7</v>
+        <v>0.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8658,14 +8658,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 12447-2025</t>
+          <t>A 29649-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45730</v>
+        <v>45484</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8677,8 +8677,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>7.9</v>
+        <v>24</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8715,14 +8720,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 26470-2024</t>
+          <t>A 45924-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45468</v>
+        <v>45189</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8735,7 +8740,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>6</v>
+        <v>11.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8772,14 +8777,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 14375-2021</t>
+          <t>A 10825-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44279</v>
+        <v>45722</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8791,13 +8796,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>60</v>
+        <v>14.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8834,14 +8834,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 56754-2024</t>
+          <t>A 62801-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45625</v>
+        <v>45268</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>11.5</v>
+        <v>7.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8891,14 +8891,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 56800-2024</t>
+          <t>A 64809-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45625</v>
+        <v>45281</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.1</v>
+        <v>17.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8948,14 +8948,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 56782-2024</t>
+          <t>A 64826-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45625</v>
+        <v>45281</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8967,8 +8967,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9005,14 +9010,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 56794-2024</t>
+          <t>A 26470-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45625</v>
+        <v>45468</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9025,7 +9030,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9062,14 +9067,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 25928-2024</t>
+          <t>A 52581-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45467</v>
+        <v>44874</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9082,7 +9087,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>12</v>
+        <v>3.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9119,14 +9124,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 45924-2023</t>
+          <t>A 25440-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45189</v>
+        <v>45463</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9138,8 +9143,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>11.2</v>
+        <v>30.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9176,14 +9186,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 12409-2025</t>
+          <t>A 6642-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45730.43366898148</v>
+        <v>46056.53643518518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9196,7 +9206,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.1</v>
+        <v>13.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9233,14 +9243,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 26811-2022</t>
+          <t>A 38851-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44735</v>
+        <v>45887.55271990741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9252,13 +9262,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>0.5</v>
+        <v>15.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9295,14 +9300,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 44218-2023</t>
+          <t>A 26103-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45183</v>
+        <v>45467</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9314,13 +9319,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>5</v>
+        <v>17.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9357,14 +9357,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 64837-2023</t>
+          <t>A 64832-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
         <v>45281</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5</v>
+        <v>43.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9414,14 +9414,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 64840-2023</t>
+          <t>A 12447-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45281</v>
+        <v>45730</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3</v>
+        <v>7.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9471,14 +9471,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 64816-2023</t>
+          <t>A 12409-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45281</v>
+        <v>45730.43366898148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>13.4</v>
+        <v>4.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9528,14 +9528,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 26479-2024</t>
+          <t>A 26773-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45468</v>
+        <v>44732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9547,8 +9547,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>6.9</v>
+        <v>34</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9585,14 +9590,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 64809-2023</t>
+          <t>A 35194-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45281</v>
+        <v>45530</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9605,7 +9610,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>17.8</v>
+        <v>20.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9642,14 +9647,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 46910-2024</t>
+          <t>A 36623-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45583</v>
+        <v>45153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9661,8 +9666,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>3.6</v>
+        <v>16.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9699,14 +9709,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 30870-2023</t>
+          <t>A 64837-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45113</v>
+        <v>45281</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9718,13 +9728,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>25.5</v>
+        <v>5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9761,14 +9766,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 64822-2023</t>
+          <t>A 64840-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
         <v>45281</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9781,7 +9786,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9818,14 +9823,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 58370-2023</t>
+          <t>A 41061-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45250</v>
+        <v>45558</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9838,7 +9843,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.7</v>
+        <v>23.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9875,14 +9880,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 26472-2024</t>
+          <t>A 56785-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45469</v>
+        <v>45625</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9895,7 +9900,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>8.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9932,14 +9937,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 26486-2024</t>
+          <t>A 56800-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45469</v>
+        <v>45625</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9952,7 +9957,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>7.1</v>
+        <v>3.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9989,14 +9994,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 55266-2024</t>
+          <t>A 56794-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45621</v>
+        <v>45625</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10009,7 +10014,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>11.3</v>
+        <v>7.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10046,14 +10051,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 20789-2022</t>
+          <t>A 56782-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44701</v>
+        <v>45625</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10066,7 +10071,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>20.3</v>
+        <v>4.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10103,14 +10108,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 26773-2022</t>
+          <t>A 42274-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44732</v>
+        <v>44830</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10124,11 +10129,11 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>34</v>
+        <v>6.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10165,14 +10170,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 62801-2023</t>
+          <t>A 56276-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45268</v>
+        <v>44479</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10185,7 +10190,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>7.1</v>
+        <v>19.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10222,14 +10227,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 41061-2024</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45558</v>
+        <v>44833</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10242,7 +10247,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>23.1</v>
+        <v>24.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10279,14 +10284,14 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 42274-2022</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44830</v>
+        <v>44833</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10298,13 +10303,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>6.5</v>
+        <v>23.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -575,7 +575,7 @@
         <v>45281</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44382</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>45891.34503472222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45467</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45281</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45576</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45831</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>45671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>45818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45203</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45327</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45079</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>45845</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44851</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45937</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>45467</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>45190</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>46033</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>45366</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44280</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>45190</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>45190</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>46033</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>46033</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>45579</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>45034</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44841</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>45559</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>45730</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>45807</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>45764</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>45079</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>44520</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44642</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>44840</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44874</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44694</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44543</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44489</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44425</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>45583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>45618</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>44475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45621</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45187</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>45250</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>45315</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>45664</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>45825</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>45467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>45455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45079</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>45832.60090277778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>45205</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>45636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>45905</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>45903</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>45903</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>45905</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>45905</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>44732</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44473</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>45918</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45831</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45216</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>45831</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>45831</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>45825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>45825</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>45926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>45873</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44701</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>45877.54096064815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>45937.58351851852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>45937.5759837963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45079</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>45614</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45079</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45958.64807870371</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45281</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>44279</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>44735</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>45847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>45971.65667824074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>45845</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44552</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>45469</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>45469</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45034</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>46028.22915509259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>45183</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45777</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45205</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45625</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>45113</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>45993.32416666667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45649</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45999.3869212963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45999.38688657407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45281</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45484</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45189</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45722</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45268</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>45281</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>45281</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>45468</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44874</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>45463</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>46056.53643518518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>45887.55271990741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>45467</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>45281</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>45730</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>45730.43366898148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>45530</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>45153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>45281</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>45281</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>45558</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>45625</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>45625</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>45625</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>45625</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44830</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44479</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>44833</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>44833</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -575,7 +575,7 @@
         <v>45281</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44382</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>45891.34503472222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45467</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45281</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45576</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45831</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>45671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>45818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45203</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45327</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45079</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>45845</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44851</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45937</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>45467</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>45190</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>46033</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>45366</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44280</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>45190</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>45190</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>46033</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>46033</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>45579</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>45034</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44841</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>45559</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>45730</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>45807</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>45764</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>45079</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>44520</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44642</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>44840</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44874</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44694</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44543</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44489</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44425</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>45583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>45618</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>44475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45621</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45187</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>45250</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>45315</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>45664</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>45825</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>45467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>45455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45079</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>45832.60090277778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>45205</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>45636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>45905</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>45903</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>45903</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>45905</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>45905</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>44732</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44473</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>45918</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45831</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45216</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>45831</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>45831</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>45825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>45825</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>45926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>45873</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44701</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>45877.54096064815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>45937.58351851852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>45937.5759837963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45079</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>45614</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45079</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45958.64807870371</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45281</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>44279</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>44735</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>45847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>45971.65667824074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>45845</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44552</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>45469</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>45469</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45034</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>46028.22915509259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>45183</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45777</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45205</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45625</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>45113</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>45993.32416666667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45649</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45999.3869212963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45999.38688657407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45281</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45484</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45189</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45722</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45268</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>45281</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>45281</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>45468</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44874</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>45463</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>46056.53643518518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>45887.55271990741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>45467</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>45281</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>45730</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>45730.43366898148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>45530</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>45153</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>45281</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>45281</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>45558</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>45625</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>45625</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>45625</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>45625</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44830</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44479</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>44833</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>44833</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -575,7 +575,7 @@
         <v>45281</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44382</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>45891.34503472222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45467</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45281</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45576</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45831</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>45671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>45818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45203</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45327</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45079</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1978,14 +1978,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 34430-2025</t>
+          <t>A 47035-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45845</v>
+        <v>44851</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,40 +1997,134 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>39.6</v>
+        <v>15.9</v>
       </c>
       <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>4</v>
-      </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>5</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Månlåsbräken
+Grönkulla
+Spindelblomster
+Tibast
+Brudsporre</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 47035-2022 artfynd.xlsx", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 47035-2022 karta.png", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 47035-2022 FSC-klagomål.docx", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 47035-2022 FSC-klagomål mail.docx", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 47035-2022 tillsynsbegäran.docx", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 47035-2022 tillsynsbegäran mail.docx", "A 47035-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 34430-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Blanksvart spiklav
@@ -2039,122 +2133,28 @@
 Plattlummer</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 34430-2025 artfynd.xlsx", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 34430-2025 karta.png", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 34430-2025 FSC-klagomål.docx", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 34430-2025 FSC-klagomål mail.docx", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 34430-2025 tillsynsbegäran.docx", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 34430-2025 tillsynsbegäran mail.docx", "A 34430-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 47035-2022</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44851</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Månlåsbräken
-Grönkulla
-Spindelblomster
-Tibast
-Brudsporre</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 47035-2022 artfynd.xlsx", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 47035-2022 karta.png", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 47035-2022 FSC-klagomål.docx", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 47035-2022 FSC-klagomål mail.docx", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 47035-2022 tillsynsbegäran.docx", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 47035-2022 tillsynsbegäran mail.docx", "A 47035-2022")</f>
         <v/>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
         <v>45281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45937</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2433,14 +2433,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 26143-2024</t>
+          <t>A 45031-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45467</v>
+        <v>45190</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2452,17 +2452,22 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>8.1</v>
+        <v>10.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2477,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2486,305 +2491,300 @@
         <v>3</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Garnlav
+Granticka</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45031-2023 artfynd.xlsx", "A 45031-2023")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45031-2023 karta.png", "A 45031-2023")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45031-2023 FSC-klagomål.docx", "A 45031-2023")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45031-2023 FSC-klagomål mail.docx", "A 45031-2023")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45031-2023 tillsynsbegäran.docx", "A 45031-2023")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45031-2023 tillsynsbegäran mail.docx", "A 45031-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 10525-2024</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Korallrot
+Spindelblomster
+Ögonpyrola</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 10525-2024 artfynd.xlsx", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 10525-2024 karta.png", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 10525-2024 FSC-klagomål.docx", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 10525-2024 FSC-klagomål mail.docx", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 10525-2024 tillsynsbegäran.docx", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 10525-2024 tillsynsbegäran mail.docx", "A 10525-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 26143-2024</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45467</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Blanksvart spiklav
 Knottrig blåslav
 Vedticka</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26143-2024 artfynd.xlsx", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26143-2024 karta.png", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26143-2024 FSC-klagomål.docx", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26143-2024 FSC-klagomål mail.docx", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26143-2024 tillsynsbegäran.docx", "A 26143-2024")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26143-2024 tillsynsbegäran mail.docx", "A 26143-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 45031-2023</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 1479-2026</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="G24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>3</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>3</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>3</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
 Granticka</t>
         </is>
       </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45031-2023 artfynd.xlsx", "A 45031-2023")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45031-2023 karta.png", "A 45031-2023")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45031-2023 FSC-klagomål.docx", "A 45031-2023")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45031-2023 FSC-klagomål mail.docx", "A 45031-2023")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45031-2023 tillsynsbegäran.docx", "A 45031-2023")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45031-2023 tillsynsbegäran mail.docx", "A 45031-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 1479-2026</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>10</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>3</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Garnlav
-Granticka</t>
-        </is>
-      </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1479-2026 artfynd.xlsx", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1479-2026 karta.png", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1479-2026 FSC-klagomål.docx", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1479-2026 FSC-klagomål mail.docx", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1479-2026 tillsynsbegäran.docx", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1479-2026 tillsynsbegäran mail.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 10525-2024</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45366</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Korallrot
-Spindelblomster
-Ögonpyrola</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 10525-2024 artfynd.xlsx", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 10525-2024 karta.png", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 10525-2024 FSC-klagomål.docx", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 10525-2024 FSC-klagomål mail.docx", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 10525-2024 tillsynsbegäran.docx", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 10525-2024 tillsynsbegäran mail.docx", "A 10525-2024")</f>
         <v/>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
         <v>44280</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,14 +2881,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 45030-2023</t>
+          <t>A 45032-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>45190</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.8</v>
+        <v>6.3</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2940,508 +2940,508 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
+          <t>Gammelgransskål
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45032-2023 artfynd.xlsx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45032-2023 karta.png", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45032-2023 FSC-klagomål.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45032-2023 FSC-klagomål mail.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45032-2023 tillsynsbegäran.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45032-2023 tillsynsbegäran mail.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="Z26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 45032-2023 prioriterade fågelarter.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 45030-2023</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
           <t>Harticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45030-2023 artfynd.xlsx", "A 45030-2023")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45030-2023 karta.png", "A 45030-2023")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45030-2023 FSC-klagomål.docx", "A 45030-2023")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45030-2023 FSC-klagomål mail.docx", "A 45030-2023")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45030-2023 tillsynsbegäran.docx", "A 45030-2023")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45030-2023 tillsynsbegäran mail.docx", "A 45030-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 45032-2023</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 45779-2024</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45779-2024 artfynd.xlsx", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45779-2024 karta.png", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="V28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45779-2024 FSC-klagomål.docx", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="W28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45779-2024 FSC-klagomål mail.docx", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="X28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45779-2024 tillsynsbegäran.docx", "A 45779-2024")</f>
+        <v/>
+      </c>
+      <c r="Y28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45779-2024 tillsynsbegäran mail.docx", "A 45779-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 17549-2023</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 17549-2023 artfynd.xlsx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 17549-2023 karta.png", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 17549-2023 FSC-klagomål.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 17549-2023 FSC-klagomål mail.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 17549-2023 tillsynsbegäran.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 17549-2023 tillsynsbegäran mail.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="Z29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 17549-2023 prioriterade fågelarter.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A 1478-2026</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G27" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H27" t="n">
+      <c r="G30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>2</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>2</v>
       </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>2</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45032-2023 artfynd.xlsx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45032-2023 karta.png", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45032-2023 FSC-klagomål.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45032-2023 FSC-klagomål mail.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45032-2023 tillsynsbegäran.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45032-2023 tillsynsbegäran mail.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 45032-2023 prioriterade fågelarter.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
+      <c r="S30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="T30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="V30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="W30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="X30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="Y30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="Z30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>A 1474-2026</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B31" s="1" t="n">
         <v>46033</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="C31" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G31" t="n">
         <v>3.8</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>2</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>2</v>
       </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2</v>
       </c>
-      <c r="R28" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Harticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S28">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1474-2026 artfynd.xlsx", "A 1474-2026")</f>
         <v/>
       </c>
-      <c r="T28">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1474-2026 karta.png", "A 1474-2026")</f>
         <v/>
       </c>
-      <c r="V28">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1474-2026 FSC-klagomål.docx", "A 1474-2026")</f>
         <v/>
       </c>
-      <c r="W28">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1474-2026 FSC-klagomål mail.docx", "A 1474-2026")</f>
         <v/>
       </c>
-      <c r="X28">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1474-2026 tillsynsbegäran.docx", "A 1474-2026")</f>
         <v/>
       </c>
-      <c r="Y28">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1474-2026 tillsynsbegäran mail.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 1478-2026</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A 45779-2024</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>45579</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45779-2024 artfynd.xlsx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45779-2024 karta.png", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45779-2024 FSC-klagomål.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45779-2024 FSC-klagomål mail.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45779-2024 tillsynsbegäran.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45779-2024 tillsynsbegäran mail.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>A 17549-2023</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>45034</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 17549-2023 artfynd.xlsx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 17549-2023 karta.png", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 17549-2023 FSC-klagomål.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 17549-2023 FSC-klagomål mail.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 17549-2023 tillsynsbegäran.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 17549-2023 tillsynsbegäran mail.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="Z31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 17549-2023 prioriterade fågelarter.docx", "A 17549-2023")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 45324-2022</t>
+          <t>A 30592-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44841</v>
+        <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3453,8 +3453,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>23.2</v>
+        <v>19</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -3463,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3481,52 +3486,56 @@
         <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Bergand</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45324-2022 artfynd.xlsx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45324-2022 karta.png", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45324-2022 FSC-klagomål.docx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45324-2022 FSC-klagomål mail.docx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45324-2022 tillsynsbegäran.docx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45324-2022 tillsynsbegäran mail.docx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
+        <v/>
+      </c>
+      <c r="Z32">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 41375-2024</t>
+          <t>A 18921-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45559</v>
+        <v>45764</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3540,35 +3549,35 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5.9</v>
+        <v>12.5</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3578,45 +3587,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 18921-2025 artfynd.xlsx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 18921-2025 karta.png", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 18921-2025 FSC-klagomål.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 18921-2025 FSC-klagomål mail.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 18921-2025 tillsynsbegäran.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 18921-2025 tillsynsbegäran mail.docx", "A 18921-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 12403-2025</t>
+          <t>A 45324-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45730</v>
+        <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3629,7 +3638,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>10.1</v>
+        <v>23.2</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3638,13 +3647,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3656,56 +3665,52 @@
         <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bergand</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45324-2022 artfynd.xlsx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45324-2022 karta.png", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45324-2022 FSC-klagomål.docx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45324-2022 FSC-klagomål mail.docx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45324-2022 tillsynsbegäran.docx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
-        <v/>
-      </c>
-      <c r="Z34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45324-2022 tillsynsbegäran mail.docx", "A 45324-2022")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 26503-2025</t>
+          <t>A 41375-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45807</v>
+        <v>45559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3717,14 +3722,19 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>20</v>
+        <v>5.9</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3733,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3742,55 +3752,55 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Bergand</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 30592-2023</t>
+          <t>A 12403-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45112</v>
+        <v>45730</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3802,13 +3812,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>19</v>
+        <v>10.1</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3846,45 +3851,45 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="Z36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 18921-2025</t>
+          <t>A 25279-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45764</v>
+        <v>45079</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3898,20 +3903,20 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>12.5</v>
+        <v>6.9</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3926,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3936,45 +3941,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 18921-2025 artfynd.xlsx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25279-2023 artfynd.xlsx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 18921-2025 karta.png", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25279-2023 karta.png", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 18921-2025 FSC-klagomål.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25279-2023 FSC-klagomål.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 18921-2025 FSC-klagomål mail.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25279-2023 FSC-klagomål mail.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 18921-2025 tillsynsbegäran.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25279-2023 tillsynsbegäran.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 18921-2025 tillsynsbegäran mail.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25279-2023 tillsynsbegäran mail.docx", "A 25279-2023")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 25279-2023</t>
+          <t>A 26503-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45079</v>
+        <v>45807</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3986,29 +3991,24 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>6.9</v>
+        <v>20</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
       </c>
       <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>1</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
@@ -4016,41 +4016,41 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Bergand</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25279-2023 artfynd.xlsx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25279-2023 karta.png", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25279-2023 FSC-klagomål.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25279-2023 FSC-klagomål mail.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25279-2023 tillsynsbegäran.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25279-2023 tillsynsbegäran mail.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
         <v>44520</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4285,14 +4285,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12789-2022</t>
+          <t>A 56278-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44642</v>
+        <v>44479</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4304,13 +4304,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>56.1</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4347,14 +4342,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 44751-2022</t>
+          <t>A 52573-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44840</v>
+        <v>44874</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4366,13 +4361,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>26.1</v>
+        <v>7.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4409,14 +4399,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 56278-2021</t>
+          <t>A 44751-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44479</v>
+        <v>44840</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4428,8 +4418,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>26.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4466,14 +4461,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 52573-2022</t>
+          <t>A 12789-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44874</v>
+        <v>44642</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4485,8 +4480,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>7.7</v>
+        <v>56.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4523,14 +4523,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 19620-2022</t>
+          <t>A 72279-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44694</v>
+        <v>44543</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4542,13 +4542,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4585,14 +4580,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 72279-2021</t>
+          <t>A 19620-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44543</v>
+        <v>44694</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4604,8 +4599,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>44741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44489</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44425</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4875,14 +4875,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 46585-2021</t>
+          <t>A 56785-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44445</v>
+        <v>45625</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4894,13 +4894,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4937,14 +4932,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 46910-2024</t>
+          <t>A 46585-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45583</v>
+        <v>44445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4956,8 +4951,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>3.6</v>
+        <v>11.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>45618</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5051,14 +5051,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 55422-2021</t>
+          <t>A 73880-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44475</v>
+        <v>44552</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5070,13 +5070,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>4.1</v>
+        <v>11.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5113,14 +5108,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 55266-2024</t>
+          <t>A 48376-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45621</v>
+        <v>45205</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5132,8 +5127,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>11.3</v>
+        <v>18.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5170,14 +5170,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 45072-2023</t>
+          <t>A 53822-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45187</v>
+        <v>45614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5227,14 +5227,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 58370-2023</t>
+          <t>A 28354-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45250</v>
+        <v>44735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5246,8 +5246,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5284,14 +5289,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 3006-2024</t>
+          <t>A 23949-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45315</v>
+        <v>45455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5303,8 +5308,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>9.1</v>
+        <v>3.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5341,14 +5351,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 526-2025</t>
+          <t>A 10825-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45664</v>
+        <v>45722</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5360,13 +5370,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>0.4</v>
+        <v>14.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5403,14 +5408,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 29667-2025</t>
+          <t>A 61729-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45825</v>
+        <v>45649</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5424,11 +5429,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>20.1</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5465,14 +5470,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 25928-2024</t>
+          <t>A 55422-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45467</v>
+        <v>44475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5484,8 +5489,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>12</v>
+        <v>4.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5522,14 +5532,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 23949-2024</t>
+          <t>A 48940-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45455</v>
+        <v>45205</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5541,13 +5551,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>3.9</v>
+        <v>13.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5584,14 +5589,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 25275-2023</t>
+          <t>A 29649-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45079</v>
+        <v>45484</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5605,11 +5610,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>22.7</v>
+        <v>24</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5646,14 +5651,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 35627-2025</t>
+          <t>A 52581-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45859</v>
+        <v>44874</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5666,7 +5671,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5703,14 +5708,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 31104-2025</t>
+          <t>A 54589-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45832.60090277778</v>
+        <v>44473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5723,7 +5728,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5760,14 +5765,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 48376-2023</t>
+          <t>A 45072-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45205</v>
+        <v>45187</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5779,13 +5784,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>18.3</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 58989-2024</t>
+          <t>A 26103-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45636</v>
+        <v>45467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5841,13 +5841,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>3.5</v>
+        <v>17.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5884,14 +5879,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 42518-2025</t>
+          <t>A 26470-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45905</v>
+        <v>45468</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5904,7 +5899,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>13.3</v>
+        <v>6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5941,14 +5936,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 42325-2025</t>
+          <t>A 26811-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45903</v>
+        <v>44735</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5960,8 +5955,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>11.3</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5998,14 +5998,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 42331-2025</t>
+          <t>A 3006-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45903</v>
+        <v>45315</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6055,14 +6055,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 42597-2025</t>
+          <t>A 14375-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45905</v>
+        <v>44279</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6074,8 +6074,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>9.199999999999999</v>
+        <v>60</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6112,14 +6117,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 42526-2025</t>
+          <t>A 56754-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45905</v>
+        <v>45625</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6132,7 +6137,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6169,14 +6174,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 25559-2022</t>
+          <t>A 25440-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44732</v>
+        <v>45463</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6190,11 +6195,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>39</v>
+        <v>30.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6231,14 +6236,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 54589-2021</t>
+          <t>A 56800-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44473</v>
+        <v>45625</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6251,7 +6256,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6288,14 +6293,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 44943-2025</t>
+          <t>A 64826-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45918</v>
+        <v>45281</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6313,7 +6318,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6350,14 +6355,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 30617-2025</t>
+          <t>A 44218-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45831</v>
+        <v>45183</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6375,7 +6380,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>39.8</v>
+        <v>5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6412,14 +6417,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 50255-2023</t>
+          <t>A 56782-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45216</v>
+        <v>45625</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6432,7 +6437,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>20</v>
+        <v>4.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6469,14 +6474,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 30595-2025</t>
+          <t>A 56794-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45831</v>
+        <v>45625</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6489,7 +6494,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>15.6</v>
+        <v>7.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6526,14 +6531,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 30606-2025</t>
+          <t>A 25928-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45831</v>
+        <v>45467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6545,13 +6550,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>70.40000000000001</v>
+        <v>12</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6588,14 +6588,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 29674-2025</t>
+          <t>A 64837-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45825</v>
+        <v>45281</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6607,13 +6607,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>25.1</v>
+        <v>5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6650,14 +6645,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 29662-2025</t>
+          <t>A 64840-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45825</v>
+        <v>45281</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6669,13 +6664,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>23.7</v>
+        <v>3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6712,14 +6702,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 46747-2025</t>
+          <t>A 35194-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45926</v>
+        <v>45530</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6732,7 +6722,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>19.7</v>
+        <v>20.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6769,14 +6759,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 36779-2025</t>
+          <t>A 45924-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45873</v>
+        <v>45189</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6789,7 +6779,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>17.2</v>
+        <v>11.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6826,14 +6816,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 20789-2022</t>
+          <t>A 64816-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44701</v>
+        <v>45281</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6846,7 +6836,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>20.3</v>
+        <v>13.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6883,14 +6873,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 37442-2025</t>
+          <t>A 26479-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45877.54096064815</v>
+        <v>45468</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6903,7 +6893,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.6</v>
+        <v>6.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6940,14 +6930,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 48992-2025</t>
+          <t>A 12409-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45937.58351851852</v>
+        <v>45730.43366898148</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6959,13 +6949,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7002,14 +6987,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 48987-2025</t>
+          <t>A 526-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45937.5759837963</v>
+        <v>45664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7023,11 +7008,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>6.5</v>
+        <v>0.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7064,14 +7049,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 26479-2024</t>
+          <t>A 64832-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45468</v>
+        <v>45281</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7084,7 +7069,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>6.9</v>
+        <v>43.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7121,14 +7106,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 25270-2023</t>
+          <t>A 35627-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45079</v>
+        <v>45859</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7140,13 +7125,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7183,14 +7163,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 53822-2024</t>
+          <t>A 36623-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45614</v>
+        <v>45153</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7202,8 +7182,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1.6</v>
+        <v>16.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7240,14 +7225,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25239-2023</t>
+          <t>A 64809-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45079</v>
+        <v>45281</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7259,13 +7244,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>7</v>
+        <v>17.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7302,14 +7282,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 53246-2025</t>
+          <t>A 58989-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45958.64807870371</v>
+        <v>45636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7323,11 +7303,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>36.7</v>
+        <v>3.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7364,14 +7344,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 64816-2023</t>
+          <t>A 42325-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45281</v>
+        <v>45903</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7384,7 +7364,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>13.4</v>
+        <v>11.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7421,14 +7401,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 14375-2021</t>
+          <t>A 42331-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44279</v>
+        <v>45903</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7440,13 +7420,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7483,14 +7458,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 28354-2022</t>
+          <t>A 42518-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44735</v>
+        <v>45905</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7502,13 +7477,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>0.3</v>
+        <v>13.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7545,14 +7515,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 34670-2025</t>
+          <t>A 42597-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45847</v>
+        <v>45905</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7565,7 +7535,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7602,14 +7572,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 55570-2025</t>
+          <t>A 46910-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45971.65667824074</v>
+        <v>45583</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7621,13 +7591,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>10.6</v>
+        <v>3.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7664,14 +7629,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 34426-2025</t>
+          <t>A 30870-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45845</v>
+        <v>45113</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7683,8 +7648,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>4.3</v>
+        <v>25.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7721,14 +7691,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 73880-2021</t>
+          <t>A 64822-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44552</v>
+        <v>45281</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7741,7 +7711,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>11.2</v>
+        <v>5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7778,14 +7748,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26472-2024</t>
+          <t>A 58370-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45469</v>
+        <v>45250</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7798,7 +7768,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>8.199999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7835,14 +7805,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 26486-2024</t>
+          <t>A 42526-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45469</v>
+        <v>45905</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7855,7 +7825,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>7.1</v>
+        <v>12.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7892,14 +7862,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 17536-2023</t>
+          <t>A 44943-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45034</v>
+        <v>45918</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7913,11 +7883,11 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>20.3</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7954,14 +7924,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 390-2026</t>
+          <t>A 50255-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46028.22915509259</v>
+        <v>45216</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7974,7 +7944,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8011,14 +7981,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 44218-2023</t>
+          <t>A 46747-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45183</v>
+        <v>45926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8030,13 +8000,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>5</v>
+        <v>19.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8073,14 +8038,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 20905-2025</t>
+          <t>A 48987-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45777</v>
+        <v>45937.5759837963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8092,8 +8057,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>10.6</v>
+        <v>6.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8130,14 +8100,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 48940-2023</t>
+          <t>A 48992-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45205</v>
+        <v>45937.58351851852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8149,8 +8119,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>13.5</v>
+        <v>2.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8187,14 +8162,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 56754-2024</t>
+          <t>A 26472-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45625</v>
+        <v>45469</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8207,7 +8182,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8244,14 +8219,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 30870-2023</t>
+          <t>A 26486-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45113</v>
+        <v>45469</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8263,13 +8238,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>25.5</v>
+        <v>7.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8306,14 +8276,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 59887-2025</t>
+          <t>A 55266-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45993.32416666667</v>
+        <v>45621</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8326,7 +8296,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>11.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8363,14 +8333,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 61729-2024</t>
+          <t>A 20789-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45649</v>
+        <v>44701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8382,13 +8352,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>0.4</v>
+        <v>20.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8425,14 +8390,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 60767-2025</t>
+          <t>A 26773-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45999.3869212963</v>
+        <v>44732</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8444,8 +8409,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>11.3</v>
+        <v>34</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8482,14 +8452,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 60766-2025</t>
+          <t>A 62801-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45999.38688657407</v>
+        <v>45268</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8502,7 +8472,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5</v>
+        <v>7.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8539,14 +8509,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 64822-2023</t>
+          <t>A 25270-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45281</v>
+        <v>45079</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8558,8 +8528,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8596,14 +8571,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 26811-2022</t>
+          <t>A 53246-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44735</v>
+        <v>45958.64807870371</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8621,7 +8596,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.5</v>
+        <v>36.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8658,14 +8633,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 29649-2024</t>
+          <t>A 41061-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45484</v>
+        <v>45558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8677,13 +8652,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>24</v>
+        <v>23.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8720,14 +8690,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 45924-2023</t>
+          <t>A 42274-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45189</v>
+        <v>44830</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8739,8 +8709,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>11.2</v>
+        <v>6.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8777,14 +8752,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 10825-2025</t>
+          <t>A 34670-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45722</v>
+        <v>45847</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8797,7 +8772,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>14.1</v>
+        <v>2.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8834,14 +8809,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 62801-2023</t>
+          <t>A 55570-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45268</v>
+        <v>45971.65667824074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8853,8 +8828,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>7.1</v>
+        <v>10.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8891,14 +8871,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 64809-2023</t>
+          <t>A 34426-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45281</v>
+        <v>45845</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8911,7 +8891,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>17.8</v>
+        <v>4.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8948,14 +8928,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 64826-2023</t>
+          <t>A 17536-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45281</v>
+        <v>45034</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8969,11 +8949,11 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5.6</v>
+        <v>20.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9010,14 +8990,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 26470-2024</t>
+          <t>A 390-2026</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45468</v>
+        <v>46028.22915509259</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9030,7 +9010,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>6</v>
+        <v>19.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9067,14 +9047,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 52581-2022</t>
+          <t>A 20905-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44874</v>
+        <v>45777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9087,7 +9067,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.4</v>
+        <v>10.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9124,14 +9104,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 25440-2024</t>
+          <t>A 59887-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45463</v>
+        <v>45993.32416666667</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9143,13 +9123,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>30.7</v>
+        <v>1.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9186,14 +9161,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 6642-2026</t>
+          <t>A 56276-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46056.53643518518</v>
+        <v>44479</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9206,7 +9181,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>13.5</v>
+        <v>19.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9243,14 +9218,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 38851-2025</t>
+          <t>A 60767-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45887.55271990741</v>
+        <v>45999.3869212963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9263,7 +9238,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>15.2</v>
+        <v>11.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9300,14 +9275,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 26103-2024</t>
+          <t>A 60766-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45467</v>
+        <v>45999.38688657407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9320,7 +9295,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>17.2</v>
+        <v>5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9357,14 +9332,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 64832-2023</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45281</v>
+        <v>44833</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9377,7 +9352,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>43.6</v>
+        <v>24.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9414,14 +9389,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 12447-2025</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45730</v>
+        <v>44833</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9434,7 +9409,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>7.9</v>
+        <v>23.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9471,14 +9446,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 12409-2025</t>
+          <t>A 6642-2026</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45730.43366898148</v>
+        <v>46056.53643518518</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9491,7 +9466,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.1</v>
+        <v>13.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9528,14 +9503,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 26773-2022</t>
+          <t>A 38851-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44732</v>
+        <v>45887.55271990741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9547,13 +9522,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>34</v>
+        <v>15.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9590,14 +9560,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 35194-2024</t>
+          <t>A 29667-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45530</v>
+        <v>45825</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9607,6 +9577,11 @@
       <c r="E133" t="inlineStr">
         <is>
           <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -9647,14 +9622,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 36623-2023</t>
+          <t>A 31104-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45153</v>
+        <v>45832.60090277778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9666,13 +9641,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>16.9</v>
+        <v>4.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9709,14 +9679,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 64837-2023</t>
+          <t>A 25275-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45281</v>
+        <v>45079</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9728,8 +9698,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>5</v>
+        <v>22.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9766,14 +9741,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 64840-2023</t>
+          <t>A 25559-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45281</v>
+        <v>44732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9785,8 +9760,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9823,14 +9803,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 41061-2024</t>
+          <t>A 12447-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45558</v>
+        <v>45730</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9843,7 +9823,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>23.1</v>
+        <v>7.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9880,14 +9860,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 56785-2024</t>
+          <t>A 25239-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45625</v>
+        <v>45079</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9899,8 +9879,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>11.2</v>
+        <v>7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9937,14 +9922,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 56800-2024</t>
+          <t>A 30606-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45625</v>
+        <v>45831</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9956,8 +9941,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>3.1</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9994,14 +9984,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 56794-2024</t>
+          <t>A 30617-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45625</v>
+        <v>45831</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10013,8 +10003,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>7.5</v>
+        <v>39.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10051,14 +10046,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 56782-2024</t>
+          <t>A 29662-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45625</v>
+        <v>45825</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10070,8 +10065,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>4.3</v>
+        <v>23.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10108,14 +10108,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 42274-2022</t>
+          <t>A 29674-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44830</v>
+        <v>45825</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10129,11 +10129,11 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>6.5</v>
+        <v>25.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10170,14 +10170,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 56276-2021</t>
+          <t>A 30595-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44479</v>
+        <v>45831</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>19.8</v>
+        <v>15.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10227,14 +10227,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 36779-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44833</v>
+        <v>45873</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>24.6</v>
+        <v>17.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10284,14 +10284,14 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 37442-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44833</v>
+        <v>45877.54096064815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>23.2</v>
+        <v>4.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z145"/>
+  <dimension ref="A1:Z146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45281</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44382</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,14 +787,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 39728-2025</t>
+          <t>A 26089-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45891.34503472222</v>
+        <v>45467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -806,8 +806,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>36.2</v>
+        <v>40.1</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -816,10 +821,10 @@
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -834,12 +839,119 @@
         <v>15</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
         <v>19</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Gräddporing
+Smalfotad taggsvamp
+Torrmusseron
+Blanksvart spiklav
+Blågrå svartspik
+Dvärgbägarlav
+Kolflarnlav
+Mörk kolflarnlav
+Nordtagging
+Talltita
+Vaddporing
+Vedflamlav
+Vedskivlav
+Vitplätt
+Bårdlav
+Luddlav
+Stuplav
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26089-2024 artfynd.xlsx", "A 26089-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26089-2024 karta.png", "A 26089-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26089-2024 FSC-klagomål.docx", "A 26089-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26089-2024 FSC-klagomål mail.docx", "A 26089-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26089-2024 tillsynsbegäran.docx", "A 26089-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26089-2024 tillsynsbegäran mail.docx", "A 26089-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 26089-2024 prioriterade fågelarter.docx", "A 26089-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 39728-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45891.34503472222</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>15</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>19</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Blanksvart spiklav
 Blågrå svartspik
@@ -862,144 +974,32 @@
 Lavskrika</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 39728-2025 artfynd.xlsx", "A 39728-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 39728-2025 karta.png", "A 39728-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 39728-2025 FSC-klagomål.docx", "A 39728-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 39728-2025 FSC-klagomål mail.docx", "A 39728-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 39728-2025 tillsynsbegäran.docx", "A 39728-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 39728-2025 tillsynsbegäran mail.docx", "A 39728-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 39728-2025 prioriterade fågelarter.docx", "A 39728-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 26089-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>15</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>19</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Gräddporing
-Smalfotad taggsvamp
-Torrmusseron
-Blanksvart spiklav
-Blågrå svartspik
-Dvärgbägarlav
-Kolflarnlav
-Mörk kolflarnlav
-Nordtagging
-Talltita
-Vaddporing
-Vedflamlav
-Vedskivlav
-Vitplätt
-Bårdlav
-Luddlav
-Stuplav
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26089-2024 artfynd.xlsx", "A 26089-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26089-2024 karta.png", "A 26089-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26089-2024 FSC-klagomål.docx", "A 26089-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26089-2024 FSC-klagomål mail.docx", "A 26089-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26089-2024 tillsynsbegäran.docx", "A 26089-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26089-2024 tillsynsbegäran mail.docx", "A 26089-2024")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 26089-2024 prioriterade fågelarter.docx", "A 26089-2024")</f>
         <v/>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
         <v>45281</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45576</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45831</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1415,14 +1415,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 2256-2025</t>
+          <t>A 28351-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45671</v>
+        <v>45818</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,25 +1434,20 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>17.9</v>
+        <v>5.4</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
         <v>7</v>
       </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1464,15 +1459,113 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>9</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Blanksvart spiklav
+Dvärgbägarlav
+Garnlav
+Granticka
+Ullticka
+Vedflamlav
+Vedskivlav
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 28351-2025 artfynd.xlsx", "A 28351-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 28351-2025 karta.png", "A 28351-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 28351-2025 FSC-klagomål.docx", "A 28351-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 28351-2025 FSC-klagomål mail.docx", "A 28351-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 28351-2025 tillsynsbegäran.docx", "A 28351-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 28351-2025 tillsynsbegäran mail.docx", "A 28351-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 2256-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45671</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Månlåsbräken
 Nordlåsbräken
@@ -1485,121 +1578,28 @@
 Fjällummer</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 2256-2025 artfynd.xlsx", "A 2256-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 2256-2025 karta.png", "A 2256-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 2256-2025 FSC-klagomål.docx", "A 2256-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 2256-2025 FSC-klagomål mail.docx", "A 2256-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 2256-2025 tillsynsbegäran.docx", "A 2256-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 2256-2025 tillsynsbegäran mail.docx", "A 2256-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 28351-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45818</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>8</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Blanksvart spiklav
-Dvärgbägarlav
-Garnlav
-Granticka
-Ullticka
-Vedflamlav
-Vedskivlav
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 28351-2025 artfynd.xlsx", "A 28351-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 28351-2025 karta.png", "A 28351-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 28351-2025 FSC-klagomål.docx", "A 28351-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 28351-2025 FSC-klagomål mail.docx", "A 28351-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 28351-2025 tillsynsbegäran.docx", "A 28351-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 28351-2025 tillsynsbegäran mail.docx", "A 28351-2025")</f>
         <v/>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
         <v>45203</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45327</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45079</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1978,14 +1978,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 47035-2022</t>
+          <t>A 34430-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44851</v>
+        <v>45845</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,26 +1997,21 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>15.9</v>
+        <v>39.6</v>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
         <v>3</v>
       </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
@@ -2027,15 +2022,109 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
+        <v>4</v>
+      </c>
+      <c r="P16" t="n">
         <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>5</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Blanksvart spiklav
+Dvärgbägarlav
+Vedskivlav
+Plattlummer</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 34430-2025 artfynd.xlsx", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 34430-2025 karta.png", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 34430-2025 FSC-klagomål.docx", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 34430-2025 FSC-klagomål mail.docx", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 34430-2025 tillsynsbegäran.docx", "A 34430-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 34430-2025 tillsynsbegäran mail.docx", "A 34430-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 47035-2022</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Månlåsbräken
 Grönkulla
@@ -2044,117 +2133,28 @@
 Brudsporre</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 47035-2022 artfynd.xlsx", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 47035-2022 karta.png", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 47035-2022 FSC-klagomål.docx", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 47035-2022 FSC-klagomål mail.docx", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 47035-2022 tillsynsbegäran.docx", "A 47035-2022")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 47035-2022 tillsynsbegäran mail.docx", "A 47035-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 34430-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>4</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Blanksvart spiklav
-Dvärgbägarlav
-Vedskivlav
-Plattlummer</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 34430-2025 artfynd.xlsx", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 34430-2025 karta.png", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 34430-2025 FSC-klagomål.docx", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 34430-2025 FSC-klagomål mail.docx", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 34430-2025 tillsynsbegäran.docx", "A 34430-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 34430-2025 tillsynsbegäran mail.docx", "A 34430-2025")</f>
         <v/>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
         <v>45281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45937</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2433,14 +2433,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 45031-2023</t>
+          <t>A 26143-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45190</v>
+        <v>45467</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2452,22 +2452,17 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>10.3</v>
+        <v>8.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2482,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2491,300 +2486,305 @@
         <v>3</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Blanksvart spiklav
+Knottrig blåslav
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26143-2024 artfynd.xlsx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26143-2024 karta.png", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26143-2024 FSC-klagomål.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26143-2024 FSC-klagomål mail.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26143-2024 tillsynsbegäran.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26143-2024 tillsynsbegäran mail.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 45031-2023</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
 Granticka</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45031-2023 artfynd.xlsx", "A 45031-2023")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45031-2023 karta.png", "A 45031-2023")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45031-2023 FSC-klagomål.docx", "A 45031-2023")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45031-2023 FSC-klagomål mail.docx", "A 45031-2023")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45031-2023 tillsynsbegäran.docx", "A 45031-2023")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45031-2023 tillsynsbegäran mail.docx", "A 45031-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 1479-2026</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Garnlav
+Granticka</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1479-2026 artfynd.xlsx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1479-2026 karta.png", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1479-2026 FSC-klagomål.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1479-2026 FSC-klagomål mail.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1479-2026 tillsynsbegäran.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1479-2026 tillsynsbegäran mail.docx", "A 1479-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 10525-2024</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>45366</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
+      <c r="C24" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>15.5</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H24" t="n">
         <v>2</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I24" t="n">
         <v>3</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>3</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Korallrot
 Spindelblomster
 Ögonpyrola</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 10525-2024 artfynd.xlsx", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 10525-2024 karta.png", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 10525-2024 FSC-klagomål.docx", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 10525-2024 FSC-klagomål mail.docx", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 10525-2024 tillsynsbegäran.docx", "A 10525-2024")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 10525-2024 tillsynsbegäran mail.docx", "A 10525-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 26143-2024</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Blanksvart spiklav
-Knottrig blåslav
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26143-2024 artfynd.xlsx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26143-2024 karta.png", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26143-2024 FSC-klagomål.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26143-2024 FSC-klagomål mail.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26143-2024 tillsynsbegäran.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26143-2024 tillsynsbegäran mail.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 1479-2026</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>10</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>3</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Garnlav
-Granticka</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1479-2026 artfynd.xlsx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1479-2026 karta.png", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1479-2026 FSC-klagomål.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1479-2026 FSC-klagomål mail.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1479-2026 tillsynsbegäran.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1479-2026 tillsynsbegäran mail.docx", "A 1479-2026")</f>
         <v/>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
         <v>44280</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,14 +2881,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 45032-2023</t>
+          <t>A 45030-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>45190</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2940,508 +2940,508 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
+          <t>Harticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45030-2023 artfynd.xlsx", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45030-2023 karta.png", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45030-2023 FSC-klagomål.docx", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45030-2023 FSC-klagomål mail.docx", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45030-2023 tillsynsbegäran.docx", "A 45030-2023")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45030-2023 tillsynsbegäran mail.docx", "A 45030-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 17549-2023</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 17549-2023 artfynd.xlsx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 17549-2023 karta.png", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 17549-2023 FSC-klagomål.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 17549-2023 FSC-klagomål mail.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 17549-2023 tillsynsbegäran.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 17549-2023 tillsynsbegäran mail.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 17549-2023 prioriterade fågelarter.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 45032-2023</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
           <t>Gammelgransskål
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45032-2023 artfynd.xlsx", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45032-2023 karta.png", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45032-2023 FSC-klagomål.docx", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45032-2023 FSC-klagomål mail.docx", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45032-2023 tillsynsbegäran.docx", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45032-2023 tillsynsbegäran mail.docx", "A 45032-2023")</f>
         <v/>
       </c>
-      <c r="Z26">
+      <c r="Z28">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 45032-2023 prioriterade fågelarter.docx", "A 45032-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 45030-2023</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 1474-2026</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G29" t="n">
         <v>3.8</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>2</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>2</v>
       </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>2</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Harticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45030-2023 artfynd.xlsx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45030-2023 karta.png", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45030-2023 FSC-klagomål.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45030-2023 FSC-klagomål mail.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45030-2023 tillsynsbegäran.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45030-2023 tillsynsbegäran mail.docx", "A 45030-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1474-2026 artfynd.xlsx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1474-2026 karta.png", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1474-2026 FSC-klagomål.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1474-2026 FSC-klagomål mail.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1474-2026 tillsynsbegäran.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1474-2026 tillsynsbegäran mail.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A 1478-2026</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="T30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="V30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="W30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="X30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="Y30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="Z30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>A 45779-2024</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B31" s="1" t="n">
         <v>45579</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="C31" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G31" t="n">
         <v>6.8</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>2</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>2</v>
       </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2</v>
       </c>
-      <c r="R28" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S28">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45779-2024 artfynd.xlsx", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="T28">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45779-2024 karta.png", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="V28">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45779-2024 FSC-klagomål.docx", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="W28">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45779-2024 FSC-klagomål mail.docx", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="X28">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45779-2024 tillsynsbegäran.docx", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="Y28">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45779-2024 tillsynsbegäran mail.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 17549-2023</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>45034</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 17549-2023 artfynd.xlsx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 17549-2023 karta.png", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 17549-2023 FSC-klagomål.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 17549-2023 FSC-klagomål mail.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 17549-2023 tillsynsbegäran.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 17549-2023 tillsynsbegäran mail.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 17549-2023 prioriterade fågelarter.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A 1478-2026</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>A 1474-2026</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>Harticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1474-2026 artfynd.xlsx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1474-2026 karta.png", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1474-2026 FSC-klagomål.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1474-2026 FSC-klagomål mail.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1474-2026 tillsynsbegäran.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1474-2026 tillsynsbegäran mail.docx", "A 1474-2026")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 30592-2023</t>
+          <t>A 45324-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45112</v>
+        <v>44841</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3453,13 +3453,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>19</v>
+        <v>23.2</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -3468,13 +3463,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3486,56 +3481,52 @@
         <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bergand</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45324-2022 artfynd.xlsx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45324-2022 karta.png", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45324-2022 FSC-klagomål.docx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45324-2022 FSC-klagomål mail.docx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45324-2022 tillsynsbegäran.docx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
-        <v/>
-      </c>
-      <c r="Z32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45324-2022 tillsynsbegäran mail.docx", "A 45324-2022")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 18921-2025</t>
+          <t>A 25279-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45764</v>
+        <v>45079</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3549,20 +3540,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>12.5</v>
+        <v>6.9</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3577,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3587,45 +3578,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 18921-2025 artfynd.xlsx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25279-2023 artfynd.xlsx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 18921-2025 karta.png", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25279-2023 karta.png", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 18921-2025 FSC-klagomål.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25279-2023 FSC-klagomål.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 18921-2025 FSC-klagomål mail.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25279-2023 FSC-klagomål mail.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 18921-2025 tillsynsbegäran.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25279-2023 tillsynsbegäran.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 18921-2025 tillsynsbegäran mail.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25279-2023 tillsynsbegäran mail.docx", "A 25279-2023")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 45324-2022</t>
+          <t>A 41375-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44841</v>
+        <v>45559</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3637,14 +3628,19 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>23.2</v>
+        <v>5.9</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3653,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3662,55 +3658,55 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Bergand</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45324-2022 artfynd.xlsx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45324-2022 karta.png", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45324-2022 FSC-klagomål.docx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45324-2022 FSC-klagomål mail.docx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45324-2022 tillsynsbegäran.docx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45324-2022 tillsynsbegäran mail.docx", "A 45324-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 41375-2024</t>
+          <t>A 12403-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45559</v>
+        <v>45730</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3722,23 +3718,18 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>5.9</v>
+        <v>10.1</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>1</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
@@ -3752,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3762,45 +3753,49 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
+        <v/>
+      </c>
+      <c r="Z35">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12403-2025</t>
+          <t>A 26503-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45730</v>
+        <v>45807</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3813,7 +3808,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>10.1</v>
+        <v>20</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3822,13 +3817,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -3840,56 +3835,52 @@
         <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bergand</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
-        <v/>
-      </c>
-      <c r="Z36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 25279-2023</t>
+          <t>A 30592-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45079</v>
+        <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3903,21 +3894,21 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6.9</v>
+        <v>19</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>1</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
@@ -3931,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3941,45 +3932,49 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25279-2023 artfynd.xlsx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25279-2023 karta.png", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25279-2023 FSC-klagomål.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25279-2023 FSC-klagomål mail.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25279-2023 tillsynsbegäran.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25279-2023 tillsynsbegäran mail.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
+        <v/>
+      </c>
+      <c r="Z37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 26503-2025</t>
+          <t>A 18921-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45807</v>
+        <v>45764</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3991,23 +3986,28 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -4019,38 +4019,38 @@
         <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Bergand</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 18921-2025 artfynd.xlsx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 18921-2025 karta.png", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 18921-2025 FSC-klagomål.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 18921-2025 FSC-klagomål mail.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 18921-2025 tillsynsbegäran.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 18921-2025 tillsynsbegäran mail.docx", "A 18921-2025")</f>
         <v/>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
         <v>44520</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4285,14 +4285,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 56278-2021</t>
+          <t>A 12789-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44479</v>
+        <v>44642</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4304,8 +4304,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>56.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4342,14 +4347,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 52573-2022</t>
+          <t>A 44751-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44874</v>
+        <v>44840</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4361,8 +4366,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>7.7</v>
+        <v>26.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4399,14 +4409,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 44751-2022</t>
+          <t>A 56278-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44840</v>
+        <v>44479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4418,13 +4428,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>26.1</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4461,14 +4466,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12789-2022</t>
+          <t>A 52573-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44642</v>
+        <v>44874</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4480,13 +4485,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>56.1</v>
+        <v>7.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4523,14 +4523,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 72279-2021</t>
+          <t>A 19620-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44543</v>
+        <v>44694</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4542,8 +4542,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4580,14 +4585,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 19620-2022</t>
+          <t>A 72279-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44694</v>
+        <v>44543</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4599,13 +4604,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>44741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44489</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44425</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4875,14 +4875,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 56785-2024</t>
+          <t>A 46585-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45625</v>
+        <v>44445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4894,8 +4894,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4932,14 +4937,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 46585-2021</t>
+          <t>A 42274-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44445</v>
+        <v>44830</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4953,11 +4958,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>11.1</v>
+        <v>6.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4994,14 +4999,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 55124-2024</t>
+          <t>A 46910-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45618</v>
+        <v>45583</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5014,7 +5019,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>18.3</v>
+        <v>3.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5051,14 +5056,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 73880-2021</t>
+          <t>A 55266-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44552</v>
+        <v>45621</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5071,7 +5076,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5108,14 +5113,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 48376-2023</t>
+          <t>A 55124-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45205</v>
+        <v>45618</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5125,11 +5130,6 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5170,14 +5170,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 53822-2024</t>
+          <t>A 55422-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45614</v>
+        <v>44475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5189,8 +5189,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5227,14 +5232,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 28354-2022</t>
+          <t>A 56276-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44735</v>
+        <v>44479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5246,13 +5251,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>0.3</v>
+        <v>19.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5289,14 +5289,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 23949-2024</t>
+          <t>A 35627-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45455</v>
+        <v>45859</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,13 +5308,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>3.9</v>
+        <v>8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5351,14 +5346,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 10825-2025</t>
+          <t>A 45072-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45722</v>
+        <v>45187</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5371,7 +5366,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>14.1</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5408,14 +5403,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 61729-2024</t>
+          <t>A 48992-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45649</v>
+        <v>45937.58351851852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5429,11 +5424,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5470,14 +5465,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 55422-2021</t>
+          <t>A 58989-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44475</v>
+        <v>45636</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5495,7 +5490,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5532,14 +5527,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 48940-2023</t>
+          <t>A 42518-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45205</v>
+        <v>45905</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5552,7 +5547,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5589,14 +5584,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 29649-2024</t>
+          <t>A 42325-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45484</v>
+        <v>45903</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5608,13 +5603,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>24</v>
+        <v>11.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5651,14 +5641,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 52581-2022</t>
+          <t>A 42331-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44874</v>
+        <v>45903</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5671,7 +5661,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5708,14 +5698,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 54589-2021</t>
+          <t>A 42597-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44473</v>
+        <v>45905</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5728,7 +5718,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5765,14 +5755,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 45072-2023</t>
+          <t>A 42526-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45187</v>
+        <v>45905</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5785,7 +5775,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>12.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5822,14 +5812,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 26103-2024</t>
+          <t>A 58370-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45467</v>
+        <v>45250</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5842,7 +5832,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>17.2</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5879,14 +5869,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 26470-2024</t>
+          <t>A 48987-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45468</v>
+        <v>45937.5759837963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5898,8 +5888,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5936,14 +5931,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 26811-2022</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44735</v>
+        <v>44833</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5955,13 +5950,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>24.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5998,14 +5988,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 3006-2024</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45315</v>
+        <v>44833</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6018,7 +6008,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>9.1</v>
+        <v>23.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6055,14 +6045,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 14375-2021</t>
+          <t>A 44943-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44279</v>
+        <v>45918</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6076,11 +6066,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6117,14 +6107,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 56754-2024</t>
+          <t>A 50255-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45625</v>
+        <v>45216</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6137,7 +6127,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6174,14 +6164,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 25440-2024</t>
+          <t>A 3006-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45463</v>
+        <v>45315</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6193,13 +6183,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>30.7</v>
+        <v>9.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6236,14 +6221,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 56800-2024</t>
+          <t>A 46747-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45625</v>
+        <v>45926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6256,7 +6241,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.1</v>
+        <v>19.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6293,14 +6278,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 64826-2023</t>
+          <t>A 526-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45281</v>
+        <v>45664</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6314,11 +6299,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.6</v>
+        <v>0.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6355,14 +6340,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 44218-2023</t>
+          <t>A 29667-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45183</v>
+        <v>45825</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6380,7 +6365,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>20.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6417,14 +6402,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 56782-2024</t>
+          <t>A 25275-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45625</v>
+        <v>45079</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6436,8 +6421,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>4.3</v>
+        <v>22.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6474,14 +6464,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 56794-2024</t>
+          <t>A 25928-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45625</v>
+        <v>45467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6494,7 +6484,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6531,14 +6521,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 25928-2024</t>
+          <t>A 23949-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45467</v>
+        <v>45455</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6550,8 +6540,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>12</v>
+        <v>3.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6588,14 +6583,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 64837-2023</t>
+          <t>A 31104-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45281</v>
+        <v>45832.60090277778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6608,7 +6603,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6645,14 +6640,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 64840-2023</t>
+          <t>A 48376-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45281</v>
+        <v>45205</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6664,8 +6659,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>18.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6702,14 +6702,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 35194-2024</t>
+          <t>A 25559-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45530</v>
+        <v>44732</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6721,8 +6721,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>20.1</v>
+        <v>39</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6759,14 +6764,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 45924-2023</t>
+          <t>A 54589-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45189</v>
+        <v>44473</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6779,7 +6784,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>11.2</v>
+        <v>4.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6816,14 +6821,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 64816-2023</t>
+          <t>A 30617-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45281</v>
+        <v>45831</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6835,8 +6840,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>13.4</v>
+        <v>39.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6873,14 +6883,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 26479-2024</t>
+          <t>A 30595-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45468</v>
+        <v>45831</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6893,7 +6903,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>6.9</v>
+        <v>15.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6930,14 +6940,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 12409-2025</t>
+          <t>A 30606-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45730.43366898148</v>
+        <v>45831</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6949,8 +6959,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>4.1</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6987,14 +7002,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 526-2025</t>
+          <t>A 29674-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45664</v>
+        <v>45825</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7008,11 +7023,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.4</v>
+        <v>25.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7049,14 +7064,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 64832-2023</t>
+          <t>A 29662-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45281</v>
+        <v>45825</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7068,8 +7083,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>43.6</v>
+        <v>23.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7106,14 +7126,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 35627-2025</t>
+          <t>A 36779-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45859</v>
+        <v>45873</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7126,7 +7146,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>8</v>
+        <v>17.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7163,14 +7183,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 36623-2023</t>
+          <t>A 53246-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45153</v>
+        <v>45958.64807870371</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7184,11 +7204,11 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>16.9</v>
+        <v>36.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7225,14 +7245,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 64809-2023</t>
+          <t>A 37442-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45281</v>
+        <v>45877.54096064815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7245,7 +7265,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>17.8</v>
+        <v>4.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7282,14 +7302,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 58989-2024</t>
+          <t>A 20789-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45636</v>
+        <v>44701</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7301,13 +7321,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>3.5</v>
+        <v>20.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7344,14 +7359,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 42325-2025</t>
+          <t>A 26479-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45903</v>
+        <v>45468</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7364,7 +7379,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>11.3</v>
+        <v>6.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7401,14 +7416,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 42331-2025</t>
+          <t>A 34670-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45903</v>
+        <v>45847</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7421,7 +7436,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7458,14 +7473,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 42518-2025</t>
+          <t>A 55570-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45905</v>
+        <v>45971.65667824074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7477,8 +7492,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>13.3</v>
+        <v>10.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7515,14 +7535,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 42597-2025</t>
+          <t>A 34426-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45905</v>
+        <v>45845</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7535,7 +7555,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>9.199999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7572,14 +7592,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46910-2024</t>
+          <t>A 53822-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45583</v>
+        <v>45614</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7592,7 +7612,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7629,14 +7649,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 30870-2023</t>
+          <t>A 64816-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45113</v>
+        <v>45281</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7648,13 +7668,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>25.5</v>
+        <v>13.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7691,14 +7706,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 64822-2023</t>
+          <t>A 17536-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45281</v>
+        <v>45034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7710,8 +7725,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>5</v>
+        <v>20.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7748,14 +7768,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 58370-2023</t>
+          <t>A 14375-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45250</v>
+        <v>44279</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7767,8 +7787,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.7</v>
+        <v>60</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7805,14 +7830,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 42526-2025</t>
+          <t>A 28354-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45905</v>
+        <v>44735</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7824,8 +7849,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>12.5</v>
+        <v>0.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7862,14 +7892,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 44943-2025</t>
+          <t>A 390-2026</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45918</v>
+        <v>46028.22915509259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7881,13 +7911,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>19.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7924,14 +7949,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 50255-2023</t>
+          <t>A 20905-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45216</v>
+        <v>45777</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7944,7 +7969,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>20</v>
+        <v>10.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7981,14 +8006,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 46747-2025</t>
+          <t>A 59887-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45926</v>
+        <v>45993.32416666667</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8001,7 +8026,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>19.7</v>
+        <v>1.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8038,14 +8063,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 48987-2025</t>
+          <t>A 73880-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45937.5759837963</v>
+        <v>44552</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8057,13 +8082,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>6.5</v>
+        <v>11.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8100,14 +8120,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 48992-2025</t>
+          <t>A 26472-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45937.58351851852</v>
+        <v>45469</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8119,13 +8139,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>2.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8162,14 +8177,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 26472-2024</t>
+          <t>A 26486-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
         <v>45469</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8182,7 +8197,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>8.199999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8219,14 +8234,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 26486-2024</t>
+          <t>A 60767-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45469</v>
+        <v>45999.3869212963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8239,7 +8254,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>7.1</v>
+        <v>11.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8276,14 +8291,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 55266-2024</t>
+          <t>A 60766-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45621</v>
+        <v>45999.38688657407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8296,7 +8311,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>11.3</v>
+        <v>5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8333,14 +8348,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 20789-2022</t>
+          <t>A 44218-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44701</v>
+        <v>45183</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8352,8 +8367,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>20.3</v>
+        <v>5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8390,14 +8410,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 26773-2022</t>
+          <t>A 48940-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44732</v>
+        <v>45205</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8409,13 +8429,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>34</v>
+        <v>13.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8452,14 +8467,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 62801-2023</t>
+          <t>A 56754-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45268</v>
+        <v>45625</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8472,7 +8487,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>7.1</v>
+        <v>11.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8509,14 +8524,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 25270-2023</t>
+          <t>A 30870-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45079</v>
+        <v>45113</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8530,11 +8545,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>29</v>
+        <v>25.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8571,14 +8586,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 53246-2025</t>
+          <t>A 61729-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45958.64807870371</v>
+        <v>45649</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8596,7 +8611,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>36.7</v>
+        <v>0.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8633,14 +8648,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 41061-2024</t>
+          <t>A 64822-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45558</v>
+        <v>45281</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8653,7 +8668,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>23.1</v>
+        <v>5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8690,14 +8705,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 42274-2022</t>
+          <t>A 26811-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44830</v>
+        <v>44735</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8711,11 +8726,11 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>6.5</v>
+        <v>0.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8752,14 +8767,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 34670-2025</t>
+          <t>A 29649-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45847</v>
+        <v>45484</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8771,8 +8786,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>2.3</v>
+        <v>24</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8809,14 +8829,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 55570-2025</t>
+          <t>A 45924-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45971.65667824074</v>
+        <v>45189</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8828,13 +8848,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>10.6</v>
+        <v>11.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8871,14 +8886,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 34426-2025</t>
+          <t>A 10825-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45845</v>
+        <v>45722</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8891,7 +8906,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.3</v>
+        <v>14.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8928,14 +8943,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 17536-2023</t>
+          <t>A 6642-2026</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45034</v>
+        <v>46056.53643518518</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8947,13 +8962,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>20.3</v>
+        <v>13.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8990,14 +9000,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 390-2026</t>
+          <t>A 38851-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46028.22915509259</v>
+        <v>45887.55271990741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9010,7 +9020,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>19.5</v>
+        <v>15.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9047,14 +9057,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 20905-2025</t>
+          <t>A 62801-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45777</v>
+        <v>45268</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9067,7 +9077,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>10.6</v>
+        <v>7.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9104,14 +9114,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 59887-2025</t>
+          <t>A 64809-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45993.32416666667</v>
+        <v>45281</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9124,7 +9134,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>17.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9161,14 +9171,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 56276-2021</t>
+          <t>A 64826-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44479</v>
+        <v>45281</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9180,8 +9190,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>19.8</v>
+        <v>5.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9218,14 +9233,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 60767-2025</t>
+          <t>A 26470-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45999.3869212963</v>
+        <v>45468</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9238,7 +9253,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>11.3</v>
+        <v>6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9275,14 +9290,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 60766-2025</t>
+          <t>A 52581-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45999.38688657407</v>
+        <v>44874</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9295,7 +9310,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9332,14 +9347,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 25440-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44833</v>
+        <v>45463</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9351,8 +9366,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>24.6</v>
+        <v>30.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9389,14 +9409,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 26103-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44833</v>
+        <v>45467</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9409,7 +9429,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>23.2</v>
+        <v>17.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9446,14 +9466,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 6642-2026</t>
+          <t>A 64832-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46056.53643518518</v>
+        <v>45281</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9466,7 +9486,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>13.5</v>
+        <v>43.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9503,14 +9523,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 38851-2025</t>
+          <t>A 12447-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45887.55271990741</v>
+        <v>45730</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9523,7 +9543,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>15.2</v>
+        <v>7.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9560,14 +9580,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 29667-2025</t>
+          <t>A 25270-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45825</v>
+        <v>45079</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9581,11 +9601,11 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>20.1</v>
+        <v>29</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9622,14 +9642,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 31104-2025</t>
+          <t>A 25239-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45832.60090277778</v>
+        <v>45079</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9641,8 +9661,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>4.3</v>
+        <v>7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9679,14 +9704,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 25275-2023</t>
+          <t>A 10476-2026</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45079</v>
+        <v>46076</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9698,13 +9723,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>22.7</v>
+        <v>3.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9741,14 +9761,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 25559-2022</t>
+          <t>A 12409-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44732</v>
+        <v>45730.43366898148</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9760,13 +9780,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>39</v>
+        <v>4.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9803,14 +9818,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 12447-2025</t>
+          <t>A 26773-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45730</v>
+        <v>44732</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9822,8 +9837,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>7.9</v>
+        <v>34</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9860,14 +9880,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 25239-2023</t>
+          <t>A 35194-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45079</v>
+        <v>45530</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9879,13 +9899,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>7</v>
+        <v>20.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9922,14 +9937,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 30606-2025</t>
+          <t>A 36623-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45831</v>
+        <v>45153</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9943,11 +9958,11 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>70.40000000000001</v>
+        <v>16.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9984,14 +9999,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 30617-2025</t>
+          <t>A 64837-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45831</v>
+        <v>45281</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10003,13 +10018,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>39.8</v>
+        <v>5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10046,14 +10056,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 29662-2025</t>
+          <t>A 64840-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45825</v>
+        <v>45281</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10065,13 +10075,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>23.7</v>
+        <v>3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10108,14 +10113,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 29674-2025</t>
+          <t>A 41061-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45825</v>
+        <v>45558</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10127,13 +10132,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>25.1</v>
+        <v>23.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10170,14 +10170,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 30595-2025</t>
+          <t>A 56785-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45831</v>
+        <v>45625</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>15.6</v>
+        <v>11.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10227,14 +10227,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 36779-2025</t>
+          <t>A 56800-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45873</v>
+        <v>45625</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>17.2</v>
+        <v>3.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10281,17 +10281,17 @@
       </c>
       <c r="R144" s="2" t="inlineStr"/>
     </row>
-    <row r="145">
+    <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 37442-2025</t>
+          <t>A 56794-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45877.54096064815</v>
+        <v>45625</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.6</v>
+        <v>7.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10337,6 +10337,63 @@
         <v>0</v>
       </c>
       <c r="R145" s="2" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>A 56782-2024</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>45625</v>
+      </c>
+      <c r="C146" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -575,7 +575,7 @@
         <v>45281</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44382</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>45467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         <v>45891.34503472222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45281</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45576</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45831</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1415,14 +1415,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 28351-2025</t>
+          <t>A 2256-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45818</v>
+        <v>45671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,20 +1434,25 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>5.4</v>
+        <v>17.9</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1459,15 +1464,108 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>9</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Månlåsbräken
+Nordlåsbräken
+Grönkulla
+Korallrot
+Spindelblomster
+Buskmus
+Brudsporre
+Fläcknycklar
+Fjällummer</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 2256-2025 artfynd.xlsx", "A 2256-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 2256-2025 karta.png", "A 2256-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 2256-2025 FSC-klagomål.docx", "A 2256-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 2256-2025 FSC-klagomål mail.docx", "A 2256-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 2256-2025 tillsynsbegäran.docx", "A 2256-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 2256-2025 tillsynsbegäran mail.docx", "A 2256-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 28351-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45818</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Blanksvart spiklav
@@ -1480,126 +1578,28 @@
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 28351-2025 artfynd.xlsx", "A 28351-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 28351-2025 karta.png", "A 28351-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 28351-2025 FSC-klagomål.docx", "A 28351-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 28351-2025 FSC-klagomål mail.docx", "A 28351-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 28351-2025 tillsynsbegäran.docx", "A 28351-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 28351-2025 tillsynsbegäran mail.docx", "A 28351-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 2256-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45671</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Månlåsbräken
-Nordlåsbräken
-Grönkulla
-Korallrot
-Spindelblomster
-Buskmus
-Brudsporre
-Fläcknycklar
-Fjällummer</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 2256-2025 artfynd.xlsx", "A 2256-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 2256-2025 karta.png", "A 2256-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 2256-2025 FSC-klagomål.docx", "A 2256-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 2256-2025 FSC-klagomål mail.docx", "A 2256-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 2256-2025 tillsynsbegäran.docx", "A 2256-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 2256-2025 tillsynsbegäran mail.docx", "A 2256-2025")</f>
         <v/>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
         <v>45203</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45327</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45079</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1978,14 +1978,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 34430-2025</t>
+          <t>A 47035-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45845</v>
+        <v>44851</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,40 +1997,134 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>39.6</v>
+        <v>15.9</v>
       </c>
       <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>4</v>
-      </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>5</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Månlåsbräken
+Grönkulla
+Spindelblomster
+Tibast
+Brudsporre</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 47035-2022 artfynd.xlsx", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 47035-2022 karta.png", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 47035-2022 FSC-klagomål.docx", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 47035-2022 FSC-klagomål mail.docx", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 47035-2022 tillsynsbegäran.docx", "A 47035-2022")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 47035-2022 tillsynsbegäran mail.docx", "A 47035-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 34430-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Blanksvart spiklav
@@ -2039,122 +2133,28 @@
 Plattlummer</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 34430-2025 artfynd.xlsx", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 34430-2025 karta.png", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 34430-2025 FSC-klagomål.docx", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 34430-2025 FSC-klagomål mail.docx", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 34430-2025 tillsynsbegäran.docx", "A 34430-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 34430-2025 tillsynsbegäran mail.docx", "A 34430-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 47035-2022</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44851</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Månlåsbräken
-Grönkulla
-Spindelblomster
-Tibast
-Brudsporre</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 47035-2022 artfynd.xlsx", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 47035-2022 karta.png", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 47035-2022 FSC-klagomål.docx", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 47035-2022 FSC-klagomål mail.docx", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 47035-2022 tillsynsbegäran.docx", "A 47035-2022")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 47035-2022 tillsynsbegäran mail.docx", "A 47035-2022")</f>
         <v/>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
         <v>45281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45937</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>45467</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>45190</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2612,14 +2612,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 1479-2026</t>
+          <t>A 10525-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46033</v>
+        <v>45366</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2631,22 +2631,17 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2661,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2670,121 +2665,126 @@
         <v>3</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Korallrot
+Spindelblomster
+Ögonpyrola</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 10525-2024 artfynd.xlsx", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 10525-2024 karta.png", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 10525-2024 FSC-klagomål.docx", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 10525-2024 FSC-klagomål mail.docx", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 10525-2024 tillsynsbegäran.docx", "A 10525-2024")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 10525-2024 tillsynsbegäran mail.docx", "A 10525-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 1479-2026</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
 Granticka</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1479-2026 artfynd.xlsx", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1479-2026 karta.png", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1479-2026 FSC-klagomål.docx", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1479-2026 FSC-klagomål mail.docx", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1479-2026 tillsynsbegäran.docx", "A 1479-2026")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1479-2026 tillsynsbegäran mail.docx", "A 1479-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 10525-2024</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45366</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Korallrot
-Spindelblomster
-Ögonpyrola</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 10525-2024 artfynd.xlsx", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 10525-2024 karta.png", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 10525-2024 FSC-klagomål.docx", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 10525-2024 FSC-klagomål mail.docx", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 10525-2024 tillsynsbegäran.docx", "A 10525-2024")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 10525-2024 tillsynsbegäran mail.docx", "A 10525-2024")</f>
         <v/>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
         <v>44280</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>45190</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2972,14 +2972,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 17549-2023</t>
+          <t>A 45779-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45034</v>
+        <v>45579</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2991,11 +2991,16 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>18.8</v>
+        <v>6.8</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -3027,35 +3032,31 @@
       <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Granticka
-Tretåig hackspett</t>
+Ullticka</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 17549-2023 artfynd.xlsx", "A 17549-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45779-2024 artfynd.xlsx", "A 45779-2024")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 17549-2023 karta.png", "A 17549-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45779-2024 karta.png", "A 45779-2024")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 17549-2023 FSC-klagomål.docx", "A 17549-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45779-2024 FSC-klagomål.docx", "A 45779-2024")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 17549-2023 FSC-klagomål mail.docx", "A 17549-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45779-2024 FSC-klagomål mail.docx", "A 45779-2024")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 17549-2023 tillsynsbegäran.docx", "A 17549-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45779-2024 tillsynsbegäran.docx", "A 45779-2024")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 17549-2023 tillsynsbegäran mail.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 17549-2023 prioriterade fågelarter.docx", "A 17549-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45779-2024 tillsynsbegäran mail.docx", "A 45779-2024")</f>
         <v/>
       </c>
     </row>
@@ -3069,7 +3070,7 @@
         <v>45190</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3157,14 +3158,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 1474-2026</t>
+          <t>A 17549-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>46033</v>
+        <v>45034</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,16 +3177,11 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>3.8</v>
+        <v>18.8</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -3216,218 +3212,222 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
+          <t>Granticka
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 17549-2023 artfynd.xlsx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 17549-2023 karta.png", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 17549-2023 FSC-klagomål.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 17549-2023 FSC-klagomål mail.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 17549-2023 tillsynsbegäran.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 17549-2023 tillsynsbegäran mail.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="Z29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 17549-2023 prioriterade fågelarter.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A 1478-2026</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="T30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="V30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="W30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="X30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="Y30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="Z30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>A 1474-2026</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
           <t>Harticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S29">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1474-2026 artfynd.xlsx", "A 1474-2026")</f>
         <v/>
       </c>
-      <c r="T29">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1474-2026 karta.png", "A 1474-2026")</f>
         <v/>
       </c>
-      <c r="V29">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1474-2026 FSC-klagomål.docx", "A 1474-2026")</f>
         <v/>
       </c>
-      <c r="W29">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1474-2026 FSC-klagomål mail.docx", "A 1474-2026")</f>
         <v/>
       </c>
-      <c r="X29">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1474-2026 tillsynsbegäran.docx", "A 1474-2026")</f>
         <v/>
       </c>
-      <c r="Y29">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1474-2026 tillsynsbegäran mail.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A 1478-2026</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>A 45779-2024</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>45579</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45779-2024 artfynd.xlsx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45779-2024 karta.png", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45779-2024 FSC-klagomål.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45779-2024 FSC-klagomål mail.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45779-2024 tillsynsbegäran.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-      <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45779-2024 tillsynsbegäran mail.docx", "A 45779-2024")</f>
         <v/>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
         <v>44841</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3519,14 +3519,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 25279-2023</t>
+          <t>A 30592-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45079</v>
+        <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3540,21 +3540,21 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6.9</v>
+        <v>19</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
       </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>1</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3578,45 +3578,49 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25279-2023 artfynd.xlsx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25279-2023 karta.png", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25279-2023 FSC-klagomål.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25279-2023 FSC-klagomål mail.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25279-2023 tillsynsbegäran.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25279-2023 tillsynsbegäran mail.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
+        <v/>
+      </c>
+      <c r="Z33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41375-2024</t>
+          <t>A 25279-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45559</v>
+        <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3634,7 +3638,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3668,45 +3672,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25279-2023 artfynd.xlsx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25279-2023 karta.png", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25279-2023 FSC-klagomål.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25279-2023 FSC-klagomål mail.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25279-2023 tillsynsbegäran.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25279-2023 tillsynsbegäran mail.docx", "A 25279-2023")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 12403-2025</t>
+          <t>A 18921-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45730</v>
+        <v>45764</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3718,11 +3722,16 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>10.1</v>
+        <v>12.5</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3753,49 +3762,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 18921-2025 artfynd.xlsx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 18921-2025 karta.png", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 18921-2025 FSC-klagomål.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 18921-2025 FSC-klagomål mail.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 18921-2025 tillsynsbegäran.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
-        <v/>
-      </c>
-      <c r="Z35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 18921-2025 tillsynsbegäran mail.docx", "A 18921-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 26503-2025</t>
+          <t>A 12403-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45807</v>
+        <v>45730</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3808,7 +3813,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>20</v>
+        <v>10.1</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3817,13 +3822,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -3835,52 +3840,56 @@
         <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Bergand</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
+        <v/>
+      </c>
+      <c r="Z36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 30592-2023</t>
+          <t>A 41375-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45112</v>
+        <v>45559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3894,20 +3903,20 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>19</v>
+        <v>5.9</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3922,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3932,49 +3941,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
-        <v/>
-      </c>
-      <c r="Z37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 18921-2025</t>
+          <t>A 26503-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45764</v>
+        <v>45807</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3986,28 +3991,23 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -4019,38 +4019,38 @@
         <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Bergand</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 18921-2025 artfynd.xlsx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 18921-2025 karta.png", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 18921-2025 FSC-klagomål.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 18921-2025 FSC-klagomål mail.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 18921-2025 tillsynsbegäran.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 18921-2025 tillsynsbegäran mail.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
         <v>44520</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44642</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4347,14 +4347,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 44751-2022</t>
+          <t>A 56278-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44840</v>
+        <v>44479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4366,13 +4366,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>26.1</v>
+        <v>0.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4409,14 +4404,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 56278-2021</t>
+          <t>A 19620-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44479</v>
+        <v>44694</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4426,6 +4421,11 @@
       <c r="E45" t="inlineStr">
         <is>
           <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4473,7 +4473,7 @@
         <v>44874</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4523,14 +4523,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 19620-2022</t>
+          <t>A 44751-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44694</v>
+        <v>44840</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4544,11 +4544,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>26.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4585,14 +4585,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 72279-2021</t>
+          <t>A 27092-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44543</v>
+        <v>44741</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>15.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4642,14 +4642,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 27092-2022</t>
+          <t>A 72279-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44741</v>
+        <v>44543</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>15.6</v>
+        <v>0.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4699,14 +4699,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 58879-2021</t>
+          <t>A 41799-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44489</v>
+        <v>44425</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>8</v>
+        <v>11.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4756,14 +4756,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 41799-2021</t>
+          <t>A 58879-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44425</v>
+        <v>44489</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>11.3</v>
+        <v>8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>44369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4875,14 +4875,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 46585-2021</t>
+          <t>A 56785-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44445</v>
+        <v>45625</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4894,13 +4894,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4937,14 +4932,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 42274-2022</t>
+          <t>A 55124-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44830</v>
+        <v>45618</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4956,13 +4951,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>6.5</v>
+        <v>18.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4999,14 +4989,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 46910-2024</t>
+          <t>A 46585-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45583</v>
+        <v>44445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5018,8 +5008,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>3.6</v>
+        <v>11.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5056,14 +5051,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 55266-2024</t>
+          <t>A 55422-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45621</v>
+        <v>44475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5075,8 +5070,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>11.3</v>
+        <v>4.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5113,14 +5113,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 55124-2024</t>
+          <t>A 48940-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45618</v>
+        <v>45205</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>18.3</v>
+        <v>13.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5170,14 +5170,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 55422-2021</t>
+          <t>A 48376-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44475</v>
+        <v>45205</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5191,11 +5191,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.1</v>
+        <v>18.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5232,14 +5232,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 56276-2021</t>
+          <t>A 26472-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44479</v>
+        <v>45469</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>19.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5289,14 +5289,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 35627-2025</t>
+          <t>A 26486-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45859</v>
+        <v>45469</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5346,14 +5346,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 45072-2023</t>
+          <t>A 26103-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45187</v>
+        <v>45467</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>17.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5403,14 +5403,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 48992-2025</t>
+          <t>A 53822-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45937.58351851852</v>
+        <v>45614</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,13 +5422,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5465,14 +5460,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 58989-2024</t>
+          <t>A 55266-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45636</v>
+        <v>45621</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5484,13 +5479,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>3.5</v>
+        <v>11.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5527,14 +5517,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 42518-2025</t>
+          <t>A 28354-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45905</v>
+        <v>44735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5546,8 +5536,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>13.3</v>
+        <v>0.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5584,14 +5579,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 42325-2025</t>
+          <t>A 20789-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45903</v>
+        <v>44701</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5604,7 +5599,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>11.3</v>
+        <v>20.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5641,14 +5636,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 42331-2025</t>
+          <t>A 64826-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45903</v>
+        <v>45281</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5660,8 +5655,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>10</v>
+        <v>5.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5698,14 +5698,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 42597-2025</t>
+          <t>A 26773-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45905</v>
+        <v>44732</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5717,8 +5717,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>9.199999999999999</v>
+        <v>34</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5755,14 +5760,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 42526-2025</t>
+          <t>A 62801-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45905</v>
+        <v>45268</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5775,7 +5780,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>12.5</v>
+        <v>7.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5812,14 +5817,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 58370-2023</t>
+          <t>A 10825-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45250</v>
+        <v>45722</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5832,7 +5837,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>14.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5869,14 +5874,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 48987-2025</t>
+          <t>A 61729-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45937.5759837963</v>
+        <v>45649</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5890,11 +5895,11 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.5</v>
+        <v>0.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5931,14 +5936,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 35194-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44833</v>
+        <v>45530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5951,7 +5956,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>24.6</v>
+        <v>20.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5988,14 +5993,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 29649-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44833</v>
+        <v>45484</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6007,8 +6012,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>23.2</v>
+        <v>24</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6045,14 +6055,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 44943-2025</t>
+          <t>A 41061-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45918</v>
+        <v>45558</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6064,13 +6074,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>23.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6107,14 +6112,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 50255-2023</t>
+          <t>A 526-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45216</v>
+        <v>45664</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6126,8 +6131,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>20</v>
+        <v>0.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6164,14 +6174,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 3006-2024</t>
+          <t>A 64832-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45315</v>
+        <v>45281</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6184,7 +6194,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>9.1</v>
+        <v>43.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6221,14 +6231,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 46747-2025</t>
+          <t>A 36623-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45926</v>
+        <v>45153</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6240,8 +6250,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>19.7</v>
+        <v>16.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6278,14 +6293,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 526-2025</t>
+          <t>A 42274-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45664</v>
+        <v>44830</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6299,11 +6314,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.4</v>
+        <v>6.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6340,14 +6355,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 29667-2025</t>
+          <t>A 45072-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45825</v>
+        <v>45187</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6359,13 +6374,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>20.1</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6402,14 +6412,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 25275-2023</t>
+          <t>A 73880-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45079</v>
+        <v>44552</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6421,13 +6431,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>22.7</v>
+        <v>11.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6464,14 +6469,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 25928-2024</t>
+          <t>A 26470-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6484,7 +6489,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6528,7 +6533,7 @@
         <v>45455</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6583,14 +6588,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 31104-2025</t>
+          <t>A 52581-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45832.60090277778</v>
+        <v>44874</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6603,7 +6608,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6640,14 +6645,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 48376-2023</t>
+          <t>A 54589-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45205</v>
+        <v>44473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6659,13 +6664,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>18.3</v>
+        <v>4.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6702,14 +6702,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25559-2022</t>
+          <t>A 14375-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44732</v>
+        <v>44279</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6764,14 +6764,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 54589-2021</t>
+          <t>A 56754-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44473</v>
+        <v>45625</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.8</v>
+        <v>11.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6821,14 +6821,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 30617-2025</t>
+          <t>A 56800-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45831</v>
+        <v>45625</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6840,13 +6840,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>39.8</v>
+        <v>3.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6883,14 +6878,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 30595-2025</t>
+          <t>A 56782-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45831</v>
+        <v>45625</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6903,7 +6898,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>15.6</v>
+        <v>4.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6940,14 +6935,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 30606-2025</t>
+          <t>A 56794-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45831</v>
+        <v>45625</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6959,13 +6954,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>70.40000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7002,14 +6992,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 29674-2025</t>
+          <t>A 25928-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45825</v>
+        <v>45467</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7021,13 +7011,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>25.1</v>
+        <v>12</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7064,14 +7049,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 29662-2025</t>
+          <t>A 56276-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45825</v>
+        <v>44479</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7083,13 +7068,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>23.7</v>
+        <v>19.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7126,14 +7106,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 36779-2025</t>
+          <t>A 35627-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45873</v>
+        <v>45859</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7146,7 +7126,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>17.2</v>
+        <v>8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7183,14 +7163,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 53246-2025</t>
+          <t>A 58989-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45958.64807870371</v>
+        <v>45636</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7204,11 +7184,11 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>36.7</v>
+        <v>3.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7245,14 +7225,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 37442-2025</t>
+          <t>A 42325-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45877.54096064815</v>
+        <v>45903</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7265,7 +7245,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.6</v>
+        <v>11.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7302,14 +7282,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 20789-2022</t>
+          <t>A 42331-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44701</v>
+        <v>45903</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7322,7 +7302,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>20.3</v>
+        <v>10</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7359,14 +7339,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 26479-2024</t>
+          <t>A 3006-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45468</v>
+        <v>45315</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7379,7 +7359,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>6.9</v>
+        <v>9.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7416,14 +7396,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 34670-2025</t>
+          <t>A 42518-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45847</v>
+        <v>45905</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7436,7 +7416,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.3</v>
+        <v>13.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7473,14 +7453,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 55570-2025</t>
+          <t>A 42597-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45971.65667824074</v>
+        <v>45905</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7492,13 +7472,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>10.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7535,14 +7510,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 34426-2025</t>
+          <t>A 42526-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45845</v>
+        <v>45905</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7555,7 +7530,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.3</v>
+        <v>12.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7592,14 +7567,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 53822-2024</t>
+          <t>A 25440-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45614</v>
+        <v>45463</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7611,8 +7586,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.6</v>
+        <v>30.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7649,14 +7629,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 64816-2023</t>
+          <t>A 44943-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45281</v>
+        <v>45918</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7668,8 +7648,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>13.4</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7706,14 +7691,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 17536-2023</t>
+          <t>A 45924-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45034</v>
+        <v>45189</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7725,13 +7710,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>20.3</v>
+        <v>11.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7768,14 +7748,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 14375-2021</t>
+          <t>A 50255-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44279</v>
+        <v>45216</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7787,13 +7767,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7830,14 +7805,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 28354-2022</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44735</v>
+        <v>44833</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7849,13 +7824,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>0.3</v>
+        <v>24.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7892,14 +7862,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 390-2026</t>
+          <t>A 46747-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46028.22915509259</v>
+        <v>45926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7912,7 +7882,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7949,14 +7919,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 20905-2025</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45777</v>
+        <v>44833</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7969,7 +7939,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>10.6</v>
+        <v>23.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8006,14 +7976,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 59887-2025</t>
+          <t>A 12409-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45993.32416666667</v>
+        <v>45730.43366898148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8026,7 +7996,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8063,14 +8033,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 73880-2021</t>
+          <t>A 48987-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44552</v>
+        <v>45937.5759837963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8082,8 +8052,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>11.2</v>
+        <v>6.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8120,14 +8095,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 26472-2024</t>
+          <t>A 48992-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45469</v>
+        <v>45937.58351851852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8139,8 +8114,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>8.199999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8177,14 +8157,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 26486-2024</t>
+          <t>A 26811-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45469</v>
+        <v>44735</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8196,8 +8176,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>7.1</v>
+        <v>0.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8234,14 +8219,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 60767-2025</t>
+          <t>A 29667-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45999.3869212963</v>
+        <v>45825</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8253,8 +8238,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>11.3</v>
+        <v>20.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8291,14 +8281,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 60766-2025</t>
+          <t>A 31104-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45999.38688657407</v>
+        <v>45832.60090277778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8311,7 +8301,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8348,14 +8338,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 44218-2023</t>
+          <t>A 25275-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45183</v>
+        <v>45079</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8369,11 +8359,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5</v>
+        <v>22.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8410,14 +8400,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 48940-2023</t>
+          <t>A 44218-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45205</v>
+        <v>45183</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8429,8 +8419,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>13.5</v>
+        <v>5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8467,14 +8462,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 56754-2024</t>
+          <t>A 53246-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45625</v>
+        <v>45958.64807870371</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8486,8 +8481,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>11.5</v>
+        <v>36.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8524,14 +8524,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 30870-2023</t>
+          <t>A 25559-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45113</v>
+        <v>44732</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8545,11 +8545,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>25.5</v>
+        <v>39</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8586,14 +8586,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 61729-2024</t>
+          <t>A 64837-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45649</v>
+        <v>45281</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8605,13 +8605,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8648,14 +8643,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 64822-2023</t>
+          <t>A 64840-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
         <v>45281</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8668,7 +8663,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8705,14 +8700,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 26811-2022</t>
+          <t>A 34670-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44735</v>
+        <v>45847</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8724,13 +8719,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8767,14 +8757,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 29649-2024</t>
+          <t>A 55570-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45484</v>
+        <v>45971.65667824074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8788,11 +8778,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>24</v>
+        <v>10.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8829,14 +8819,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 45924-2023</t>
+          <t>A 64816-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45189</v>
+        <v>45281</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8849,7 +8839,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>11.2</v>
+        <v>13.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8886,14 +8876,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 10825-2025</t>
+          <t>A 34426-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45722</v>
+        <v>45845</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8906,7 +8896,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>14.1</v>
+        <v>4.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8943,14 +8933,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 6642-2026</t>
+          <t>A 26479-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46056.53643518518</v>
+        <v>45468</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8963,7 +8953,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>13.5</v>
+        <v>6.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9000,14 +8990,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 38851-2025</t>
+          <t>A 30606-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45887.55271990741</v>
+        <v>45831</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9019,8 +9009,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>15.2</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9057,14 +9052,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 62801-2023</t>
+          <t>A 30617-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45268</v>
+        <v>45831</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9076,8 +9071,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>7.1</v>
+        <v>39.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9114,14 +9114,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 64809-2023</t>
+          <t>A 29662-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45281</v>
+        <v>45825</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9133,8 +9133,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>17.8</v>
+        <v>23.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9171,14 +9176,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 64826-2023</t>
+          <t>A 29674-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45281</v>
+        <v>45825</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9192,11 +9197,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>5.6</v>
+        <v>25.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9233,14 +9238,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 26470-2024</t>
+          <t>A 30595-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45468</v>
+        <v>45831</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9253,7 +9258,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>6</v>
+        <v>15.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9290,14 +9295,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 52581-2022</t>
+          <t>A 17536-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44874</v>
+        <v>45034</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9309,8 +9314,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>3.4</v>
+        <v>20.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9347,14 +9357,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 25440-2024</t>
+          <t>A 390-2026</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45463</v>
+        <v>46028.22915509259</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9366,13 +9376,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>30.7</v>
+        <v>19.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9409,14 +9414,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 26103-2024</t>
+          <t>A 36779-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45467</v>
+        <v>45873</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9466,14 +9471,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 64832-2023</t>
+          <t>A 64809-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
         <v>45281</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9486,7 +9491,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>43.6</v>
+        <v>17.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9523,14 +9528,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 12447-2025</t>
+          <t>A 37442-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45730</v>
+        <v>45877.54096064815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9543,7 +9548,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>7.9</v>
+        <v>4.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9580,14 +9585,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 25270-2023</t>
+          <t>A 20905-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45079</v>
+        <v>45777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9599,13 +9604,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>29</v>
+        <v>10.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9642,14 +9642,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 25239-2023</t>
+          <t>A 59887-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45079</v>
+        <v>45993.32416666667</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9661,13 +9661,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9704,14 +9699,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 10476-2026</t>
+          <t>A 46910-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46076</v>
+        <v>45583</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9724,7 +9719,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9761,14 +9756,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 12409-2025</t>
+          <t>A 30870-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45730.43366898148</v>
+        <v>45113</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9780,8 +9775,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>4.1</v>
+        <v>25.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9818,14 +9818,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 26773-2022</t>
+          <t>A 60767-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44732</v>
+        <v>45999.3869212963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9837,13 +9837,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>34</v>
+        <v>11.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9880,14 +9875,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 35194-2024</t>
+          <t>A 60766-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45530</v>
+        <v>45999.38688657407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9900,7 +9895,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>20.1</v>
+        <v>5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9937,14 +9932,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 36623-2023</t>
+          <t>A 64822-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45153</v>
+        <v>45281</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9956,13 +9951,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>16.9</v>
+        <v>5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9999,14 +9989,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 64837-2023</t>
+          <t>A 58370-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45281</v>
+        <v>45250</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10019,7 +10009,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10056,14 +10046,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 64840-2023</t>
+          <t>A 6642-2026</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45281</v>
+        <v>46056.53643518518</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10076,7 +10066,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3</v>
+        <v>13.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10113,14 +10103,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 41061-2024</t>
+          <t>A 38851-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45558</v>
+        <v>45887.55271990741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10133,7 +10123,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>23.1</v>
+        <v>15.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10170,14 +10160,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 56785-2024</t>
+          <t>A 12447-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45625</v>
+        <v>45730</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10190,7 +10180,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>11.2</v>
+        <v>7.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10227,14 +10217,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 56800-2024</t>
+          <t>A 25239-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45625</v>
+        <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10246,8 +10236,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10284,14 +10279,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 56794-2024</t>
+          <t>A 25270-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45625</v>
+        <v>45079</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10303,8 +10298,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>7.5</v>
+        <v>29</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10341,14 +10341,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 56782-2024</t>
+          <t>A 10476-2026</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45625</v>
+        <v>46076</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -575,7 +575,7 @@
         <v>45281</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44382</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,14 +787,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 26089-2024</t>
+          <t>A 39728-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45467</v>
+        <v>45891.34503472222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -806,13 +806,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>40.1</v>
+        <v>36.2</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -821,10 +816,10 @@
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -839,12 +834,124 @@
         <v>15</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>19</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Blanksvart spiklav
+Blågrå svartspik
+Brunpudrad nållav
+Dvärgbägarlav
+Garnlav
+Granticka
+Gränsticka
+Harticka
+Kolflarnlav
+Kortskaftad ärgspik
+Skrovellav
+Tretåig hackspett
+Vedskivlav
+Vitgrynig nållav
+Vitplätt
+Luddlav
+Skinnlav
+Stuplav
+Lavskrika</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 39728-2025 artfynd.xlsx", "A 39728-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 39728-2025 karta.png", "A 39728-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 39728-2025 FSC-klagomål.docx", "A 39728-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 39728-2025 FSC-klagomål mail.docx", "A 39728-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 39728-2025 tillsynsbegäran.docx", "A 39728-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 39728-2025 tillsynsbegäran mail.docx", "A 39728-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 39728-2025 prioriterade fågelarter.docx", "A 39728-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 26089-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45467</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>15</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>19</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Gräddporing
@@ -867,139 +974,32 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26089-2024 artfynd.xlsx", "A 26089-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26089-2024 karta.png", "A 26089-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26089-2024 FSC-klagomål.docx", "A 26089-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26089-2024 FSC-klagomål mail.docx", "A 26089-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26089-2024 tillsynsbegäran.docx", "A 26089-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26089-2024 tillsynsbegäran mail.docx", "A 26089-2024")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 26089-2024 prioriterade fågelarter.docx", "A 26089-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 39728-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45891.34503472222</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>15</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>15</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>19</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Blanksvart spiklav
-Blågrå svartspik
-Brunpudrad nållav
-Dvärgbägarlav
-Garnlav
-Granticka
-Gränsticka
-Harticka
-Kolflarnlav
-Kortskaftad ärgspik
-Skrovellav
-Tretåig hackspett
-Vedskivlav
-Vitgrynig nållav
-Vitplätt
-Luddlav
-Skinnlav
-Stuplav
-Lavskrika</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 39728-2025 artfynd.xlsx", "A 39728-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 39728-2025 karta.png", "A 39728-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 39728-2025 FSC-klagomål.docx", "A 39728-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 39728-2025 FSC-klagomål mail.docx", "A 39728-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 39728-2025 tillsynsbegäran.docx", "A 39728-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 39728-2025 tillsynsbegäran mail.docx", "A 39728-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 39728-2025 prioriterade fågelarter.docx", "A 39728-2025")</f>
         <v/>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
         <v>45281</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45576</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45831</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>45671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>45818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45203</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45327</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45079</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44851</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>45845</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2161,14 +2161,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 64803-2023</t>
+          <t>A 49079-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45281</v>
+        <v>45937</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2180,17 +2180,22 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>43</v>
+        <v>24.7</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2205,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2214,6 +2219,94 @@
         <v>4</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Plattlummer
+Spindelblomster
+Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 49079-2025 artfynd.xlsx", "A 49079-2025")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 49079-2025 karta.png", "A 49079-2025")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 49079-2025 FSC-klagomål.docx", "A 49079-2025")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 49079-2025 FSC-klagomål mail.docx", "A 49079-2025")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 49079-2025 tillsynsbegäran.docx", "A 49079-2025")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 49079-2025 tillsynsbegäran mail.docx", "A 49079-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 64803-2023</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>43</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Gullmurkling
 Lunglav
@@ -2221,135 +2314,42 @@
 Ullticka</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 64803-2023 artfynd.xlsx", "A 64803-2023")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 64803-2023 karta.png", "A 64803-2023")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 64803-2023 FSC-klagomål.docx", "A 64803-2023")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 64803-2023 FSC-klagomål mail.docx", "A 64803-2023")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 64803-2023 tillsynsbegäran.docx", "A 64803-2023")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 64803-2023 tillsynsbegäran mail.docx", "A 64803-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 49079-2025</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Plattlummer
-Spindelblomster
-Mattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 49079-2025 artfynd.xlsx", "A 49079-2025")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 49079-2025 karta.png", "A 49079-2025")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 49079-2025 FSC-klagomål.docx", "A 49079-2025")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 49079-2025 FSC-klagomål mail.docx", "A 49079-2025")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 49079-2025 tillsynsbegäran.docx", "A 49079-2025")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 49079-2025 tillsynsbegäran mail.docx", "A 49079-2025")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 15171-2022</t>
+          <t>A 26143-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44658</v>
+        <v>45467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>48</v>
+        <v>8.1</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2395,125 +2395,125 @@
         <v>3</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Blanksvart spiklav
+Knottrig blåslav
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26143-2024 artfynd.xlsx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26143-2024 karta.png", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26143-2024 FSC-klagomål.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26143-2024 FSC-klagomål mail.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26143-2024 tillsynsbegäran.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26143-2024 tillsynsbegäran mail.docx", "A 26143-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 15171-2022</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>44658</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>48</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Lunglav
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 15171-2022 artfynd.xlsx", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 15171-2022 karta.png", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 15171-2022 FSC-klagomål.docx", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 15171-2022 FSC-klagomål mail.docx", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 15171-2022 tillsynsbegäran.docx", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 15171-2022 tillsynsbegäran mail.docx", "A 15171-2022")</f>
         <v/>
       </c>
-      <c r="Z20">
+      <c r="Z21">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 15171-2022 prioriterade fågelarter.docx", "A 15171-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 26143-2024</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Blanksvart spiklav
-Knottrig blåslav
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26143-2024 artfynd.xlsx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26143-2024 karta.png", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26143-2024 FSC-klagomål.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26143-2024 FSC-klagomål mail.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26143-2024 tillsynsbegäran.docx", "A 26143-2024")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26143-2024 tillsynsbegäran mail.docx", "A 26143-2024")</f>
         <v/>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
         <v>45190</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>45366</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>46033</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44280</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,14 +2881,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 45030-2023</t>
+          <t>A 17549-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45190</v>
+        <v>45034</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2900,16 +2900,11 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>3.8</v>
+        <v>18.8</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2940,494 +2935,499 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
+          <t>Granticka
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 17549-2023 artfynd.xlsx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 17549-2023 karta.png", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 17549-2023 FSC-klagomål.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 17549-2023 FSC-klagomål mail.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 17549-2023 tillsynsbegäran.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 17549-2023 tillsynsbegäran mail.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+      <c r="Z26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 17549-2023 prioriterade fågelarter.docx", "A 17549-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 45032-2023</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45032-2023 artfynd.xlsx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45032-2023 karta.png", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45032-2023 FSC-klagomål.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45032-2023 FSC-klagomål mail.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45032-2023 tillsynsbegäran.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45032-2023 tillsynsbegäran mail.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 45032-2023 prioriterade fågelarter.docx", "A 45032-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 1478-2026</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="V28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="W28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="X28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="Y28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+      <c r="Z28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 1474-2026</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
           <t>Harticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1474-2026 artfynd.xlsx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1474-2026 karta.png", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1474-2026 FSC-klagomål.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1474-2026 FSC-klagomål mail.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1474-2026 tillsynsbegäran.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1474-2026 tillsynsbegäran mail.docx", "A 1474-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A 45030-2023</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>Harticka
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45030-2023 artfynd.xlsx", "A 45030-2023")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45030-2023 karta.png", "A 45030-2023")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45030-2023 FSC-klagomål.docx", "A 45030-2023")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45030-2023 FSC-klagomål mail.docx", "A 45030-2023")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45030-2023 tillsynsbegäran.docx", "A 45030-2023")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45030-2023 tillsynsbegäran mail.docx", "A 45030-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>A 45779-2024</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B31" s="1" t="n">
         <v>45579</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="C31" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ARJEPLOG</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G31" t="n">
         <v>6.8</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>2</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>2</v>
       </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45779-2024 artfynd.xlsx", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="T27">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45779-2024 karta.png", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="V27">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45779-2024 FSC-klagomål.docx", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="W27">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45779-2024 FSC-klagomål mail.docx", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="X27">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45779-2024 tillsynsbegäran.docx", "A 45779-2024")</f>
         <v/>
       </c>
-      <c r="Y27">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45779-2024 tillsynsbegäran mail.docx", "A 45779-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 45032-2023</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>2</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 45032-2023 artfynd.xlsx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 45032-2023 karta.png", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 45032-2023 FSC-klagomål.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 45032-2023 FSC-klagomål mail.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 45032-2023 tillsynsbegäran.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 45032-2023 tillsynsbegäran mail.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 45032-2023 prioriterade fågelarter.docx", "A 45032-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 17549-2023</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>45034</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 17549-2023 artfynd.xlsx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 17549-2023 karta.png", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 17549-2023 FSC-klagomål.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 17549-2023 FSC-klagomål mail.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 17549-2023 tillsynsbegäran.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 17549-2023 tillsynsbegäran mail.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-      <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 17549-2023 prioriterade fågelarter.docx", "A 17549-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A 1478-2026</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1478-2026 artfynd.xlsx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1478-2026 karta.png", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1478-2026 FSC-klagomål.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1478-2026 FSC-klagomål mail.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1478-2026 tillsynsbegäran.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1478-2026 tillsynsbegäran mail.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-      <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 1478-2026 prioriterade fågelarter.docx", "A 1478-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>A 1474-2026</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>46033</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ARJEPLOG</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>Harticka
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 1474-2026 artfynd.xlsx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 1474-2026 karta.png", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 1474-2026 FSC-klagomål.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 1474-2026 FSC-klagomål mail.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 1474-2026 tillsynsbegäran.docx", "A 1474-2026")</f>
-        <v/>
-      </c>
-      <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 1474-2026 tillsynsbegäran mail.docx", "A 1474-2026")</f>
         <v/>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
         <v>44841</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3519,14 +3519,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 30592-2023</t>
+          <t>A 25279-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45112</v>
+        <v>45079</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3540,20 +3540,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>19</v>
+        <v>6.9</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3578,49 +3578,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25279-2023 artfynd.xlsx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25279-2023 karta.png", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25279-2023 FSC-klagomål.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25279-2023 FSC-klagomål mail.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25279-2023 tillsynsbegäran.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
-        <v/>
-      </c>
-      <c r="Z33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25279-2023 tillsynsbegäran mail.docx", "A 25279-2023")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 25279-2023</t>
+          <t>A 30592-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45079</v>
+        <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3634,21 +3630,21 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6.9</v>
+        <v>19</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>1</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
@@ -3662,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3672,45 +3668,49 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 25279-2023 artfynd.xlsx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 30592-2023 artfynd.xlsx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 25279-2023 karta.png", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 30592-2023 karta.png", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 25279-2023 FSC-klagomål.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 30592-2023 FSC-klagomål.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 25279-2023 FSC-klagomål mail.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 30592-2023 FSC-klagomål mail.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 25279-2023 tillsynsbegäran.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 30592-2023 tillsynsbegäran.docx", "A 30592-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 25279-2023 tillsynsbegäran mail.docx", "A 25279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 30592-2023 tillsynsbegäran mail.docx", "A 30592-2023")</f>
+        <v/>
+      </c>
+      <c r="Z34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 30592-2023 prioriterade fågelarter.docx", "A 30592-2023")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 18921-2025</t>
+          <t>A 12403-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45764</v>
+        <v>45730</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3722,16 +3722,11 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>12.5</v>
+        <v>10.1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3762,45 +3757,49 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 18921-2025 artfynd.xlsx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 18921-2025 karta.png", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 18921-2025 FSC-klagomål.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 18921-2025 FSC-klagomål mail.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 18921-2025 tillsynsbegäran.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 18921-2025 tillsynsbegäran mail.docx", "A 18921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
+        <v/>
+      </c>
+      <c r="Z35">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12403-2025</t>
+          <t>A 18921-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45730</v>
+        <v>45764</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3812,11 +3811,16 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>10.1</v>
+        <v>12.5</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3847,49 +3851,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 12403-2025 artfynd.xlsx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 18921-2025 artfynd.xlsx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 12403-2025 karta.png", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 18921-2025 karta.png", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 12403-2025 FSC-klagomål.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 18921-2025 FSC-klagomål.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 12403-2025 FSC-klagomål mail.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 18921-2025 FSC-klagomål mail.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 12403-2025 tillsynsbegäran.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 18921-2025 tillsynsbegäran.docx", "A 18921-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 12403-2025 tillsynsbegäran mail.docx", "A 12403-2025")</f>
-        <v/>
-      </c>
-      <c r="Z36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/fåglar/A 12403-2025 prioriterade fågelarter.docx", "A 12403-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 18921-2025 tillsynsbegäran mail.docx", "A 18921-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 41375-2024</t>
+          <t>A 26503-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45559</v>
+        <v>45807</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3901,29 +3901,24 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>5.9</v>
+        <v>20</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>1</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
@@ -3931,55 +3926,55 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Bergand</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 26503-2025</t>
+          <t>A 41375-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45807</v>
+        <v>45559</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3991,14 +3986,19 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>20</v>
+        <v>5.9</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -4016,41 +4016,41 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Bergand</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 26503-2025 artfynd.xlsx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/artfynd/A 41375-2024 artfynd.xlsx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 26503-2025 karta.png", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/kartor/A 41375-2024 karta.png", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 26503-2025 FSC-klagomål.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomål/A 41375-2024 FSC-klagomål.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 26503-2025 FSC-klagomål mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/klagomålsmail/A 41375-2024 FSC-klagomål mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 26503-2025 tillsynsbegäran.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsyn/A 41375-2024 tillsynsbegäran.docx", "A 41375-2024")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 26503-2025 tillsynsbegäran mail.docx", "A 26503-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2506/tillsynsmail/A 41375-2024 tillsynsbegäran mail.docx", "A 41375-2024")</f>
         <v/>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
         <v>44520</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44642</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4347,14 +4347,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 56278-2021</t>
+          <t>A 44751-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44479</v>
+        <v>44840</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4366,8 +4366,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>0.7</v>
+        <v>26.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4404,14 +4409,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 19620-2022</t>
+          <t>A 52573-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44694</v>
+        <v>44874</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4423,13 +4428,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>7.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4466,14 +4466,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 52573-2022</t>
+          <t>A 56278-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44874</v>
+        <v>44479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>7.7</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4523,14 +4523,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 44751-2022</t>
+          <t>A 19620-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44840</v>
+        <v>44694</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4544,11 +4544,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>26.1</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4585,14 +4585,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 27092-2022</t>
+          <t>A 72279-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44741</v>
+        <v>44543</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>15.6</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4642,14 +4642,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 72279-2021</t>
+          <t>A 27092-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44543</v>
+        <v>44741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.4</v>
+        <v>15.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4699,14 +4699,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 41799-2021</t>
+          <t>A 58879-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44425</v>
+        <v>44489</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>11.3</v>
+        <v>8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4756,14 +4756,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 58879-2021</t>
+          <t>A 41799-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44489</v>
+        <v>44425</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>8</v>
+        <v>11.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>44369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4875,14 +4875,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 56785-2024</t>
+          <t>A 46585-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45625</v>
+        <v>44445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4894,8 +4894,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4932,14 +4937,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 55124-2024</t>
+          <t>A 56785-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45618</v>
+        <v>45625</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4957,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>18.3</v>
+        <v>11.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4989,14 +4994,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 46585-2021</t>
+          <t>A 48376-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44445</v>
+        <v>45205</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5010,11 +5015,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>11.1</v>
+        <v>18.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5051,14 +5056,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 55422-2021</t>
+          <t>A 55124-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44475</v>
+        <v>45618</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5070,13 +5075,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>4.1</v>
+        <v>18.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5113,14 +5113,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 48940-2023</t>
+          <t>A 26103-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45205</v>
+        <v>45467</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>13.5</v>
+        <v>17.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5170,14 +5170,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 48376-2023</t>
+          <t>A 64826-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45205</v>
+        <v>45281</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5191,11 +5191,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>18.3</v>
+        <v>5.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5232,14 +5232,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 26472-2024</t>
+          <t>A 35194-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45469</v>
+        <v>45530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>8.199999999999999</v>
+        <v>20.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5289,14 +5289,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 26486-2024</t>
+          <t>A 36623-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45469</v>
+        <v>45153</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,8 +5308,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>7.1</v>
+        <v>16.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5346,14 +5351,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 26103-2024</t>
+          <t>A 526-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45467</v>
+        <v>45664</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5365,8 +5370,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>17.2</v>
+        <v>0.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5403,14 +5413,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 53822-2024</t>
+          <t>A 64832-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45614</v>
+        <v>45281</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5423,7 +5433,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>43.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5460,14 +5470,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 55266-2024</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45621</v>
+        <v>44833</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5480,7 +5490,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>11.3</v>
+        <v>24.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5517,14 +5527,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 28354-2022</t>
+          <t>A 43045-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44735</v>
+        <v>44833</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,13 +5546,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>0.3</v>
+        <v>23.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5579,14 +5584,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 20789-2022</t>
+          <t>A 73880-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44701</v>
+        <v>44552</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5599,7 +5604,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>20.3</v>
+        <v>11.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5636,14 +5641,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 64826-2023</t>
+          <t>A 23949-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45281</v>
+        <v>45455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5657,11 +5662,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5698,14 +5703,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 26773-2022</t>
+          <t>A 35627-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44732</v>
+        <v>45859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5717,13 +5722,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5760,14 +5760,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 62801-2023</t>
+          <t>A 29667-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45268</v>
+        <v>45825</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5779,8 +5779,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>7.1</v>
+        <v>20.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5817,14 +5822,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 10825-2025</t>
+          <t>A 55422-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45722</v>
+        <v>44475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5836,8 +5841,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>14.1</v>
+        <v>4.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5874,14 +5884,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 61729-2024</t>
+          <t>A 48940-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45649</v>
+        <v>45205</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5893,13 +5903,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>0.4</v>
+        <v>13.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5936,14 +5941,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 35194-2024</t>
+          <t>A 31104-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45530</v>
+        <v>45832.60090277778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5956,7 +5961,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>20.1</v>
+        <v>4.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5993,14 +5998,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 29649-2024</t>
+          <t>A 58989-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45484</v>
+        <v>45636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6014,11 +6019,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>24</v>
+        <v>3.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6055,14 +6060,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 41061-2024</t>
+          <t>A 25275-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45558</v>
+        <v>45079</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6074,8 +6079,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6112,14 +6122,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 526-2025</t>
+          <t>A 42325-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45664</v>
+        <v>45903</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6131,13 +6141,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>0.4</v>
+        <v>11.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6174,14 +6179,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 64832-2023</t>
+          <t>A 42331-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45281</v>
+        <v>45903</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6194,7 +6199,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>43.6</v>
+        <v>10</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6231,14 +6236,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 36623-2023</t>
+          <t>A 42518-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45153</v>
+        <v>45905</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6250,13 +6255,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>16.9</v>
+        <v>13.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6293,14 +6293,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 42274-2022</t>
+          <t>A 42597-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44830</v>
+        <v>45905</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6312,13 +6312,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>6.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6355,14 +6350,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 45072-2023</t>
+          <t>A 42526-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45187</v>
+        <v>45905</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6375,7 +6370,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.1</v>
+        <v>12.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6412,14 +6407,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 73880-2021</t>
+          <t>A 25559-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44552</v>
+        <v>44732</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6431,8 +6426,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>11.2</v>
+        <v>39</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6469,14 +6469,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 26470-2024</t>
+          <t>A 53822-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45468</v>
+        <v>45614</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6526,14 +6526,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 23949-2024</t>
+          <t>A 28354-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45455</v>
+        <v>44735</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6547,11 +6547,11 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.9</v>
+        <v>0.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6588,14 +6588,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 52581-2022</t>
+          <t>A 30606-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44874</v>
+        <v>45831</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6607,8 +6607,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>3.4</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6645,14 +6650,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 54589-2021</t>
+          <t>A 30617-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44473</v>
+        <v>45831</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6664,8 +6669,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>4.8</v>
+        <v>39.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6702,14 +6712,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 14375-2021</t>
+          <t>A 29662-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44279</v>
+        <v>45825</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6723,11 +6733,11 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>60</v>
+        <v>23.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6764,14 +6774,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 56754-2024</t>
+          <t>A 29674-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45625</v>
+        <v>45825</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6783,8 +6793,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>11.5</v>
+        <v>25.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6821,14 +6836,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 56800-2024</t>
+          <t>A 44943-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45625</v>
+        <v>45918</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6840,8 +6855,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6878,14 +6898,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 56782-2024</t>
+          <t>A 30595-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45625</v>
+        <v>45831</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6898,7 +6918,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.3</v>
+        <v>15.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6935,14 +6955,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 56794-2024</t>
+          <t>A 10825-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45625</v>
+        <v>45722</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6955,7 +6975,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>7.5</v>
+        <v>14.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6992,14 +7012,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 25928-2024</t>
+          <t>A 50255-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45467</v>
+        <v>45216</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7012,7 +7032,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7049,14 +7069,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 56276-2021</t>
+          <t>A 46747-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44479</v>
+        <v>45926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7069,7 +7089,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7106,14 +7126,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 35627-2025</t>
+          <t>A 61729-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45859</v>
+        <v>45649</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7125,8 +7145,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>8</v>
+        <v>0.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7163,14 +7188,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 58989-2024</t>
+          <t>A 36779-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45636</v>
+        <v>45873</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7182,13 +7207,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>3.5</v>
+        <v>17.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7225,14 +7245,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 42325-2025</t>
+          <t>A 29649-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45903</v>
+        <v>45484</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7244,8 +7264,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>11.3</v>
+        <v>24</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7282,14 +7307,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 42331-2025</t>
+          <t>A 37442-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45903</v>
+        <v>45877.54096064815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7302,7 +7327,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>10</v>
+        <v>4.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7339,14 +7364,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 3006-2024</t>
+          <t>A 45072-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45315</v>
+        <v>45187</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7359,7 +7384,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>9.1</v>
+        <v>2.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7396,14 +7421,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 42518-2025</t>
+          <t>A 48987-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45905</v>
+        <v>45937.5759837963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7415,8 +7440,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>13.3</v>
+        <v>6.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7453,14 +7483,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 42597-2025</t>
+          <t>A 48992-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45905</v>
+        <v>45937.58351851852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7472,8 +7502,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>9.199999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7510,14 +7545,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 42526-2025</t>
+          <t>A 52581-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45905</v>
+        <v>44874</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7530,7 +7565,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>12.5</v>
+        <v>3.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7567,14 +7602,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 25440-2024</t>
+          <t>A 54589-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45463</v>
+        <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7586,13 +7621,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>30.7</v>
+        <v>4.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7629,14 +7659,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 44943-2025</t>
+          <t>A 53246-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45918</v>
+        <v>45958.64807870371</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7650,11 +7680,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>36.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7691,14 +7721,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 45924-2023</t>
+          <t>A 3006-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45189</v>
+        <v>45315</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7711,7 +7741,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>11.2</v>
+        <v>9.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7748,14 +7778,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 50255-2023</t>
+          <t>A 34670-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45216</v>
+        <v>45847</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7768,7 +7798,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>20</v>
+        <v>2.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7805,14 +7835,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 25440-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44833</v>
+        <v>45463</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7824,8 +7854,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>24.6</v>
+        <v>30.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7862,14 +7897,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 46747-2025</t>
+          <t>A 55570-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45926</v>
+        <v>45971.65667824074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7881,8 +7916,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>19.7</v>
+        <v>10.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7919,14 +7959,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 43045-2022</t>
+          <t>A 34426-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44833</v>
+        <v>45845</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7939,7 +7979,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>23.2</v>
+        <v>4.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7976,14 +8016,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 12409-2025</t>
+          <t>A 17536-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45730.43366898148</v>
+        <v>45034</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7995,8 +8035,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>4.1</v>
+        <v>20.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8033,14 +8078,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 48987-2025</t>
+          <t>A 26470-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45937.5759837963</v>
+        <v>45468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8052,13 +8097,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8095,14 +8135,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 48992-2025</t>
+          <t>A 390-2026</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45937.58351851852</v>
+        <v>46028.22915509259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8114,13 +8154,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>2.2</v>
+        <v>19.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8157,14 +8192,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 26811-2022</t>
+          <t>A 14375-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44735</v>
+        <v>44279</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8182,7 +8217,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.5</v>
+        <v>60</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8219,14 +8254,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 29667-2025</t>
+          <t>A 56754-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45825</v>
+        <v>45625</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8238,13 +8273,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>20.1</v>
+        <v>11.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8281,14 +8311,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 31104-2025</t>
+          <t>A 56800-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45832.60090277778</v>
+        <v>45625</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8301,7 +8331,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8338,14 +8368,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 25275-2023</t>
+          <t>A 20905-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45079</v>
+        <v>45777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8357,13 +8387,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>22.7</v>
+        <v>10.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8400,14 +8425,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 44218-2023</t>
+          <t>A 59887-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45183</v>
+        <v>45993.32416666667</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8419,13 +8444,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8462,14 +8482,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 53246-2025</t>
+          <t>A 60767-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45958.64807870371</v>
+        <v>45999.3869212963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8481,13 +8501,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>36.7</v>
+        <v>11.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8524,14 +8539,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 25559-2022</t>
+          <t>A 60766-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44732</v>
+        <v>45999.38688657407</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8543,13 +8558,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8586,14 +8596,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 64837-2023</t>
+          <t>A 56782-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45281</v>
+        <v>45625</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8606,7 +8616,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8643,14 +8653,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 64840-2023</t>
+          <t>A 56794-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45281</v>
+        <v>45625</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8663,7 +8673,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8700,14 +8710,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 34670-2025</t>
+          <t>A 25928-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45847</v>
+        <v>45467</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8720,7 +8730,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.3</v>
+        <v>12</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8757,14 +8767,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 55570-2025</t>
+          <t>A 45924-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45971.65667824074</v>
+        <v>45189</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8776,13 +8786,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>10.6</v>
+        <v>11.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8819,14 +8824,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 64816-2023</t>
+          <t>A 12409-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45281</v>
+        <v>45730.43366898148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8839,7 +8844,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>13.4</v>
+        <v>4.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8876,14 +8881,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 34426-2025</t>
+          <t>A 6642-2026</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45845</v>
+        <v>46056.53643518518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8896,7 +8901,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.3</v>
+        <v>13.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8933,14 +8938,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 26479-2024</t>
+          <t>A 26811-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45468</v>
+        <v>44735</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8952,8 +8957,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>6.9</v>
+        <v>0.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8990,14 +9000,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 30606-2025</t>
+          <t>A 38851-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45831</v>
+        <v>45887.55271990741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9009,13 +9019,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>70.40000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9052,14 +9057,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 30617-2025</t>
+          <t>A 44218-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45831</v>
+        <v>45183</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9077,7 +9082,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>39.8</v>
+        <v>5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9114,14 +9119,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 29662-2025</t>
+          <t>A 64837-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45825</v>
+        <v>45281</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9133,13 +9138,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>23.7</v>
+        <v>5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9176,14 +9176,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 29674-2025</t>
+          <t>A 64840-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45825</v>
+        <v>45281</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9195,13 +9195,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>25.1</v>
+        <v>3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9238,14 +9233,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 30595-2025</t>
+          <t>A 12447-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45831</v>
+        <v>45730</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9258,7 +9253,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>15.6</v>
+        <v>7.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9295,14 +9290,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 17536-2023</t>
+          <t>A 64816-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45034</v>
+        <v>45281</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9314,13 +9309,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>20.3</v>
+        <v>13.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9357,14 +9347,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 390-2026</t>
+          <t>A 26479-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46028.22915509259</v>
+        <v>45468</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9377,7 +9367,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>19.5</v>
+        <v>6.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9414,14 +9404,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 36779-2025</t>
+          <t>A 25239-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45873</v>
+        <v>45079</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9433,8 +9423,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>17.2</v>
+        <v>7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9478,7 +9473,7 @@
         <v>45281</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9528,14 +9523,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 37442-2025</t>
+          <t>A 10476-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45877.54096064815</v>
+        <v>46076</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9548,7 +9543,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9585,14 +9580,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 20905-2025</t>
+          <t>A 46910-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45777</v>
+        <v>45583</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9605,7 +9600,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>10.6</v>
+        <v>3.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9642,14 +9637,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 59887-2025</t>
+          <t>A 30870-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45993.32416666667</v>
+        <v>45113</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9661,8 +9656,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>1.2</v>
+        <v>25.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9699,14 +9699,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 46910-2024</t>
+          <t>A 64822-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45583</v>
+        <v>45281</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9756,14 +9756,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 30870-2023</t>
+          <t>A 58370-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45113</v>
+        <v>45250</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9775,13 +9775,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>25.5</v>
+        <v>1.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9818,14 +9813,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 60767-2025</t>
+          <t>A 25270-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45999.3869212963</v>
+        <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9837,8 +9832,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>11.3</v>
+        <v>29</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9875,14 +9875,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 60766-2025</t>
+          <t>A 26472-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45999.38688657407</v>
+        <v>45469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9932,14 +9932,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 64822-2023</t>
+          <t>A 26486-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45281</v>
+        <v>45469</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>5</v>
+        <v>7.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9989,14 +9989,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 58370-2023</t>
+          <t>A 55266-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45250</v>
+        <v>45621</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>11.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10046,14 +10046,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 6642-2026</t>
+          <t>A 20789-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46056.53643518518</v>
+        <v>44701</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>13.5</v>
+        <v>20.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10103,14 +10103,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 38851-2025</t>
+          <t>A 26773-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45887.55271990741</v>
+        <v>44732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10122,8 +10122,13 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>15.2</v>
+        <v>34</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10160,14 +10165,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 12447-2025</t>
+          <t>A 62801-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45730</v>
+        <v>45268</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10180,7 +10185,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10217,14 +10222,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 25239-2023</t>
+          <t>A 41061-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45079</v>
+        <v>45558</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10236,13 +10241,8 @@
           <t>ARJEPLOG</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>7</v>
+        <v>23.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10279,14 +10279,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 25270-2023</t>
+          <t>A 42274-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45079</v>
+        <v>44830</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10300,11 +10300,11 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>29</v>
+        <v>6.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10341,14 +10341,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 10476-2026</t>
+          <t>A 56276-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46076</v>
+        <v>44479</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.2</v>
+        <v>19.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -575,7 +575,7 @@
         <v>45281</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44382</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>45891.34503472222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45467</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45281</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45576</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45831</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>45671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>45818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45203</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45327</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45079</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44851</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>45845</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45937</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>45281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>45467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44658</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>45190</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>45366</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>46033</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44280</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>45034</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>45190</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>46033</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>46033</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>45190</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>45579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44841</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>45079</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>45730</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>45764</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45807</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>45559</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>44520</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44642</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>44840</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44874</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44694</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44543</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44489</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44425</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>45625</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>45205</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45618</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45467</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45281</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>45530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>45153</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>45664</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45281</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44833</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44833</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>44552</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>45859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>45825</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>44475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>45205</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>45832.60090277778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>45636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45079</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>45903</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45903</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45905</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45905</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45905</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44732</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>45614</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44735</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>45831</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>45831</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>45825</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>45825</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>45918</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45831</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>45722</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>45216</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>45926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>45649</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>45873</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>45484</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>45877.54096064815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45187</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45937.5759837963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45937.58351851852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44874</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45958.64807870371</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>45315</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>45847</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>45463</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>45971.65667824074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>45845</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>45034</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>45468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>46028.22915509259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44279</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45625</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45625</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>45777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45993.32416666667</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45999.3869212963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45999.38688657407</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45625</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45625</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45467</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45189</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45730.43366898148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>46056.53643518518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44735</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45887.55271990741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>45183</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45281</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45281</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45730</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45281</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45468</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45079</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>45281</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>46076</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>45583</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>45113</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>45281</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>45250</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>45469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>45469</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>45621</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44701</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>44732</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>45268</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>45558</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>44830</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>44479</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
